--- a/GATEWAY/A1#111DOCUNQUESRLXX/Docunque_SRL/Docunque/V.1.0.0/report-checklist.xlsx
+++ b/GATEWAY/A1#111DOCUNQUESRLXX/Docunque_SRL/Docunque/V.1.0.0/report-checklist.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ludo/GitHub/FSE2/PULL_REQUEST/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E89B07EC-B714-254C-9424-82438C75682E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DC3B335-E5DB-9B49-AFF7-A51B1F9FFDA2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7820" yWindow="29560" windowWidth="34560" windowHeight="21580" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4360" yWindow="760" windowWidth="30200" windowHeight="20200" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Istruzioni Compilazione" sheetId="1" r:id="rId1"/>
@@ -4490,12 +4490,6 @@
     <t>Il caso di test fa riferimento ad un esempio CDA2 semplice in cui sono presenti solo le sezioni ed elementi obbligatori da specifiche nazionali HL7 Italia.</t>
   </si>
   <si>
-    <t>03c41b1574e25f32</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.120.4.4.a9f4347f79cf3e1cf2ff4d79eaf6d0cf8d4a82cf3fb4e942adcc54e7fc27772e.7f401345c6^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
     <t xml:space="preserve">3) Se il test è applicabile la colonna APPLICABILITA' deve essere compilata con SI e dovranno essere valorizzate:
     DATA ESECUZIONE, 
     TIMESTAMP, 
@@ -4510,30 +4504,6 @@
   </si>
   <si>
     <t>Il caso di test fa riferimento ad un esempio CDA2 in cui sono presenti le section obbligatorie e tutte le relative entry obbligatorie e opzionali, con alcuni sotto-elementi aggiuntivi le cui cardinalità sono riportate nel file excel.</t>
-  </si>
-  <si>
-    <t>95b931931416d4ba</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.120.4.4.a9f4347f79cf3e1cf2ff4d79eaf6d0cf8d4a82cf3fb4e942adcc54e7fc27772e.a4de5c14f6^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>6449cd11663ce48d</t>
-  </si>
-  <si>
-    <t>05250d5651da62ea</t>
-  </si>
-  <si>
-    <t>08d16bddc98332b8</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.120.4.4.a9f4347f79cf3e1cf2ff4d79eaf6d0cf8d4a82cf3fb4e942adcc54e7fc27772e.29712043cc^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.120.4.4.a9f4347f79cf3e1cf2ff4d79eaf6d0cf8d4a82cf3fb4e942adcc54e7fc27772e.658d7e7c16^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.120.4.4.a9f4347f79cf3e1cf2ff4d79eaf6d0cf8d4a82cf3fb4e942adcc54e7fc27772e.6ef94793de^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
   <si>
     <t>Si prende in esame il caso di un assistito che è stato affetto da un ictus e che ha necessità di effettuare attività di riabilitazione sia motoria che di logopedia</t>
@@ -5430,6 +5400,36 @@
   </si>
   <si>
     <t>Il campo purpose_of_use non è corretto</t>
+  </si>
+  <si>
+    <t>c0a75b037e9dbce3</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.120.4.4.a9f4347f79cf3e1cf2ff4d79eaf6d0cf8d4a82cf3fb4e942adcc54e7fc27772e.bc485131e4^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>88d6e93a1045bb1c</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.120.4.4.a9f4347f79cf3e1cf2ff4d79eaf6d0cf8d4a82cf3fb4e942adcc54e7fc27772e.94aa7902bb^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>be1751d3e5efc8a5</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.120.4.4.a9f4347f79cf3e1cf2ff4d79eaf6d0cf8d4a82cf3fb4e942adcc54e7fc27772e.030927dab1^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>6f36b4173d41641f</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.120.4.4.a9f4347f79cf3e1cf2ff4d79eaf6d0cf8d4a82cf3fb4e942adcc54e7fc27772e.aa3c172925^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>4dafa1eaa1eeed39</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.120.4.4.a9f4347f79cf3e1cf2ff4d79eaf6d0cf8d4a82cf3fb4e942adcc54e7fc27772e.f0949a9652^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
 </sst>
 </file>
@@ -6255,7 +6255,7 @@
     </row>
     <row r="4" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>830</v>
+        <v>828</v>
       </c>
     </row>
     <row r="5" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -8398,8 +8398,8 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:T1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="N190" sqref="N190"/>
+    <sheetView tabSelected="1" topLeftCell="E6" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="I382" sqref="I382"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -8444,7 +8444,7 @@
       </c>
       <c r="B2" s="45"/>
       <c r="C2" s="46" t="s">
-        <v>913</v>
+        <v>903</v>
       </c>
       <c r="D2" s="45"/>
       <c r="F2" s="11"/>
@@ -8469,7 +8469,7 @@
       </c>
       <c r="B3" s="48"/>
       <c r="C3" s="46" t="s">
-        <v>912</v>
+        <v>902</v>
       </c>
       <c r="D3" s="45"/>
       <c r="F3" s="11"/>
@@ -8492,7 +8492,7 @@
       <c r="A4" s="49"/>
       <c r="B4" s="50"/>
       <c r="C4" s="46" t="s">
-        <v>910</v>
+        <v>900</v>
       </c>
       <c r="D4" s="45"/>
       <c r="E4" s="3"/>
@@ -8516,7 +8516,7 @@
       <c r="A5" s="51"/>
       <c r="B5" s="52"/>
       <c r="C5" s="46" t="s">
-        <v>911</v>
+        <v>901</v>
       </c>
       <c r="D5" s="45"/>
       <c r="F5" s="11"/>
@@ -9595,10 +9595,10 @@
         <v>45251.453587962962</v>
       </c>
       <c r="H37" s="23" t="s">
-        <v>916</v>
+        <v>906</v>
       </c>
       <c r="I37" s="23" t="s">
-        <v>917</v>
+        <v>907</v>
       </c>
       <c r="J37" s="24" t="s">
         <v>137</v>
@@ -9611,13 +9611,13 @@
         <v>137</v>
       </c>
       <c r="N37" s="24" t="s">
-        <v>918</v>
+        <v>908</v>
       </c>
       <c r="O37" s="24" t="s">
         <v>826</v>
       </c>
       <c r="P37" s="24" t="s">
-        <v>919</v>
+        <v>909</v>
       </c>
       <c r="Q37" s="24"/>
       <c r="R37" s="25"/>
@@ -9887,10 +9887,10 @@
         <v>45251.46292824074</v>
       </c>
       <c r="H45" s="23" t="s">
-        <v>920</v>
+        <v>910</v>
       </c>
       <c r="I45" s="23" t="s">
-        <v>917</v>
+        <v>907</v>
       </c>
       <c r="J45" s="24" t="s">
         <v>137</v>
@@ -9903,13 +9903,13 @@
         <v>137</v>
       </c>
       <c r="N45" s="24" t="s">
-        <v>921</v>
+        <v>911</v>
       </c>
       <c r="O45" s="24" t="s">
         <v>826</v>
       </c>
       <c r="P45" s="24" t="s">
-        <v>919</v>
+        <v>909</v>
       </c>
       <c r="Q45" s="24"/>
       <c r="R45" s="25"/>
@@ -10195,13 +10195,13 @@
         <v>137</v>
       </c>
       <c r="N53" s="24" t="s">
-        <v>914</v>
+        <v>904</v>
       </c>
       <c r="O53" s="24" t="s">
         <v>826</v>
       </c>
       <c r="P53" s="24" t="s">
-        <v>915</v>
+        <v>905</v>
       </c>
       <c r="Q53" s="24"/>
       <c r="R53" s="25" t="s">
@@ -14421,16 +14421,16 @@
         <v>827</v>
       </c>
       <c r="F177" s="22">
-        <v>45194</v>
+        <v>45257</v>
       </c>
       <c r="G177" s="36">
-        <v>45194.716122685182</v>
+        <v>45257.776446759257</v>
       </c>
       <c r="H177" s="23" t="s">
-        <v>828</v>
+        <v>914</v>
       </c>
       <c r="I177" s="23" t="s">
-        <v>829</v>
+        <v>915</v>
       </c>
       <c r="J177" s="24" t="s">
         <v>137</v>
@@ -14462,19 +14462,19 @@
         <v>381</v>
       </c>
       <c r="E178" s="33" t="s">
-        <v>831</v>
+        <v>829</v>
       </c>
       <c r="F178" s="22">
-        <v>45194</v>
+        <v>45257</v>
       </c>
       <c r="G178" s="36">
-        <v>45194.720752314817</v>
+        <v>45257.763194444444</v>
       </c>
       <c r="H178" s="23" t="s">
-        <v>832</v>
+        <v>912</v>
       </c>
       <c r="I178" s="23" t="s">
-        <v>833</v>
+        <v>913</v>
       </c>
       <c r="J178" s="24" t="s">
         <v>137</v>
@@ -14506,19 +14506,19 @@
         <v>382</v>
       </c>
       <c r="E179" s="38" t="s">
-        <v>840</v>
+        <v>830</v>
       </c>
       <c r="F179" s="22">
-        <v>45194</v>
+        <v>45257.780370370368</v>
       </c>
       <c r="G179" s="36">
-        <v>45194.724699074075</v>
+        <v>45257.780370370368</v>
       </c>
       <c r="H179" s="23" t="s">
-        <v>835</v>
+        <v>916</v>
       </c>
       <c r="I179" s="23" t="s">
-        <v>838</v>
+        <v>917</v>
       </c>
       <c r="J179" s="24" t="s">
         <v>137</v>
@@ -14550,19 +14550,19 @@
         <v>383</v>
       </c>
       <c r="E180" s="38" t="s">
-        <v>841</v>
+        <v>831</v>
       </c>
       <c r="F180" s="22">
-        <v>45194</v>
+        <v>45257.784456018519</v>
       </c>
       <c r="G180" s="36">
-        <v>45194.731261574074</v>
+        <v>45257.784456018519</v>
       </c>
       <c r="H180" s="23" t="s">
-        <v>836</v>
+        <v>918</v>
       </c>
       <c r="I180" s="23" t="s">
-        <v>837</v>
+        <v>919</v>
       </c>
       <c r="J180" s="24" t="s">
         <v>137</v>
@@ -14603,10 +14603,10 @@
         <v>45194.735902777778</v>
       </c>
       <c r="H181" s="23" t="s">
-        <v>846</v>
+        <v>836</v>
       </c>
       <c r="I181" s="23" t="s">
-        <v>847</v>
+        <v>837</v>
       </c>
       <c r="J181" s="24" t="s">
         <v>137</v>
@@ -14619,13 +14619,13 @@
         <v>137</v>
       </c>
       <c r="N181" s="24" t="s">
-        <v>848</v>
+        <v>838</v>
       </c>
       <c r="O181" s="24" t="s">
         <v>137</v>
       </c>
       <c r="P181" s="24" t="s">
-        <v>843</v>
+        <v>833</v>
       </c>
       <c r="Q181" s="24"/>
       <c r="R181" s="25"/>
@@ -14648,7 +14648,7 @@
         <v>387</v>
       </c>
       <c r="E182" s="38" t="s">
-        <v>844</v>
+        <v>834</v>
       </c>
       <c r="F182" s="22">
         <v>45194</v>
@@ -14657,10 +14657,10 @@
         <v>45194.741400462961</v>
       </c>
       <c r="H182" s="23" t="s">
-        <v>849</v>
+        <v>839</v>
       </c>
       <c r="I182" s="23" t="s">
-        <v>851</v>
+        <v>841</v>
       </c>
       <c r="J182" s="24" t="s">
         <v>137</v>
@@ -14673,13 +14673,13 @@
         <v>137</v>
       </c>
       <c r="N182" s="24" t="s">
-        <v>850</v>
+        <v>840</v>
       </c>
       <c r="O182" s="24" t="s">
         <v>137</v>
       </c>
       <c r="P182" s="24" t="s">
-        <v>843</v>
+        <v>833</v>
       </c>
       <c r="Q182" s="24"/>
       <c r="R182" s="25"/>
@@ -14702,7 +14702,7 @@
         <v>388</v>
       </c>
       <c r="E183" s="32" t="s">
-        <v>845</v>
+        <v>835</v>
       </c>
       <c r="F183" s="22">
         <v>45194</v>
@@ -14711,10 +14711,10 @@
         <v>45194.748020833336</v>
       </c>
       <c r="H183" s="23" t="s">
-        <v>852</v>
+        <v>842</v>
       </c>
       <c r="I183" s="23" t="s">
-        <v>853</v>
+        <v>843</v>
       </c>
       <c r="J183" s="24" t="s">
         <v>137</v>
@@ -14727,13 +14727,13 @@
         <v>137</v>
       </c>
       <c r="N183" s="24" t="s">
-        <v>854</v>
+        <v>844</v>
       </c>
       <c r="O183" s="24" t="s">
         <v>137</v>
       </c>
       <c r="P183" s="24" t="s">
-        <v>843</v>
+        <v>833</v>
       </c>
       <c r="Q183" s="24"/>
       <c r="R183" s="25"/>
@@ -14756,7 +14756,7 @@
         <v>389</v>
       </c>
       <c r="E184" s="32" t="s">
-        <v>855</v>
+        <v>845</v>
       </c>
       <c r="F184" s="22">
         <v>45194</v>
@@ -14765,10 +14765,10 @@
         <v>45194.753391203703</v>
       </c>
       <c r="H184" s="23" t="s">
-        <v>868</v>
+        <v>858</v>
       </c>
       <c r="I184" s="23" t="s">
-        <v>869</v>
+        <v>859</v>
       </c>
       <c r="J184" s="24" t="s">
         <v>137</v>
@@ -14781,13 +14781,13 @@
         <v>137</v>
       </c>
       <c r="N184" s="24" t="s">
-        <v>870</v>
+        <v>860</v>
       </c>
       <c r="O184" s="24" t="s">
         <v>137</v>
       </c>
       <c r="P184" s="24" t="s">
-        <v>843</v>
+        <v>833</v>
       </c>
       <c r="Q184" s="24"/>
       <c r="R184" s="25"/>
@@ -14810,7 +14810,7 @@
         <v>390</v>
       </c>
       <c r="E185" s="38" t="s">
-        <v>856</v>
+        <v>846</v>
       </c>
       <c r="F185" s="22">
         <v>45194</v>
@@ -14819,10 +14819,10 @@
         <v>45194.754710648151</v>
       </c>
       <c r="H185" s="23" t="s">
-        <v>873</v>
+        <v>863</v>
       </c>
       <c r="I185" s="23" t="s">
-        <v>874</v>
+        <v>864</v>
       </c>
       <c r="J185" s="24" t="s">
         <v>137</v>
@@ -14835,13 +14835,13 @@
         <v>137</v>
       </c>
       <c r="N185" s="24" t="s">
-        <v>871</v>
+        <v>861</v>
       </c>
       <c r="O185" s="24" t="s">
         <v>137</v>
       </c>
       <c r="P185" s="24" t="s">
-        <v>843</v>
+        <v>833</v>
       </c>
       <c r="Q185" s="24"/>
       <c r="R185" s="25"/>
@@ -14864,7 +14864,7 @@
         <v>391</v>
       </c>
       <c r="E186" s="32" t="s">
-        <v>857</v>
+        <v>847</v>
       </c>
       <c r="F186" s="22">
         <v>45194</v>
@@ -14873,10 +14873,10 @@
         <v>45194.757233796299</v>
       </c>
       <c r="H186" s="23" t="s">
-        <v>876</v>
+        <v>866</v>
       </c>
       <c r="I186" s="23" t="s">
-        <v>875</v>
+        <v>865</v>
       </c>
       <c r="J186" s="24" t="s">
         <v>137</v>
@@ -14889,13 +14889,13 @@
         <v>137</v>
       </c>
       <c r="N186" s="24" t="s">
-        <v>872</v>
+        <v>862</v>
       </c>
       <c r="O186" s="24" t="s">
         <v>137</v>
       </c>
       <c r="P186" s="24" t="s">
-        <v>843</v>
+        <v>833</v>
       </c>
       <c r="Q186" s="24"/>
       <c r="R186" s="25"/>
@@ -14918,7 +14918,7 @@
         <v>392</v>
       </c>
       <c r="E187" s="32" t="s">
-        <v>858</v>
+        <v>848</v>
       </c>
       <c r="F187" s="22">
         <v>45194</v>
@@ -14927,10 +14927,10 @@
         <v>45194.760578703703</v>
       </c>
       <c r="H187" s="23" t="s">
-        <v>877</v>
+        <v>867</v>
       </c>
       <c r="I187" s="23" t="s">
-        <v>878</v>
+        <v>868</v>
       </c>
       <c r="J187" s="24" t="s">
         <v>137</v>
@@ -14943,13 +14943,13 @@
         <v>137</v>
       </c>
       <c r="N187" s="24" t="s">
-        <v>879</v>
+        <v>869</v>
       </c>
       <c r="O187" s="24" t="s">
         <v>137</v>
       </c>
       <c r="P187" s="24" t="s">
-        <v>843</v>
+        <v>833</v>
       </c>
       <c r="Q187" s="24"/>
       <c r="R187" s="25"/>
@@ -14981,10 +14981,10 @@
         <v>45194.762465277781</v>
       </c>
       <c r="H188" s="23" t="s">
-        <v>880</v>
+        <v>870</v>
       </c>
       <c r="I188" s="23" t="s">
-        <v>881</v>
+        <v>871</v>
       </c>
       <c r="J188" s="24" t="s">
         <v>137</v>
@@ -14997,13 +14997,13 @@
         <v>137</v>
       </c>
       <c r="N188" s="24" t="s">
-        <v>882</v>
+        <v>872</v>
       </c>
       <c r="O188" s="24" t="s">
         <v>137</v>
       </c>
       <c r="P188" s="24" t="s">
-        <v>843</v>
+        <v>833</v>
       </c>
       <c r="Q188" s="24"/>
       <c r="R188" s="25"/>
@@ -15026,7 +15026,7 @@
         <v>395</v>
       </c>
       <c r="E189" s="32" t="s">
-        <v>859</v>
+        <v>849</v>
       </c>
       <c r="F189" s="22">
         <v>45194</v>
@@ -15035,10 +15035,10 @@
         <v>45194.764699074076</v>
       </c>
       <c r="H189" s="23" t="s">
-        <v>883</v>
+        <v>873</v>
       </c>
       <c r="I189" s="23" t="s">
-        <v>884</v>
+        <v>874</v>
       </c>
       <c r="J189" s="24" t="s">
         <v>137</v>
@@ -15051,13 +15051,13 @@
         <v>137</v>
       </c>
       <c r="N189" s="24" t="s">
-        <v>885</v>
+        <v>875</v>
       </c>
       <c r="O189" s="24" t="s">
         <v>137</v>
       </c>
       <c r="P189" s="24" t="s">
-        <v>843</v>
+        <v>833</v>
       </c>
       <c r="Q189" s="24"/>
       <c r="R189" s="25"/>
@@ -15080,7 +15080,7 @@
         <v>396</v>
       </c>
       <c r="E190" s="32" t="s">
-        <v>860</v>
+        <v>850</v>
       </c>
       <c r="F190" s="22">
         <v>45251</v>
@@ -15089,10 +15089,10 @@
         <v>45251.429039351853</v>
       </c>
       <c r="H190" s="23" t="s">
-        <v>908</v>
+        <v>898</v>
       </c>
       <c r="I190" s="23" t="s">
-        <v>909</v>
+        <v>899</v>
       </c>
       <c r="J190" s="24" t="s">
         <v>137</v>
@@ -15105,13 +15105,13 @@
         <v>137</v>
       </c>
       <c r="N190" s="24" t="s">
-        <v>907</v>
+        <v>897</v>
       </c>
       <c r="O190" s="24" t="s">
         <v>137</v>
       </c>
       <c r="P190" s="24" t="s">
-        <v>843</v>
+        <v>833</v>
       </c>
       <c r="Q190" s="24"/>
       <c r="R190" s="25"/>
@@ -15134,7 +15134,7 @@
         <v>397</v>
       </c>
       <c r="E191" s="32" t="s">
-        <v>861</v>
+        <v>851</v>
       </c>
       <c r="F191" s="22">
         <v>45194</v>
@@ -15143,10 +15143,10 @@
         <v>45194.773472222223</v>
       </c>
       <c r="H191" s="23" t="s">
-        <v>889</v>
+        <v>879</v>
       </c>
       <c r="I191" s="23" t="s">
-        <v>890</v>
+        <v>880</v>
       </c>
       <c r="J191" s="24" t="s">
         <v>137</v>
@@ -15159,13 +15159,13 @@
         <v>137</v>
       </c>
       <c r="N191" s="24" t="s">
-        <v>891</v>
+        <v>881</v>
       </c>
       <c r="O191" s="24" t="s">
         <v>137</v>
       </c>
       <c r="P191" s="24" t="s">
-        <v>843</v>
+        <v>833</v>
       </c>
       <c r="Q191" s="24"/>
       <c r="R191" s="25"/>
@@ -15188,7 +15188,7 @@
         <v>398</v>
       </c>
       <c r="E192" s="32" t="s">
-        <v>862</v>
+        <v>852</v>
       </c>
       <c r="F192" s="22">
         <v>45197</v>
@@ -15197,10 +15197,10 @@
         <v>45197.658148148148</v>
       </c>
       <c r="H192" s="23" t="s">
-        <v>900</v>
+        <v>890</v>
       </c>
       <c r="I192" s="23" t="s">
-        <v>899</v>
+        <v>889</v>
       </c>
       <c r="J192" s="24" t="s">
         <v>137</v>
@@ -15213,13 +15213,13 @@
         <v>137</v>
       </c>
       <c r="N192" s="24" t="s">
-        <v>898</v>
+        <v>888</v>
       </c>
       <c r="O192" s="24" t="s">
         <v>137</v>
       </c>
       <c r="P192" s="24" t="s">
-        <v>843</v>
+        <v>833</v>
       </c>
       <c r="Q192" s="24"/>
       <c r="R192" s="25"/>
@@ -15242,7 +15242,7 @@
         <v>399</v>
       </c>
       <c r="E193" s="32" t="s">
-        <v>863</v>
+        <v>853</v>
       </c>
       <c r="F193" s="22">
         <v>45197</v>
@@ -15251,10 +15251,10 @@
         <v>45197.660046296296</v>
       </c>
       <c r="H193" s="23" t="s">
-        <v>901</v>
+        <v>891</v>
       </c>
       <c r="I193" s="23" t="s">
-        <v>902</v>
+        <v>892</v>
       </c>
       <c r="J193" s="24" t="s">
         <v>137</v>
@@ -15267,13 +15267,13 @@
         <v>137</v>
       </c>
       <c r="N193" s="24" t="s">
-        <v>903</v>
+        <v>893</v>
       </c>
       <c r="O193" s="24" t="s">
         <v>137</v>
       </c>
       <c r="P193" s="24" t="s">
-        <v>843</v>
+        <v>833</v>
       </c>
       <c r="Q193" s="24"/>
       <c r="R193" s="25"/>
@@ -15296,7 +15296,7 @@
         <v>400</v>
       </c>
       <c r="E194" s="38" t="s">
-        <v>864</v>
+        <v>854</v>
       </c>
       <c r="F194" s="22">
         <v>45197</v>
@@ -15305,10 +15305,10 @@
         <v>45197.655763888892</v>
       </c>
       <c r="H194" s="23" t="s">
-        <v>895</v>
+        <v>885</v>
       </c>
       <c r="I194" s="23" t="s">
-        <v>896</v>
+        <v>886</v>
       </c>
       <c r="J194" s="24" t="s">
         <v>137</v>
@@ -15321,13 +15321,13 @@
         <v>137</v>
       </c>
       <c r="N194" s="24" t="s">
-        <v>897</v>
+        <v>887</v>
       </c>
       <c r="O194" s="24" t="s">
         <v>137</v>
       </c>
       <c r="P194" s="24" t="s">
-        <v>843</v>
+        <v>833</v>
       </c>
       <c r="Q194" s="24"/>
       <c r="R194" s="25"/>
@@ -15350,7 +15350,7 @@
         <v>401</v>
       </c>
       <c r="E195" s="32" t="s">
-        <v>865</v>
+        <v>855</v>
       </c>
       <c r="F195" s="22">
         <v>45197</v>
@@ -15359,10 +15359,10 @@
         <v>45197.650925925926</v>
       </c>
       <c r="H195" s="23" t="s">
-        <v>892</v>
+        <v>882</v>
       </c>
       <c r="I195" s="23" t="s">
-        <v>893</v>
+        <v>883</v>
       </c>
       <c r="J195" s="24" t="s">
         <v>137</v>
@@ -15375,13 +15375,13 @@
         <v>137</v>
       </c>
       <c r="N195" s="24" t="s">
-        <v>894</v>
+        <v>884</v>
       </c>
       <c r="O195" s="24" t="s">
         <v>137</v>
       </c>
       <c r="P195" s="24" t="s">
-        <v>843</v>
+        <v>833</v>
       </c>
       <c r="Q195" s="24"/>
       <c r="R195" s="25"/>
@@ -15404,7 +15404,7 @@
         <v>402</v>
       </c>
       <c r="E196" s="41" t="s">
-        <v>866</v>
+        <v>856</v>
       </c>
       <c r="F196" s="22">
         <v>45243</v>
@@ -15413,10 +15413,10 @@
         <v>45243.677615740744</v>
       </c>
       <c r="H196" s="23" t="s">
-        <v>904</v>
+        <v>894</v>
       </c>
       <c r="I196" s="23" t="s">
-        <v>905</v>
+        <v>895</v>
       </c>
       <c r="J196" s="24" t="s">
         <v>137</v>
@@ -15429,13 +15429,13 @@
         <v>137</v>
       </c>
       <c r="N196" s="24" t="s">
-        <v>906</v>
+        <v>896</v>
       </c>
       <c r="O196" s="24" t="s">
         <v>137</v>
       </c>
       <c r="P196" s="24" t="s">
-        <v>843</v>
+        <v>833</v>
       </c>
       <c r="Q196" s="24"/>
       <c r="R196" s="25"/>
@@ -15458,7 +15458,7 @@
         <v>403</v>
       </c>
       <c r="E197" s="32" t="s">
-        <v>867</v>
+        <v>857</v>
       </c>
       <c r="F197" s="22">
         <v>45194</v>
@@ -15467,10 +15467,10 @@
         <v>45194.774178240739</v>
       </c>
       <c r="H197" s="23" t="s">
-        <v>886</v>
+        <v>876</v>
       </c>
       <c r="I197" s="23" t="s">
-        <v>887</v>
+        <v>877</v>
       </c>
       <c r="J197" s="24" t="s">
         <v>137</v>
@@ -15483,13 +15483,13 @@
         <v>137</v>
       </c>
       <c r="N197" s="24" t="s">
-        <v>888</v>
+        <v>878</v>
       </c>
       <c r="O197" s="24" t="s">
         <v>137</v>
       </c>
       <c r="P197" s="24" t="s">
-        <v>843</v>
+        <v>833</v>
       </c>
       <c r="Q197" s="24"/>
       <c r="R197" s="25"/>
@@ -21768,19 +21768,19 @@
         <v>384</v>
       </c>
       <c r="E382" s="38" t="s">
-        <v>842</v>
+        <v>832</v>
       </c>
       <c r="F382" s="22">
-        <v>45194</v>
+        <v>45257.787245370368</v>
       </c>
       <c r="G382" s="36">
-        <v>45194.731388888889</v>
+        <v>45257.787245370368</v>
       </c>
       <c r="H382" s="23" t="s">
-        <v>834</v>
+        <v>920</v>
       </c>
       <c r="I382" s="23" t="s">
-        <v>839</v>
+        <v>921</v>
       </c>
       <c r="J382" s="24" t="s">
         <v>137</v>

--- a/GATEWAY/A1#111DOCUNQUESRLXX/Docunque_SRL/Docunque/V.1.0.0/report-checklist.xlsx
+++ b/GATEWAY/A1#111DOCUNQUESRLXX/Docunque_SRL/Docunque/V.1.0.0/report-checklist.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ludo/GitHub/FSE2/PULL_REQUEST/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DC3B335-E5DB-9B49-AFF7-A51B1F9FFDA2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44A32247-2A04-4F49-B1DB-977A83FE73DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4360" yWindow="760" windowWidth="30200" windowHeight="20200" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="20200" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Istruzioni Compilazione" sheetId="1" r:id="rId1"/>
@@ -5366,18 +5366,12 @@
     <t>2.16.840.1.113883.2.9.2.120.4.4.a9f4347f79cf3e1cf2ff4d79eaf6d0cf8d4a82cf3fb4e942adcc54e7fc27772e.5add66e928^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
   <si>
-    <t>subject_application_vendor: Docunque_SRL</t>
-  </si>
-  <si>
     <t>subject_application_version: V.1.0.0</t>
   </si>
   <si>
     <t>subject_application_id: Docunque</t>
   </si>
   <si>
-    <t>Docunque_SRL</t>
-  </si>
-  <si>
     <t>Operation Timed Out</t>
   </si>
   <si>
@@ -5402,34 +5396,40 @@
     <t>Il campo purpose_of_use non è corretto</t>
   </si>
   <si>
-    <t>c0a75b037e9dbce3</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.120.4.4.a9f4347f79cf3e1cf2ff4d79eaf6d0cf8d4a82cf3fb4e942adcc54e7fc27772e.bc485131e4^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>88d6e93a1045bb1c</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.120.4.4.a9f4347f79cf3e1cf2ff4d79eaf6d0cf8d4a82cf3fb4e942adcc54e7fc27772e.94aa7902bb^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>be1751d3e5efc8a5</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.120.4.4.a9f4347f79cf3e1cf2ff4d79eaf6d0cf8d4a82cf3fb4e942adcc54e7fc27772e.030927dab1^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>6f36b4173d41641f</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.120.4.4.a9f4347f79cf3e1cf2ff4d79eaf6d0cf8d4a82cf3fb4e942adcc54e7fc27772e.aa3c172925^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>4dafa1eaa1eeed39</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.120.4.4.a9f4347f79cf3e1cf2ff4d79eaf6d0cf8d4a82cf3fb4e942adcc54e7fc27772e.f0949a9652^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+    <t>Docunque SRL</t>
+  </si>
+  <si>
+    <t>subject_application_vendor: Docunque SRL</t>
+  </si>
+  <si>
+    <t>43da95c5ca0d3f75</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.120.4.4.a9f4347f79cf3e1cf2ff4d79eaf6d0cf8d4a82cf3fb4e942adcc54e7fc27772e.aac1adc960^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>e8f59bae0e449045</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.120.4.4.a9f4347f79cf3e1cf2ff4d79eaf6d0cf8d4a82cf3fb4e942adcc54e7fc27772e.bb9862822a^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>f7730a7c235bdb16</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.120.4.4.a9f4347f79cf3e1cf2ff4d79eaf6d0cf8d4a82cf3fb4e942adcc54e7fc27772e.03fe66fcee^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>3347678a5dcd99b6</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.120.4.4.a9f4347f79cf3e1cf2ff4d79eaf6d0cf8d4a82cf3fb4e942adcc54e7fc27772e.7888746dca^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>af6cd2afba9f3ad8</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.120.4.4.a9f4347f79cf3e1cf2ff4d79eaf6d0cf8d4a82cf3fb4e942adcc54e7fc27772e.d366cc7c58^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
 </sst>
 </file>
@@ -8398,7 +8398,7 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:T1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E6" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="E53" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
       <selection activeCell="I382" sqref="I382"/>
     </sheetView>
   </sheetViews>
@@ -8444,7 +8444,7 @@
       </c>
       <c r="B2" s="45"/>
       <c r="C2" s="46" t="s">
-        <v>903</v>
+        <v>910</v>
       </c>
       <c r="D2" s="45"/>
       <c r="F2" s="11"/>
@@ -8469,7 +8469,7 @@
       </c>
       <c r="B3" s="48"/>
       <c r="C3" s="46" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="D3" s="45"/>
       <c r="F3" s="11"/>
@@ -8492,7 +8492,7 @@
       <c r="A4" s="49"/>
       <c r="B4" s="50"/>
       <c r="C4" s="46" t="s">
-        <v>900</v>
+        <v>911</v>
       </c>
       <c r="D4" s="45"/>
       <c r="E4" s="3"/>
@@ -8516,7 +8516,7 @@
       <c r="A5" s="51"/>
       <c r="B5" s="52"/>
       <c r="C5" s="46" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="D5" s="45"/>
       <c r="F5" s="11"/>
@@ -9595,10 +9595,10 @@
         <v>45251.453587962962</v>
       </c>
       <c r="H37" s="23" t="s">
-        <v>906</v>
+        <v>904</v>
       </c>
       <c r="I37" s="23" t="s">
-        <v>907</v>
+        <v>905</v>
       </c>
       <c r="J37" s="24" t="s">
         <v>137</v>
@@ -9611,13 +9611,13 @@
         <v>137</v>
       </c>
       <c r="N37" s="24" t="s">
-        <v>908</v>
+        <v>906</v>
       </c>
       <c r="O37" s="24" t="s">
         <v>826</v>
       </c>
       <c r="P37" s="24" t="s">
-        <v>909</v>
+        <v>907</v>
       </c>
       <c r="Q37" s="24"/>
       <c r="R37" s="25"/>
@@ -9887,10 +9887,10 @@
         <v>45251.46292824074</v>
       </c>
       <c r="H45" s="23" t="s">
-        <v>910</v>
+        <v>908</v>
       </c>
       <c r="I45" s="23" t="s">
-        <v>907</v>
+        <v>905</v>
       </c>
       <c r="J45" s="24" t="s">
         <v>137</v>
@@ -9903,13 +9903,13 @@
         <v>137</v>
       </c>
       <c r="N45" s="24" t="s">
-        <v>911</v>
+        <v>909</v>
       </c>
       <c r="O45" s="24" t="s">
         <v>826</v>
       </c>
       <c r="P45" s="24" t="s">
-        <v>909</v>
+        <v>907</v>
       </c>
       <c r="Q45" s="24"/>
       <c r="R45" s="25"/>
@@ -10195,13 +10195,13 @@
         <v>137</v>
       </c>
       <c r="N53" s="24" t="s">
-        <v>904</v>
+        <v>902</v>
       </c>
       <c r="O53" s="24" t="s">
         <v>826</v>
       </c>
       <c r="P53" s="24" t="s">
-        <v>905</v>
+        <v>903</v>
       </c>
       <c r="Q53" s="24"/>
       <c r="R53" s="25" t="s">
@@ -14421,16 +14421,16 @@
         <v>827</v>
       </c>
       <c r="F177" s="22">
-        <v>45257</v>
+        <v>45260.529444444444</v>
       </c>
       <c r="G177" s="36">
-        <v>45257.776446759257</v>
+        <v>45260.529444444444</v>
       </c>
       <c r="H177" s="23" t="s">
-        <v>914</v>
+        <v>912</v>
       </c>
       <c r="I177" s="23" t="s">
-        <v>915</v>
+        <v>913</v>
       </c>
       <c r="J177" s="24" t="s">
         <v>137</v>
@@ -14465,16 +14465,16 @@
         <v>829</v>
       </c>
       <c r="F178" s="22">
-        <v>45257</v>
+        <v>45260.529444444444</v>
       </c>
       <c r="G178" s="36">
-        <v>45257.763194444444</v>
+        <v>45260.533009259256</v>
       </c>
       <c r="H178" s="23" t="s">
-        <v>912</v>
+        <v>914</v>
       </c>
       <c r="I178" s="23" t="s">
-        <v>913</v>
+        <v>915</v>
       </c>
       <c r="J178" s="24" t="s">
         <v>137</v>
@@ -14509,10 +14509,10 @@
         <v>830</v>
       </c>
       <c r="F179" s="22">
-        <v>45257.780370370368</v>
+        <v>45260.529444444444</v>
       </c>
       <c r="G179" s="36">
-        <v>45257.780370370368</v>
+        <v>45260.534583333334</v>
       </c>
       <c r="H179" s="23" t="s">
         <v>916</v>
@@ -14553,10 +14553,10 @@
         <v>831</v>
       </c>
       <c r="F180" s="22">
-        <v>45257.784456018519</v>
+        <v>45260.529444444444</v>
       </c>
       <c r="G180" s="36">
-        <v>45257.784456018519</v>
+        <v>45260.535960648151</v>
       </c>
       <c r="H180" s="23" t="s">
         <v>918</v>
@@ -21771,10 +21771,10 @@
         <v>832</v>
       </c>
       <c r="F382" s="22">
-        <v>45257.787245370368</v>
+        <v>45260.529444444444</v>
       </c>
       <c r="G382" s="36">
-        <v>45257.787245370368</v>
+        <v>45260.537245370368</v>
       </c>
       <c r="H382" s="23" t="s">
         <v>920</v>

--- a/GATEWAY/A1#111DOCUNQUESRLXX/Docunque_SRL/Docunque/V.1.0.0/report-checklist.xlsx
+++ b/GATEWAY/A1#111DOCUNQUESRLXX/Docunque_SRL/Docunque/V.1.0.0/report-checklist.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ludo/GitHub/FSE2/PULL_REQUEST/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44A32247-2A04-4F49-B1DB-977A83FE73DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{863BF93F-5C1C-6F46-822D-B788A5C4682C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="20200" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -5420,16 +5420,16 @@
     <t>2.16.840.1.113883.2.9.2.120.4.4.a9f4347f79cf3e1cf2ff4d79eaf6d0cf8d4a82cf3fb4e942adcc54e7fc27772e.03fe66fcee^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
   <si>
-    <t>3347678a5dcd99b6</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.120.4.4.a9f4347f79cf3e1cf2ff4d79eaf6d0cf8d4a82cf3fb4e942adcc54e7fc27772e.7888746dca^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
     <t>af6cd2afba9f3ad8</t>
   </si>
   <si>
     <t>2.16.840.1.113883.2.9.2.120.4.4.a9f4347f79cf3e1cf2ff4d79eaf6d0cf8d4a82cf3fb4e942adcc54e7fc27772e.d366cc7c58^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>7da273b51e88366d</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.120.4.4.a9f4347f79cf3e1cf2ff4d79eaf6d0cf8d4a82cf3fb4e942adcc54e7fc27772e.5b77b1c491^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
 </sst>
 </file>
@@ -8398,8 +8398,8 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:T1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E53" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="I382" sqref="I382"/>
+    <sheetView tabSelected="1" topLeftCell="F4" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="I180" sqref="I180"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -14553,16 +14553,16 @@
         <v>831</v>
       </c>
       <c r="F180" s="22">
-        <v>45260.529444444444</v>
+        <v>45264.510925925926</v>
       </c>
       <c r="G180" s="36">
-        <v>45260.535960648151</v>
+        <v>45264.510925925926</v>
       </c>
       <c r="H180" s="23" t="s">
-        <v>918</v>
+        <v>920</v>
       </c>
       <c r="I180" s="23" t="s">
-        <v>919</v>
+        <v>921</v>
       </c>
       <c r="J180" s="24" t="s">
         <v>137</v>
@@ -21777,10 +21777,10 @@
         <v>45260.537245370368</v>
       </c>
       <c r="H382" s="23" t="s">
-        <v>920</v>
+        <v>918</v>
       </c>
       <c r="I382" s="23" t="s">
-        <v>921</v>
+        <v>919</v>
       </c>
       <c r="J382" s="24" t="s">
         <v>137</v>

--- a/GATEWAY/A1#111DOCUNQUESRLXX/Docunque_SRL/Docunque/V.1.0.0/report-checklist.xlsx
+++ b/GATEWAY/A1#111DOCUNQUESRLXX/Docunque_SRL/Docunque/V.1.0.0/report-checklist.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ludo/GitHub/FSE2/PULL_REQUEST/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{863BF93F-5C1C-6F46-822D-B788A5C4682C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA61EBF8-96B0-EA44-8E1F-9FAD5F3133CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="20200" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -5426,10 +5426,10 @@
     <t>2.16.840.1.113883.2.9.2.120.4.4.a9f4347f79cf3e1cf2ff4d79eaf6d0cf8d4a82cf3fb4e942adcc54e7fc27772e.d366cc7c58^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
   <si>
-    <t>7da273b51e88366d</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.120.4.4.a9f4347f79cf3e1cf2ff4d79eaf6d0cf8d4a82cf3fb4e942adcc54e7fc27772e.5b77b1c491^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+    <t>3c410f956cc6c62f</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.120.4.4.a9f4347f79cf3e1cf2ff4d79eaf6d0cf8d4a82cf3fb4e942adcc54e7fc27772e.74e507e2b7^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
 </sst>
 </file>
@@ -8398,7 +8398,7 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:T1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F4" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
       <selection activeCell="I180" sqref="I180"/>
     </sheetView>
   </sheetViews>
@@ -14553,10 +14553,10 @@
         <v>831</v>
       </c>
       <c r="F180" s="22">
-        <v>45264.510925925926</v>
+        <v>45266.514745370368</v>
       </c>
       <c r="G180" s="36">
-        <v>45264.510925925926</v>
+        <v>45266.514745370368</v>
       </c>
       <c r="H180" s="23" t="s">
         <v>920</v>

--- a/GATEWAY/A1#111DOCUNQUESRLXX/Docunque_SRL/Docunque/V.1.0.0/report-checklist.xlsx
+++ b/GATEWAY/A1#111DOCUNQUESRLXX/Docunque_SRL/Docunque/V.1.0.0/report-checklist.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11116"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11210"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ludo/GitHub/FSE2/PULL_REQUEST/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA61EBF8-96B0-EA44-8E1F-9FAD5F3133CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC1F9C4B-A592-AC4A-99ED-CD057E9DFF32}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="20200" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-19820" yWindow="29540" windowWidth="34560" windowHeight="21600" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Istruzioni Compilazione" sheetId="1" r:id="rId1"/>
@@ -92,7 +92,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2249" uniqueCount="922">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2249" uniqueCount="921">
   <si>
     <t>COME VALORIZZARE LA CHECKLIST (tab TestCases)</t>
   </si>
@@ -620,52 +620,6 @@
   </si>
   <si>
     <t>VALIDAZIONE_TOKEN_JWT_PSS_KO</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <u/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>Precondizioni:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">
-Il fornitore utilizza un token jwt mancante di campi obbligatori, quindi non valido.
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <u/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">Descrizione di Business del caso di test: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">
-Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" con un token jwt non valido a causa della mancanza di uno o più campi obbligatori al fine di testare la gestione dell'errore sul token (status code 403), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
-Al fine di rendere non valido il token è necessario non valorizzare nel JWT il campo "purpose_of_use".</t>
-    </r>
   </si>
   <si>
     <t>VALIDAZIONE_TOKEN_JWT_RAD_KO</t>
@@ -5375,9 +5329,6 @@
     <t>Operation Timed Out</t>
   </si>
   <si>
-    <t>L'utente deve controllare la richiesta e riprovare</t>
-  </si>
-  <si>
     <t>ebe8f5eba49688a5</t>
   </si>
   <si>
@@ -5387,9 +5338,6 @@
     <t>Il campo subject_application_id non è valorizzato</t>
   </si>
   <si>
-    <t>L'utente deve controllare le credenziali</t>
-  </si>
-  <si>
     <t>2ef5cae7ae85840e</t>
   </si>
   <si>
@@ -5430,6 +5378,12 @@
   </si>
   <si>
     <t>2.16.840.1.113883.2.9.2.120.4.4.a9f4347f79cf3e1cf2ff4d79eaf6d0cf8d4a82cf3fb4e942adcc54e7fc27772e.74e507e2b7^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>Viene chiesto all'utente di verificare il codice fiscale proprio e del paziente. Se i codici fiscali sono errati, l'utente deve correggerli e riprovare, altrimenti aprire un ticket con il supporto.</t>
+  </si>
+  <si>
+    <t>L'utente deve controllare la richiesta e riprovare. Se l'errore persiste aprire un ticket con il supporto.</t>
   </si>
 </sst>
 </file>
@@ -6255,7 +6209,7 @@
     </row>
     <row r="4" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
     </row>
     <row r="5" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -8398,8 +8352,8 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:T1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="I180" sqref="I180"/>
+    <sheetView tabSelected="1" topLeftCell="L4" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="O177" sqref="O177"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -8444,7 +8398,7 @@
       </c>
       <c r="B2" s="45"/>
       <c r="C2" s="46" t="s">
-        <v>910</v>
+        <v>907</v>
       </c>
       <c r="D2" s="45"/>
       <c r="F2" s="11"/>
@@ -8469,7 +8423,7 @@
       </c>
       <c r="B3" s="48"/>
       <c r="C3" s="46" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="D3" s="45"/>
       <c r="F3" s="11"/>
@@ -8492,7 +8446,7 @@
       <c r="A4" s="49"/>
       <c r="B4" s="50"/>
       <c r="C4" s="46" t="s">
-        <v>911</v>
+        <v>908</v>
       </c>
       <c r="D4" s="45"/>
       <c r="E4" s="3"/>
@@ -8516,7 +8470,7 @@
       <c r="A5" s="51"/>
       <c r="B5" s="52"/>
       <c r="C5" s="46" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
       <c r="D5" s="45"/>
       <c r="F5" s="11"/>
@@ -9586,7 +9540,7 @@
         <v>107</v>
       </c>
       <c r="E37" s="21" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="F37" s="22">
         <v>45251.453587962962</v>
@@ -9595,29 +9549,29 @@
         <v>45251.453587962962</v>
       </c>
       <c r="H37" s="23" t="s">
-        <v>904</v>
+        <v>902</v>
       </c>
       <c r="I37" s="23" t="s">
-        <v>905</v>
+        <v>903</v>
       </c>
       <c r="J37" s="24" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="K37" s="24"/>
       <c r="L37" s="24" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="M37" s="24" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="N37" s="24" t="s">
-        <v>906</v>
+        <v>904</v>
       </c>
       <c r="O37" s="24" t="s">
-        <v>826</v>
+        <v>136</v>
       </c>
       <c r="P37" s="24" t="s">
-        <v>907</v>
+        <v>919</v>
       </c>
       <c r="Q37" s="24"/>
       <c r="R37" s="25"/>
@@ -9637,10 +9591,10 @@
         <v>65</v>
       </c>
       <c r="D38" s="20" t="s">
+        <v>108</v>
+      </c>
+      <c r="E38" s="21" t="s">
         <v>109</v>
-      </c>
-      <c r="E38" s="21" t="s">
-        <v>110</v>
       </c>
       <c r="F38" s="22"/>
       <c r="G38" s="23"/>
@@ -9668,13 +9622,13 @@
         <v>43</v>
       </c>
       <c r="C39" s="20" t="s">
+        <v>110</v>
+      </c>
+      <c r="D39" s="20" t="s">
         <v>111</v>
       </c>
-      <c r="D39" s="20" t="s">
+      <c r="E39" s="21" t="s">
         <v>112</v>
-      </c>
-      <c r="E39" s="21" t="s">
-        <v>113</v>
       </c>
       <c r="F39" s="22"/>
       <c r="G39" s="23"/>
@@ -9705,10 +9659,10 @@
         <v>74</v>
       </c>
       <c r="D40" s="20" t="s">
+        <v>113</v>
+      </c>
+      <c r="E40" s="21" t="s">
         <v>114</v>
-      </c>
-      <c r="E40" s="21" t="s">
-        <v>115</v>
       </c>
       <c r="F40" s="22"/>
       <c r="G40" s="23"/>
@@ -9739,10 +9693,10 @@
         <v>83</v>
       </c>
       <c r="D41" s="20" t="s">
+        <v>115</v>
+      </c>
+      <c r="E41" s="21" t="s">
         <v>116</v>
-      </c>
-      <c r="E41" s="21" t="s">
-        <v>117</v>
       </c>
       <c r="F41" s="22"/>
       <c r="G41" s="23"/>
@@ -9773,10 +9727,10 @@
         <v>92</v>
       </c>
       <c r="D42" s="20" t="s">
+        <v>117</v>
+      </c>
+      <c r="E42" s="21" t="s">
         <v>118</v>
-      </c>
-      <c r="E42" s="21" t="s">
-        <v>119</v>
       </c>
       <c r="F42" s="22"/>
       <c r="G42" s="23"/>
@@ -9807,10 +9761,10 @@
         <v>44</v>
       </c>
       <c r="D43" s="20" t="s">
+        <v>119</v>
+      </c>
+      <c r="E43" s="21" t="s">
         <v>120</v>
-      </c>
-      <c r="E43" s="21" t="s">
-        <v>121</v>
       </c>
       <c r="F43" s="22"/>
       <c r="G43" s="23"/>
@@ -9841,10 +9795,10 @@
         <v>56</v>
       </c>
       <c r="D44" s="20" t="s">
+        <v>121</v>
+      </c>
+      <c r="E44" s="21" t="s">
         <v>122</v>
-      </c>
-      <c r="E44" s="21" t="s">
-        <v>123</v>
       </c>
       <c r="F44" s="22"/>
       <c r="G44" s="23"/>
@@ -9875,10 +9829,10 @@
         <v>106</v>
       </c>
       <c r="D45" s="20" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E45" s="21" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F45" s="22">
         <v>45251.46292824074</v>
@@ -9887,29 +9841,29 @@
         <v>45251.46292824074</v>
       </c>
       <c r="H45" s="23" t="s">
-        <v>908</v>
+        <v>905</v>
       </c>
       <c r="I45" s="23" t="s">
-        <v>905</v>
+        <v>903</v>
       </c>
       <c r="J45" s="24" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="K45" s="24"/>
       <c r="L45" s="24" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="M45" s="24" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="N45" s="24" t="s">
-        <v>909</v>
+        <v>906</v>
       </c>
       <c r="O45" s="24" t="s">
-        <v>826</v>
+        <v>136</v>
       </c>
       <c r="P45" s="24" t="s">
-        <v>907</v>
+        <v>919</v>
       </c>
       <c r="Q45" s="24"/>
       <c r="R45" s="25"/>
@@ -9929,10 +9883,10 @@
         <v>65</v>
       </c>
       <c r="D46" s="20" t="s">
+        <v>124</v>
+      </c>
+      <c r="E46" s="21" t="s">
         <v>125</v>
-      </c>
-      <c r="E46" s="21" t="s">
-        <v>126</v>
       </c>
       <c r="F46" s="22"/>
       <c r="G46" s="23"/>
@@ -9960,13 +9914,13 @@
         <v>43</v>
       </c>
       <c r="C47" s="20" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D47" s="20" t="s">
+        <v>126</v>
+      </c>
+      <c r="E47" s="21" t="s">
         <v>127</v>
-      </c>
-      <c r="E47" s="21" t="s">
-        <v>128</v>
       </c>
       <c r="F47" s="22"/>
       <c r="G47" s="23"/>
@@ -9997,10 +9951,10 @@
         <v>74</v>
       </c>
       <c r="D48" s="20" t="s">
+        <v>128</v>
+      </c>
+      <c r="E48" s="21" t="s">
         <v>129</v>
-      </c>
-      <c r="E48" s="21" t="s">
-        <v>130</v>
       </c>
       <c r="F48" s="22"/>
       <c r="G48" s="23"/>
@@ -10031,10 +9985,10 @@
         <v>83</v>
       </c>
       <c r="D49" s="20" t="s">
+        <v>130</v>
+      </c>
+      <c r="E49" s="21" t="s">
         <v>131</v>
-      </c>
-      <c r="E49" s="21" t="s">
-        <v>132</v>
       </c>
       <c r="F49" s="22"/>
       <c r="G49" s="23"/>
@@ -10065,10 +10019,10 @@
         <v>92</v>
       </c>
       <c r="D50" s="20" t="s">
+        <v>132</v>
+      </c>
+      <c r="E50" s="21" t="s">
         <v>133</v>
-      </c>
-      <c r="E50" s="21" t="s">
-        <v>134</v>
       </c>
       <c r="F50" s="22"/>
       <c r="G50" s="23"/>
@@ -10099,10 +10053,10 @@
         <v>44</v>
       </c>
       <c r="D51" s="20" t="s">
+        <v>134</v>
+      </c>
+      <c r="E51" s="21" t="s">
         <v>135</v>
-      </c>
-      <c r="E51" s="21" t="s">
-        <v>136</v>
       </c>
       <c r="F51" s="22"/>
       <c r="G51" s="23"/>
@@ -10117,7 +10071,7 @@
       <c r="P51" s="24"/>
       <c r="Q51" s="24"/>
       <c r="R51" s="25" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="S51" s="26"/>
       <c r="T51" s="27" t="s">
@@ -10135,10 +10089,10 @@
         <v>56</v>
       </c>
       <c r="D52" s="20" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E52" s="21" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="F52" s="22"/>
       <c r="G52" s="23"/>
@@ -10153,7 +10107,7 @@
       <c r="P52" s="24"/>
       <c r="Q52" s="24"/>
       <c r="R52" s="25" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="S52" s="26"/>
       <c r="T52" s="27" t="s">
@@ -10171,10 +10125,10 @@
         <v>106</v>
       </c>
       <c r="D53" s="20" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E53" s="21" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="F53" s="22">
         <v>45251.46292824074</v>
@@ -10185,27 +10139,27 @@
       <c r="H53" s="23"/>
       <c r="I53" s="23"/>
       <c r="J53" s="24" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="K53" s="24"/>
       <c r="L53" s="24" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="M53" s="24" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="N53" s="24" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="O53" s="24" t="s">
-        <v>826</v>
+        <v>136</v>
       </c>
       <c r="P53" s="24" t="s">
-        <v>903</v>
+        <v>920</v>
       </c>
       <c r="Q53" s="24"/>
       <c r="R53" s="25" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="S53" s="26"/>
       <c r="T53" s="27" t="s">
@@ -10223,10 +10177,10 @@
         <v>65</v>
       </c>
       <c r="D54" s="20" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E54" s="21" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="F54" s="22"/>
       <c r="G54" s="23"/>
@@ -10241,7 +10195,7 @@
       <c r="P54" s="24"/>
       <c r="Q54" s="24"/>
       <c r="R54" s="25" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="S54" s="26"/>
       <c r="T54" s="27" t="s">
@@ -10256,13 +10210,13 @@
         <v>43</v>
       </c>
       <c r="C55" s="20" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D55" s="20" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E55" s="21" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="F55" s="22"/>
       <c r="G55" s="23"/>
@@ -10277,7 +10231,7 @@
       <c r="P55" s="24"/>
       <c r="Q55" s="24"/>
       <c r="R55" s="25" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="S55" s="26"/>
       <c r="T55" s="27" t="s">
@@ -10295,10 +10249,10 @@
         <v>74</v>
       </c>
       <c r="D56" s="20" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E56" s="21" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="F56" s="22"/>
       <c r="G56" s="23"/>
@@ -10313,7 +10267,7 @@
       <c r="P56" s="24"/>
       <c r="Q56" s="24"/>
       <c r="R56" s="25" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="S56" s="26"/>
       <c r="T56" s="27" t="s">
@@ -10331,10 +10285,10 @@
         <v>83</v>
       </c>
       <c r="D57" s="20" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E57" s="21" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="F57" s="22"/>
       <c r="G57" s="23"/>
@@ -10349,7 +10303,7 @@
       <c r="P57" s="24"/>
       <c r="Q57" s="24"/>
       <c r="R57" s="25" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="S57" s="26"/>
       <c r="T57" s="27" t="s">
@@ -10367,10 +10321,10 @@
         <v>92</v>
       </c>
       <c r="D58" s="20" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E58" s="21" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="F58" s="22"/>
       <c r="G58" s="23"/>
@@ -10385,7 +10339,7 @@
       <c r="P58" s="24"/>
       <c r="Q58" s="24"/>
       <c r="R58" s="25" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="S58" s="26"/>
       <c r="T58" s="27" t="s">
@@ -10403,10 +10357,10 @@
         <v>44</v>
       </c>
       <c r="D59" s="20" t="s">
+        <v>144</v>
+      </c>
+      <c r="E59" s="21" t="s">
         <v>145</v>
-      </c>
-      <c r="E59" s="21" t="s">
-        <v>146</v>
       </c>
       <c r="F59" s="22"/>
       <c r="G59" s="23"/>
@@ -10437,10 +10391,10 @@
         <v>44</v>
       </c>
       <c r="D60" s="20" t="s">
+        <v>146</v>
+      </c>
+      <c r="E60" s="21" t="s">
         <v>147</v>
-      </c>
-      <c r="E60" s="21" t="s">
-        <v>148</v>
       </c>
       <c r="F60" s="22"/>
       <c r="G60" s="23"/>
@@ -10471,10 +10425,10 @@
         <v>44</v>
       </c>
       <c r="D61" s="20" t="s">
+        <v>148</v>
+      </c>
+      <c r="E61" s="21" t="s">
         <v>149</v>
-      </c>
-      <c r="E61" s="21" t="s">
-        <v>150</v>
       </c>
       <c r="F61" s="22"/>
       <c r="G61" s="23"/>
@@ -10505,10 +10459,10 @@
         <v>44</v>
       </c>
       <c r="D62" s="20" t="s">
+        <v>150</v>
+      </c>
+      <c r="E62" s="21" t="s">
         <v>151</v>
-      </c>
-      <c r="E62" s="21" t="s">
-        <v>152</v>
       </c>
       <c r="F62" s="22"/>
       <c r="G62" s="23"/>
@@ -10539,10 +10493,10 @@
         <v>44</v>
       </c>
       <c r="D63" s="20" t="s">
+        <v>152</v>
+      </c>
+      <c r="E63" s="21" t="s">
         <v>153</v>
-      </c>
-      <c r="E63" s="21" t="s">
-        <v>154</v>
       </c>
       <c r="F63" s="22"/>
       <c r="G63" s="23"/>
@@ -10573,10 +10527,10 @@
         <v>44</v>
       </c>
       <c r="D64" s="20" t="s">
+        <v>154</v>
+      </c>
+      <c r="E64" s="21" t="s">
         <v>155</v>
-      </c>
-      <c r="E64" s="21" t="s">
-        <v>156</v>
       </c>
       <c r="F64" s="22"/>
       <c r="G64" s="23"/>
@@ -10607,10 +10561,10 @@
         <v>44</v>
       </c>
       <c r="D65" s="20" t="s">
+        <v>156</v>
+      </c>
+      <c r="E65" s="21" t="s">
         <v>157</v>
-      </c>
-      <c r="E65" s="21" t="s">
-        <v>158</v>
       </c>
       <c r="F65" s="22"/>
       <c r="G65" s="23"/>
@@ -10641,10 +10595,10 @@
         <v>44</v>
       </c>
       <c r="D66" s="20" t="s">
+        <v>158</v>
+      </c>
+      <c r="E66" s="21" t="s">
         <v>159</v>
-      </c>
-      <c r="E66" s="21" t="s">
-        <v>160</v>
       </c>
       <c r="F66" s="22"/>
       <c r="G66" s="23"/>
@@ -10675,10 +10629,10 @@
         <v>44</v>
       </c>
       <c r="D67" s="20" t="s">
+        <v>160</v>
+      </c>
+      <c r="E67" s="21" t="s">
         <v>161</v>
-      </c>
-      <c r="E67" s="21" t="s">
-        <v>162</v>
       </c>
       <c r="F67" s="22"/>
       <c r="G67" s="23"/>
@@ -10709,10 +10663,10 @@
         <v>44</v>
       </c>
       <c r="D68" s="20" t="s">
+        <v>162</v>
+      </c>
+      <c r="E68" s="21" t="s">
         <v>163</v>
-      </c>
-      <c r="E68" s="21" t="s">
-        <v>164</v>
       </c>
       <c r="F68" s="22"/>
       <c r="G68" s="23"/>
@@ -10743,10 +10697,10 @@
         <v>44</v>
       </c>
       <c r="D69" s="20" t="s">
+        <v>164</v>
+      </c>
+      <c r="E69" s="21" t="s">
         <v>165</v>
-      </c>
-      <c r="E69" s="21" t="s">
-        <v>166</v>
       </c>
       <c r="F69" s="22"/>
       <c r="G69" s="23"/>
@@ -10777,10 +10731,10 @@
         <v>56</v>
       </c>
       <c r="D70" s="20" t="s">
+        <v>166</v>
+      </c>
+      <c r="E70" s="21" t="s">
         <v>167</v>
-      </c>
-      <c r="E70" s="21" t="s">
-        <v>168</v>
       </c>
       <c r="F70" s="22"/>
       <c r="G70" s="23"/>
@@ -10811,10 +10765,10 @@
         <v>56</v>
       </c>
       <c r="D71" s="20" t="s">
+        <v>168</v>
+      </c>
+      <c r="E71" s="21" t="s">
         <v>169</v>
-      </c>
-      <c r="E71" s="21" t="s">
-        <v>170</v>
       </c>
       <c r="F71" s="22"/>
       <c r="G71" s="23"/>
@@ -10845,10 +10799,10 @@
         <v>56</v>
       </c>
       <c r="D72" s="20" t="s">
+        <v>170</v>
+      </c>
+      <c r="E72" s="21" t="s">
         <v>171</v>
-      </c>
-      <c r="E72" s="21" t="s">
-        <v>172</v>
       </c>
       <c r="F72" s="22"/>
       <c r="G72" s="23"/>
@@ -10879,10 +10833,10 @@
         <v>56</v>
       </c>
       <c r="D73" s="20" t="s">
+        <v>172</v>
+      </c>
+      <c r="E73" s="21" t="s">
         <v>173</v>
-      </c>
-      <c r="E73" s="21" t="s">
-        <v>174</v>
       </c>
       <c r="F73" s="22"/>
       <c r="G73" s="23"/>
@@ -10913,10 +10867,10 @@
         <v>56</v>
       </c>
       <c r="D74" s="20" t="s">
+        <v>174</v>
+      </c>
+      <c r="E74" s="21" t="s">
         <v>175</v>
-      </c>
-      <c r="E74" s="21" t="s">
-        <v>176</v>
       </c>
       <c r="F74" s="22"/>
       <c r="G74" s="23"/>
@@ -10947,10 +10901,10 @@
         <v>56</v>
       </c>
       <c r="D75" s="20" t="s">
+        <v>176</v>
+      </c>
+      <c r="E75" s="21" t="s">
         <v>177</v>
-      </c>
-      <c r="E75" s="21" t="s">
-        <v>178</v>
       </c>
       <c r="F75" s="22"/>
       <c r="G75" s="23"/>
@@ -10981,10 +10935,10 @@
         <v>56</v>
       </c>
       <c r="D76" s="20" t="s">
+        <v>178</v>
+      </c>
+      <c r="E76" s="21" t="s">
         <v>179</v>
-      </c>
-      <c r="E76" s="21" t="s">
-        <v>180</v>
       </c>
       <c r="F76" s="22"/>
       <c r="G76" s="23"/>
@@ -11015,10 +10969,10 @@
         <v>56</v>
       </c>
       <c r="D77" s="20" t="s">
+        <v>180</v>
+      </c>
+      <c r="E77" s="21" t="s">
         <v>181</v>
-      </c>
-      <c r="E77" s="21" t="s">
-        <v>182</v>
       </c>
       <c r="F77" s="22"/>
       <c r="G77" s="23"/>
@@ -11049,10 +11003,10 @@
         <v>56</v>
       </c>
       <c r="D78" s="20" t="s">
+        <v>182</v>
+      </c>
+      <c r="E78" s="21" t="s">
         <v>183</v>
-      </c>
-      <c r="E78" s="21" t="s">
-        <v>184</v>
       </c>
       <c r="F78" s="22"/>
       <c r="G78" s="23"/>
@@ -11083,10 +11037,10 @@
         <v>56</v>
       </c>
       <c r="D79" s="20" t="s">
+        <v>184</v>
+      </c>
+      <c r="E79" s="21" t="s">
         <v>185</v>
-      </c>
-      <c r="E79" s="21" t="s">
-        <v>186</v>
       </c>
       <c r="F79" s="22"/>
       <c r="G79" s="23"/>
@@ -11117,10 +11071,10 @@
         <v>56</v>
       </c>
       <c r="D80" s="20" t="s">
+        <v>186</v>
+      </c>
+      <c r="E80" s="21" t="s">
         <v>187</v>
-      </c>
-      <c r="E80" s="21" t="s">
-        <v>188</v>
       </c>
       <c r="F80" s="22"/>
       <c r="G80" s="23"/>
@@ -11151,10 +11105,10 @@
         <v>56</v>
       </c>
       <c r="D81" s="20" t="s">
+        <v>188</v>
+      </c>
+      <c r="E81" s="21" t="s">
         <v>189</v>
-      </c>
-      <c r="E81" s="21" t="s">
-        <v>190</v>
       </c>
       <c r="F81" s="22"/>
       <c r="G81" s="23"/>
@@ -11185,10 +11139,10 @@
         <v>65</v>
       </c>
       <c r="D82" s="20" t="s">
+        <v>190</v>
+      </c>
+      <c r="E82" s="21" t="s">
         <v>191</v>
-      </c>
-      <c r="E82" s="21" t="s">
-        <v>192</v>
       </c>
       <c r="F82" s="22"/>
       <c r="G82" s="23"/>
@@ -11219,10 +11173,10 @@
         <v>65</v>
       </c>
       <c r="D83" s="20" t="s">
+        <v>192</v>
+      </c>
+      <c r="E83" s="21" t="s">
         <v>193</v>
-      </c>
-      <c r="E83" s="21" t="s">
-        <v>194</v>
       </c>
       <c r="F83" s="22"/>
       <c r="G83" s="23"/>
@@ -11253,10 +11207,10 @@
         <v>65</v>
       </c>
       <c r="D84" s="20" t="s">
+        <v>194</v>
+      </c>
+      <c r="E84" s="21" t="s">
         <v>195</v>
-      </c>
-      <c r="E84" s="21" t="s">
-        <v>196</v>
       </c>
       <c r="F84" s="22"/>
       <c r="G84" s="23"/>
@@ -11287,10 +11241,10 @@
         <v>65</v>
       </c>
       <c r="D85" s="20" t="s">
+        <v>196</v>
+      </c>
+      <c r="E85" s="21" t="s">
         <v>197</v>
-      </c>
-      <c r="E85" s="21" t="s">
-        <v>198</v>
       </c>
       <c r="F85" s="22"/>
       <c r="G85" s="23"/>
@@ -11321,10 +11275,10 @@
         <v>65</v>
       </c>
       <c r="D86" s="20" t="s">
+        <v>198</v>
+      </c>
+      <c r="E86" s="21" t="s">
         <v>199</v>
-      </c>
-      <c r="E86" s="21" t="s">
-        <v>200</v>
       </c>
       <c r="F86" s="22"/>
       <c r="G86" s="23"/>
@@ -11355,10 +11309,10 @@
         <v>65</v>
       </c>
       <c r="D87" s="20" t="s">
+        <v>200</v>
+      </c>
+      <c r="E87" s="21" t="s">
         <v>201</v>
-      </c>
-      <c r="E87" s="21" t="s">
-        <v>202</v>
       </c>
       <c r="F87" s="22"/>
       <c r="G87" s="23"/>
@@ -11389,10 +11343,10 @@
         <v>65</v>
       </c>
       <c r="D88" s="20" t="s">
+        <v>202</v>
+      </c>
+      <c r="E88" s="21" t="s">
         <v>203</v>
-      </c>
-      <c r="E88" s="21" t="s">
-        <v>204</v>
       </c>
       <c r="F88" s="22"/>
       <c r="G88" s="23"/>
@@ -11423,10 +11377,10 @@
         <v>65</v>
       </c>
       <c r="D89" s="20" t="s">
+        <v>204</v>
+      </c>
+      <c r="E89" s="21" t="s">
         <v>205</v>
-      </c>
-      <c r="E89" s="21" t="s">
-        <v>206</v>
       </c>
       <c r="F89" s="22"/>
       <c r="G89" s="23"/>
@@ -11457,10 +11411,10 @@
         <v>65</v>
       </c>
       <c r="D90" s="20" t="s">
+        <v>206</v>
+      </c>
+      <c r="E90" s="21" t="s">
         <v>207</v>
-      </c>
-      <c r="E90" s="21" t="s">
-        <v>208</v>
       </c>
       <c r="F90" s="22"/>
       <c r="G90" s="23"/>
@@ -11491,10 +11445,10 @@
         <v>65</v>
       </c>
       <c r="D91" s="20" t="s">
+        <v>208</v>
+      </c>
+      <c r="E91" s="21" t="s">
         <v>209</v>
-      </c>
-      <c r="E91" s="21" t="s">
-        <v>210</v>
       </c>
       <c r="F91" s="22"/>
       <c r="G91" s="23"/>
@@ -11525,10 +11479,10 @@
         <v>65</v>
       </c>
       <c r="D92" s="20" t="s">
+        <v>210</v>
+      </c>
+      <c r="E92" s="21" t="s">
         <v>211</v>
-      </c>
-      <c r="E92" s="21" t="s">
-        <v>212</v>
       </c>
       <c r="F92" s="22"/>
       <c r="G92" s="23"/>
@@ -11559,10 +11513,10 @@
         <v>65</v>
       </c>
       <c r="D93" s="20" t="s">
+        <v>212</v>
+      </c>
+      <c r="E93" s="21" t="s">
         <v>213</v>
-      </c>
-      <c r="E93" s="21" t="s">
-        <v>214</v>
       </c>
       <c r="F93" s="22"/>
       <c r="G93" s="23"/>
@@ -11593,10 +11547,10 @@
         <v>65</v>
       </c>
       <c r="D94" s="20" t="s">
+        <v>214</v>
+      </c>
+      <c r="E94" s="21" t="s">
         <v>215</v>
-      </c>
-      <c r="E94" s="21" t="s">
-        <v>216</v>
       </c>
       <c r="F94" s="22"/>
       <c r="G94" s="23"/>
@@ -11627,10 +11581,10 @@
         <v>65</v>
       </c>
       <c r="D95" s="20" t="s">
+        <v>216</v>
+      </c>
+      <c r="E95" s="21" t="s">
         <v>217</v>
-      </c>
-      <c r="E95" s="21" t="s">
-        <v>218</v>
       </c>
       <c r="F95" s="22"/>
       <c r="G95" s="23"/>
@@ -11661,10 +11615,10 @@
         <v>65</v>
       </c>
       <c r="D96" s="20" t="s">
+        <v>218</v>
+      </c>
+      <c r="E96" s="21" t="s">
         <v>219</v>
-      </c>
-      <c r="E96" s="21" t="s">
-        <v>220</v>
       </c>
       <c r="F96" s="22"/>
       <c r="G96" s="23"/>
@@ -11695,10 +11649,10 @@
         <v>65</v>
       </c>
       <c r="D97" s="20" t="s">
+        <v>220</v>
+      </c>
+      <c r="E97" s="21" t="s">
         <v>221</v>
-      </c>
-      <c r="E97" s="21" t="s">
-        <v>222</v>
       </c>
       <c r="F97" s="22"/>
       <c r="G97" s="23"/>
@@ -11729,10 +11683,10 @@
         <v>65</v>
       </c>
       <c r="D98" s="20" t="s">
+        <v>222</v>
+      </c>
+      <c r="E98" s="21" t="s">
         <v>223</v>
-      </c>
-      <c r="E98" s="21" t="s">
-        <v>224</v>
       </c>
       <c r="F98" s="22"/>
       <c r="G98" s="23"/>
@@ -11763,10 +11717,10 @@
         <v>65</v>
       </c>
       <c r="D99" s="20" t="s">
+        <v>224</v>
+      </c>
+      <c r="E99" s="21" t="s">
         <v>225</v>
-      </c>
-      <c r="E99" s="21" t="s">
-        <v>226</v>
       </c>
       <c r="F99" s="22"/>
       <c r="G99" s="23"/>
@@ -11797,10 +11751,10 @@
         <v>65</v>
       </c>
       <c r="D100" s="20" t="s">
+        <v>226</v>
+      </c>
+      <c r="E100" s="21" t="s">
         <v>227</v>
-      </c>
-      <c r="E100" s="21" t="s">
-        <v>228</v>
       </c>
       <c r="F100" s="22"/>
       <c r="G100" s="23"/>
@@ -11831,10 +11785,10 @@
         <v>74</v>
       </c>
       <c r="D101" s="20" t="s">
+        <v>228</v>
+      </c>
+      <c r="E101" s="21" t="s">
         <v>229</v>
-      </c>
-      <c r="E101" s="21" t="s">
-        <v>230</v>
       </c>
       <c r="F101" s="22"/>
       <c r="G101" s="23"/>
@@ -11865,10 +11819,10 @@
         <v>74</v>
       </c>
       <c r="D102" s="20" t="s">
+        <v>230</v>
+      </c>
+      <c r="E102" s="21" t="s">
         <v>231</v>
-      </c>
-      <c r="E102" s="21" t="s">
-        <v>232</v>
       </c>
       <c r="F102" s="22"/>
       <c r="G102" s="23"/>
@@ -11899,10 +11853,10 @@
         <v>74</v>
       </c>
       <c r="D103" s="20" t="s">
+        <v>232</v>
+      </c>
+      <c r="E103" s="21" t="s">
         <v>233</v>
-      </c>
-      <c r="E103" s="21" t="s">
-        <v>234</v>
       </c>
       <c r="F103" s="22"/>
       <c r="G103" s="23"/>
@@ -11933,10 +11887,10 @@
         <v>74</v>
       </c>
       <c r="D104" s="20" t="s">
+        <v>234</v>
+      </c>
+      <c r="E104" s="21" t="s">
         <v>235</v>
-      </c>
-      <c r="E104" s="21" t="s">
-        <v>236</v>
       </c>
       <c r="F104" s="22"/>
       <c r="G104" s="23"/>
@@ -11967,10 +11921,10 @@
         <v>74</v>
       </c>
       <c r="D105" s="20" t="s">
+        <v>236</v>
+      </c>
+      <c r="E105" s="21" t="s">
         <v>237</v>
-      </c>
-      <c r="E105" s="21" t="s">
-        <v>238</v>
       </c>
       <c r="F105" s="22"/>
       <c r="G105" s="23"/>
@@ -12001,10 +11955,10 @@
         <v>74</v>
       </c>
       <c r="D106" s="20" t="s">
+        <v>238</v>
+      </c>
+      <c r="E106" s="21" t="s">
         <v>239</v>
-      </c>
-      <c r="E106" s="21" t="s">
-        <v>240</v>
       </c>
       <c r="F106" s="22"/>
       <c r="G106" s="23"/>
@@ -12035,10 +11989,10 @@
         <v>74</v>
       </c>
       <c r="D107" s="20" t="s">
+        <v>240</v>
+      </c>
+      <c r="E107" s="21" t="s">
         <v>241</v>
-      </c>
-      <c r="E107" s="21" t="s">
-        <v>242</v>
       </c>
       <c r="F107" s="22"/>
       <c r="G107" s="23"/>
@@ -12069,10 +12023,10 @@
         <v>74</v>
       </c>
       <c r="D108" s="20" t="s">
+        <v>242</v>
+      </c>
+      <c r="E108" s="21" t="s">
         <v>243</v>
-      </c>
-      <c r="E108" s="21" t="s">
-        <v>244</v>
       </c>
       <c r="F108" s="22"/>
       <c r="G108" s="23"/>
@@ -12103,10 +12057,10 @@
         <v>74</v>
       </c>
       <c r="D109" s="20" t="s">
+        <v>244</v>
+      </c>
+      <c r="E109" s="21" t="s">
         <v>245</v>
-      </c>
-      <c r="E109" s="21" t="s">
-        <v>246</v>
       </c>
       <c r="F109" s="22"/>
       <c r="G109" s="23"/>
@@ -12137,10 +12091,10 @@
         <v>74</v>
       </c>
       <c r="D110" s="20" t="s">
+        <v>246</v>
+      </c>
+      <c r="E110" s="21" t="s">
         <v>247</v>
-      </c>
-      <c r="E110" s="21" t="s">
-        <v>248</v>
       </c>
       <c r="F110" s="22"/>
       <c r="G110" s="23"/>
@@ -12171,10 +12125,10 @@
         <v>74</v>
       </c>
       <c r="D111" s="20" t="s">
+        <v>248</v>
+      </c>
+      <c r="E111" s="21" t="s">
         <v>249</v>
-      </c>
-      <c r="E111" s="21" t="s">
-        <v>250</v>
       </c>
       <c r="F111" s="22"/>
       <c r="G111" s="23"/>
@@ -12205,10 +12159,10 @@
         <v>74</v>
       </c>
       <c r="D112" s="20" t="s">
+        <v>250</v>
+      </c>
+      <c r="E112" s="21" t="s">
         <v>251</v>
-      </c>
-      <c r="E112" s="21" t="s">
-        <v>252</v>
       </c>
       <c r="F112" s="22"/>
       <c r="G112" s="23"/>
@@ -12239,10 +12193,10 @@
         <v>74</v>
       </c>
       <c r="D113" s="20" t="s">
+        <v>252</v>
+      </c>
+      <c r="E113" s="21" t="s">
         <v>253</v>
-      </c>
-      <c r="E113" s="21" t="s">
-        <v>254</v>
       </c>
       <c r="F113" s="22"/>
       <c r="G113" s="23"/>
@@ -12273,10 +12227,10 @@
         <v>83</v>
       </c>
       <c r="D114" s="20" t="s">
+        <v>254</v>
+      </c>
+      <c r="E114" s="21" t="s">
         <v>255</v>
-      </c>
-      <c r="E114" s="21" t="s">
-        <v>256</v>
       </c>
       <c r="F114" s="22"/>
       <c r="G114" s="23"/>
@@ -12307,10 +12261,10 @@
         <v>83</v>
       </c>
       <c r="D115" s="20" t="s">
+        <v>256</v>
+      </c>
+      <c r="E115" s="21" t="s">
         <v>257</v>
-      </c>
-      <c r="E115" s="21" t="s">
-        <v>258</v>
       </c>
       <c r="F115" s="22"/>
       <c r="G115" s="23"/>
@@ -12341,10 +12295,10 @@
         <v>83</v>
       </c>
       <c r="D116" s="20" t="s">
+        <v>258</v>
+      </c>
+      <c r="E116" s="21" t="s">
         <v>259</v>
-      </c>
-      <c r="E116" s="21" t="s">
-        <v>260</v>
       </c>
       <c r="F116" s="22"/>
       <c r="G116" s="23"/>
@@ -12375,10 +12329,10 @@
         <v>83</v>
       </c>
       <c r="D117" s="20" t="s">
+        <v>260</v>
+      </c>
+      <c r="E117" s="21" t="s">
         <v>261</v>
-      </c>
-      <c r="E117" s="21" t="s">
-        <v>262</v>
       </c>
       <c r="F117" s="22"/>
       <c r="G117" s="23"/>
@@ -12409,10 +12363,10 @@
         <v>83</v>
       </c>
       <c r="D118" s="20" t="s">
+        <v>262</v>
+      </c>
+      <c r="E118" s="21" t="s">
         <v>263</v>
-      </c>
-      <c r="E118" s="21" t="s">
-        <v>264</v>
       </c>
       <c r="F118" s="22"/>
       <c r="G118" s="23"/>
@@ -12443,10 +12397,10 @@
         <v>83</v>
       </c>
       <c r="D119" s="20" t="s">
+        <v>264</v>
+      </c>
+      <c r="E119" s="21" t="s">
         <v>265</v>
-      </c>
-      <c r="E119" s="21" t="s">
-        <v>266</v>
       </c>
       <c r="F119" s="22"/>
       <c r="G119" s="23"/>
@@ -12477,10 +12431,10 @@
         <v>83</v>
       </c>
       <c r="D120" s="20" t="s">
+        <v>266</v>
+      </c>
+      <c r="E120" s="21" t="s">
         <v>267</v>
-      </c>
-      <c r="E120" s="21" t="s">
-        <v>268</v>
       </c>
       <c r="F120" s="22"/>
       <c r="G120" s="23"/>
@@ -12511,10 +12465,10 @@
         <v>83</v>
       </c>
       <c r="D121" s="20" t="s">
+        <v>268</v>
+      </c>
+      <c r="E121" s="21" t="s">
         <v>269</v>
-      </c>
-      <c r="E121" s="21" t="s">
-        <v>270</v>
       </c>
       <c r="F121" s="22"/>
       <c r="G121" s="23"/>
@@ -12545,10 +12499,10 @@
         <v>83</v>
       </c>
       <c r="D122" s="20" t="s">
+        <v>270</v>
+      </c>
+      <c r="E122" s="21" t="s">
         <v>271</v>
-      </c>
-      <c r="E122" s="21" t="s">
-        <v>272</v>
       </c>
       <c r="F122" s="22"/>
       <c r="G122" s="23"/>
@@ -12579,10 +12533,10 @@
         <v>83</v>
       </c>
       <c r="D123" s="20" t="s">
+        <v>272</v>
+      </c>
+      <c r="E123" s="21" t="s">
         <v>273</v>
-      </c>
-      <c r="E123" s="21" t="s">
-        <v>274</v>
       </c>
       <c r="F123" s="22"/>
       <c r="G123" s="23"/>
@@ -12613,10 +12567,10 @@
         <v>83</v>
       </c>
       <c r="D124" s="20" t="s">
+        <v>274</v>
+      </c>
+      <c r="E124" s="21" t="s">
         <v>275</v>
-      </c>
-      <c r="E124" s="21" t="s">
-        <v>276</v>
       </c>
       <c r="F124" s="22"/>
       <c r="G124" s="23"/>
@@ -12647,10 +12601,10 @@
         <v>83</v>
       </c>
       <c r="D125" s="20" t="s">
+        <v>276</v>
+      </c>
+      <c r="E125" s="21" t="s">
         <v>277</v>
-      </c>
-      <c r="E125" s="21" t="s">
-        <v>278</v>
       </c>
       <c r="F125" s="22"/>
       <c r="G125" s="23"/>
@@ -12681,10 +12635,10 @@
         <v>83</v>
       </c>
       <c r="D126" s="20" t="s">
+        <v>278</v>
+      </c>
+      <c r="E126" s="21" t="s">
         <v>279</v>
-      </c>
-      <c r="E126" s="21" t="s">
-        <v>280</v>
       </c>
       <c r="F126" s="22"/>
       <c r="G126" s="23"/>
@@ -12715,10 +12669,10 @@
         <v>83</v>
       </c>
       <c r="D127" s="20" t="s">
+        <v>280</v>
+      </c>
+      <c r="E127" s="21" t="s">
         <v>281</v>
-      </c>
-      <c r="E127" s="21" t="s">
-        <v>282</v>
       </c>
       <c r="F127" s="22"/>
       <c r="G127" s="23"/>
@@ -12749,10 +12703,10 @@
         <v>83</v>
       </c>
       <c r="D128" s="20" t="s">
+        <v>282</v>
+      </c>
+      <c r="E128" s="21" t="s">
         <v>283</v>
-      </c>
-      <c r="E128" s="21" t="s">
-        <v>284</v>
       </c>
       <c r="F128" s="22"/>
       <c r="G128" s="23"/>
@@ -12783,10 +12737,10 @@
         <v>92</v>
       </c>
       <c r="D129" s="20" t="s">
+        <v>284</v>
+      </c>
+      <c r="E129" s="21" t="s">
         <v>285</v>
-      </c>
-      <c r="E129" s="21" t="s">
-        <v>286</v>
       </c>
       <c r="F129" s="22"/>
       <c r="G129" s="23"/>
@@ -12817,10 +12771,10 @@
         <v>92</v>
       </c>
       <c r="D130" s="20" t="s">
+        <v>286</v>
+      </c>
+      <c r="E130" s="21" t="s">
         <v>287</v>
-      </c>
-      <c r="E130" s="21" t="s">
-        <v>288</v>
       </c>
       <c r="F130" s="22"/>
       <c r="G130" s="23"/>
@@ -12851,10 +12805,10 @@
         <v>92</v>
       </c>
       <c r="D131" s="20" t="s">
+        <v>288</v>
+      </c>
+      <c r="E131" s="21" t="s">
         <v>289</v>
-      </c>
-      <c r="E131" s="21" t="s">
-        <v>290</v>
       </c>
       <c r="F131" s="22"/>
       <c r="G131" s="23"/>
@@ -12885,10 +12839,10 @@
         <v>92</v>
       </c>
       <c r="D132" s="20" t="s">
+        <v>290</v>
+      </c>
+      <c r="E132" s="21" t="s">
         <v>291</v>
-      </c>
-      <c r="E132" s="21" t="s">
-        <v>292</v>
       </c>
       <c r="F132" s="22"/>
       <c r="G132" s="23"/>
@@ -12919,10 +12873,10 @@
         <v>92</v>
       </c>
       <c r="D133" s="20" t="s">
+        <v>292</v>
+      </c>
+      <c r="E133" s="21" t="s">
         <v>293</v>
-      </c>
-      <c r="E133" s="21" t="s">
-        <v>294</v>
       </c>
       <c r="F133" s="22"/>
       <c r="G133" s="23"/>
@@ -12953,10 +12907,10 @@
         <v>92</v>
       </c>
       <c r="D134" s="20" t="s">
+        <v>294</v>
+      </c>
+      <c r="E134" s="21" t="s">
         <v>295</v>
-      </c>
-      <c r="E134" s="21" t="s">
-        <v>296</v>
       </c>
       <c r="F134" s="22"/>
       <c r="G134" s="23"/>
@@ -12987,10 +12941,10 @@
         <v>92</v>
       </c>
       <c r="D135" s="20" t="s">
+        <v>296</v>
+      </c>
+      <c r="E135" s="21" t="s">
         <v>297</v>
-      </c>
-      <c r="E135" s="21" t="s">
-        <v>298</v>
       </c>
       <c r="F135" s="22"/>
       <c r="G135" s="23"/>
@@ -13021,10 +12975,10 @@
         <v>92</v>
       </c>
       <c r="D136" s="20" t="s">
+        <v>298</v>
+      </c>
+      <c r="E136" s="21" t="s">
         <v>299</v>
-      </c>
-      <c r="E136" s="21" t="s">
-        <v>300</v>
       </c>
       <c r="F136" s="22"/>
       <c r="G136" s="23"/>
@@ -13055,10 +13009,10 @@
         <v>92</v>
       </c>
       <c r="D137" s="20" t="s">
+        <v>300</v>
+      </c>
+      <c r="E137" s="21" t="s">
         <v>301</v>
-      </c>
-      <c r="E137" s="21" t="s">
-        <v>302</v>
       </c>
       <c r="F137" s="22"/>
       <c r="G137" s="23"/>
@@ -13089,10 +13043,10 @@
         <v>92</v>
       </c>
       <c r="D138" s="20" t="s">
+        <v>302</v>
+      </c>
+      <c r="E138" s="21" t="s">
         <v>303</v>
-      </c>
-      <c r="E138" s="21" t="s">
-        <v>304</v>
       </c>
       <c r="F138" s="22"/>
       <c r="G138" s="23"/>
@@ -13123,10 +13077,10 @@
         <v>92</v>
       </c>
       <c r="D139" s="20" t="s">
+        <v>304</v>
+      </c>
+      <c r="E139" s="21" t="s">
         <v>305</v>
-      </c>
-      <c r="E139" s="21" t="s">
-        <v>306</v>
       </c>
       <c r="F139" s="22"/>
       <c r="G139" s="23"/>
@@ -13157,10 +13111,10 @@
         <v>92</v>
       </c>
       <c r="D140" s="20" t="s">
+        <v>306</v>
+      </c>
+      <c r="E140" s="21" t="s">
         <v>307</v>
-      </c>
-      <c r="E140" s="21" t="s">
-        <v>308</v>
       </c>
       <c r="F140" s="22"/>
       <c r="G140" s="23"/>
@@ -13191,10 +13145,10 @@
         <v>92</v>
       </c>
       <c r="D141" s="20" t="s">
+        <v>308</v>
+      </c>
+      <c r="E141" s="21" t="s">
         <v>309</v>
-      </c>
-      <c r="E141" s="21" t="s">
-        <v>310</v>
       </c>
       <c r="F141" s="22"/>
       <c r="G141" s="23"/>
@@ -13225,10 +13179,10 @@
         <v>92</v>
       </c>
       <c r="D142" s="20" t="s">
+        <v>310</v>
+      </c>
+      <c r="E142" s="21" t="s">
         <v>311</v>
-      </c>
-      <c r="E142" s="21" t="s">
-        <v>312</v>
       </c>
       <c r="F142" s="22"/>
       <c r="G142" s="23"/>
@@ -13259,10 +13213,10 @@
         <v>92</v>
       </c>
       <c r="D143" s="20" t="s">
+        <v>312</v>
+      </c>
+      <c r="E143" s="21" t="s">
         <v>313</v>
-      </c>
-      <c r="E143" s="21" t="s">
-        <v>314</v>
       </c>
       <c r="F143" s="22"/>
       <c r="G143" s="23"/>
@@ -13293,10 +13247,10 @@
         <v>92</v>
       </c>
       <c r="D144" s="20" t="s">
+        <v>314</v>
+      </c>
+      <c r="E144" s="21" t="s">
         <v>315</v>
-      </c>
-      <c r="E144" s="21" t="s">
-        <v>316</v>
       </c>
       <c r="F144" s="22"/>
       <c r="G144" s="23"/>
@@ -13327,10 +13281,10 @@
         <v>92</v>
       </c>
       <c r="D145" s="20" t="s">
+        <v>316</v>
+      </c>
+      <c r="E145" s="21" t="s">
         <v>317</v>
-      </c>
-      <c r="E145" s="21" t="s">
-        <v>318</v>
       </c>
       <c r="F145" s="22"/>
       <c r="G145" s="23"/>
@@ -13361,10 +13315,10 @@
         <v>92</v>
       </c>
       <c r="D146" s="20" t="s">
+        <v>318</v>
+      </c>
+      <c r="E146" s="21" t="s">
         <v>319</v>
-      </c>
-      <c r="E146" s="21" t="s">
-        <v>320</v>
       </c>
       <c r="F146" s="22"/>
       <c r="G146" s="23"/>
@@ -13395,10 +13349,10 @@
         <v>92</v>
       </c>
       <c r="D147" s="20" t="s">
+        <v>320</v>
+      </c>
+      <c r="E147" s="21" t="s">
         <v>321</v>
-      </c>
-      <c r="E147" s="21" t="s">
-        <v>322</v>
       </c>
       <c r="F147" s="22"/>
       <c r="G147" s="23"/>
@@ -13429,10 +13383,10 @@
         <v>92</v>
       </c>
       <c r="D148" s="20" t="s">
+        <v>322</v>
+      </c>
+      <c r="E148" s="21" t="s">
         <v>323</v>
-      </c>
-      <c r="E148" s="21" t="s">
-        <v>324</v>
       </c>
       <c r="F148" s="22"/>
       <c r="G148" s="23"/>
@@ -13463,10 +13417,10 @@
         <v>92</v>
       </c>
       <c r="D149" s="20" t="s">
+        <v>324</v>
+      </c>
+      <c r="E149" s="21" t="s">
         <v>325</v>
-      </c>
-      <c r="E149" s="21" t="s">
-        <v>326</v>
       </c>
       <c r="F149" s="22"/>
       <c r="G149" s="23"/>
@@ -13497,10 +13451,10 @@
         <v>92</v>
       </c>
       <c r="D150" s="20" t="s">
+        <v>326</v>
+      </c>
+      <c r="E150" s="21" t="s">
         <v>327</v>
-      </c>
-      <c r="E150" s="21" t="s">
-        <v>328</v>
       </c>
       <c r="F150" s="22"/>
       <c r="G150" s="23"/>
@@ -13531,10 +13485,10 @@
         <v>92</v>
       </c>
       <c r="D151" s="20" t="s">
+        <v>328</v>
+      </c>
+      <c r="E151" s="21" t="s">
         <v>329</v>
-      </c>
-      <c r="E151" s="21" t="s">
-        <v>330</v>
       </c>
       <c r="F151" s="22"/>
       <c r="G151" s="23"/>
@@ -13565,10 +13519,10 @@
         <v>92</v>
       </c>
       <c r="D152" s="20" t="s">
+        <v>330</v>
+      </c>
+      <c r="E152" s="21" t="s">
         <v>331</v>
-      </c>
-      <c r="E152" s="21" t="s">
-        <v>332</v>
       </c>
       <c r="F152" s="22"/>
       <c r="G152" s="23"/>
@@ -13599,10 +13553,10 @@
         <v>92</v>
       </c>
       <c r="D153" s="20" t="s">
+        <v>332</v>
+      </c>
+      <c r="E153" s="21" t="s">
         <v>333</v>
-      </c>
-      <c r="E153" s="21" t="s">
-        <v>334</v>
       </c>
       <c r="F153" s="22"/>
       <c r="G153" s="23"/>
@@ -13630,13 +13584,13 @@
         <v>43</v>
       </c>
       <c r="C154" s="20" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D154" s="20" t="s">
+        <v>334</v>
+      </c>
+      <c r="E154" s="21" t="s">
         <v>335</v>
-      </c>
-      <c r="E154" s="21" t="s">
-        <v>336</v>
       </c>
       <c r="F154" s="22"/>
       <c r="G154" s="23"/>
@@ -13664,13 +13618,13 @@
         <v>43</v>
       </c>
       <c r="C155" s="20" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D155" s="20" t="s">
+        <v>336</v>
+      </c>
+      <c r="E155" s="21" t="s">
         <v>337</v>
-      </c>
-      <c r="E155" s="21" t="s">
-        <v>338</v>
       </c>
       <c r="F155" s="22"/>
       <c r="G155" s="23"/>
@@ -13698,13 +13652,13 @@
         <v>43</v>
       </c>
       <c r="C156" s="20" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D156" s="20" t="s">
+        <v>338</v>
+      </c>
+      <c r="E156" s="21" t="s">
         <v>339</v>
-      </c>
-      <c r="E156" s="21" t="s">
-        <v>340</v>
       </c>
       <c r="F156" s="22"/>
       <c r="G156" s="23"/>
@@ -13732,13 +13686,13 @@
         <v>43</v>
       </c>
       <c r="C157" s="20" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D157" s="20" t="s">
+        <v>340</v>
+      </c>
+      <c r="E157" s="21" t="s">
         <v>341</v>
-      </c>
-      <c r="E157" s="21" t="s">
-        <v>342</v>
       </c>
       <c r="F157" s="22"/>
       <c r="G157" s="23"/>
@@ -13766,13 +13720,13 @@
         <v>43</v>
       </c>
       <c r="C158" s="20" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D158" s="20" t="s">
+        <v>342</v>
+      </c>
+      <c r="E158" s="21" t="s">
         <v>343</v>
-      </c>
-      <c r="E158" s="21" t="s">
-        <v>344</v>
       </c>
       <c r="F158" s="22"/>
       <c r="G158" s="23"/>
@@ -13800,13 +13754,13 @@
         <v>43</v>
       </c>
       <c r="C159" s="20" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D159" s="20" t="s">
+        <v>344</v>
+      </c>
+      <c r="E159" s="21" t="s">
         <v>345</v>
-      </c>
-      <c r="E159" s="21" t="s">
-        <v>346</v>
       </c>
       <c r="F159" s="22"/>
       <c r="G159" s="23"/>
@@ -13834,13 +13788,13 @@
         <v>43</v>
       </c>
       <c r="C160" s="20" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D160" s="20" t="s">
+        <v>346</v>
+      </c>
+      <c r="E160" s="21" t="s">
         <v>347</v>
-      </c>
-      <c r="E160" s="21" t="s">
-        <v>348</v>
       </c>
       <c r="F160" s="22"/>
       <c r="G160" s="23"/>
@@ -13868,13 +13822,13 @@
         <v>43</v>
       </c>
       <c r="C161" s="20" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D161" s="20" t="s">
+        <v>348</v>
+      </c>
+      <c r="E161" s="21" t="s">
         <v>349</v>
-      </c>
-      <c r="E161" s="21" t="s">
-        <v>350</v>
       </c>
       <c r="F161" s="22"/>
       <c r="G161" s="23"/>
@@ -13902,13 +13856,13 @@
         <v>43</v>
       </c>
       <c r="C162" s="20" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D162" s="20" t="s">
+        <v>350</v>
+      </c>
+      <c r="E162" s="21" t="s">
         <v>351</v>
-      </c>
-      <c r="E162" s="21" t="s">
-        <v>352</v>
       </c>
       <c r="F162" s="22"/>
       <c r="G162" s="23"/>
@@ -13936,13 +13890,13 @@
         <v>43</v>
       </c>
       <c r="C163" s="20" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D163" s="20" t="s">
+        <v>352</v>
+      </c>
+      <c r="E163" s="21" t="s">
         <v>353</v>
-      </c>
-      <c r="E163" s="21" t="s">
-        <v>354</v>
       </c>
       <c r="F163" s="22"/>
       <c r="G163" s="23"/>
@@ -13970,13 +13924,13 @@
         <v>43</v>
       </c>
       <c r="C164" s="20" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D164" s="20" t="s">
+        <v>354</v>
+      </c>
+      <c r="E164" s="21" t="s">
         <v>355</v>
-      </c>
-      <c r="E164" s="21" t="s">
-        <v>356</v>
       </c>
       <c r="F164" s="22"/>
       <c r="G164" s="23"/>
@@ -14004,13 +13958,13 @@
         <v>43</v>
       </c>
       <c r="C165" s="20" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D165" s="20" t="s">
+        <v>356</v>
+      </c>
+      <c r="E165" s="21" t="s">
         <v>357</v>
-      </c>
-      <c r="E165" s="21" t="s">
-        <v>358</v>
       </c>
       <c r="F165" s="22"/>
       <c r="G165" s="23"/>
@@ -14038,13 +13992,13 @@
         <v>43</v>
       </c>
       <c r="C166" s="20" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D166" s="20" t="s">
+        <v>358</v>
+      </c>
+      <c r="E166" s="21" t="s">
         <v>359</v>
-      </c>
-      <c r="E166" s="21" t="s">
-        <v>360</v>
       </c>
       <c r="F166" s="22"/>
       <c r="G166" s="23"/>
@@ -14072,13 +14026,13 @@
         <v>43</v>
       </c>
       <c r="C167" s="20" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D167" s="20" t="s">
+        <v>360</v>
+      </c>
+      <c r="E167" s="21" t="s">
         <v>361</v>
-      </c>
-      <c r="E167" s="21" t="s">
-        <v>362</v>
       </c>
       <c r="F167" s="22"/>
       <c r="G167" s="23"/>
@@ -14106,13 +14060,13 @@
         <v>43</v>
       </c>
       <c r="C168" s="20" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D168" s="20" t="s">
+        <v>362</v>
+      </c>
+      <c r="E168" s="21" t="s">
         <v>363</v>
-      </c>
-      <c r="E168" s="21" t="s">
-        <v>364</v>
       </c>
       <c r="F168" s="22"/>
       <c r="G168" s="23"/>
@@ -14140,13 +14094,13 @@
         <v>43</v>
       </c>
       <c r="C169" s="20" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D169" s="20" t="s">
+        <v>364</v>
+      </c>
+      <c r="E169" s="21" t="s">
         <v>365</v>
-      </c>
-      <c r="E169" s="21" t="s">
-        <v>366</v>
       </c>
       <c r="F169" s="22"/>
       <c r="G169" s="23"/>
@@ -14174,13 +14128,13 @@
         <v>43</v>
       </c>
       <c r="C170" s="20" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D170" s="20" t="s">
+        <v>366</v>
+      </c>
+      <c r="E170" s="21" t="s">
         <v>367</v>
-      </c>
-      <c r="E170" s="21" t="s">
-        <v>368</v>
       </c>
       <c r="F170" s="22"/>
       <c r="G170" s="23"/>
@@ -14208,13 +14162,13 @@
         <v>43</v>
       </c>
       <c r="C171" s="20" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D171" s="20" t="s">
+        <v>368</v>
+      </c>
+      <c r="E171" s="21" t="s">
         <v>369</v>
-      </c>
-      <c r="E171" s="21" t="s">
-        <v>370</v>
       </c>
       <c r="F171" s="22"/>
       <c r="G171" s="23"/>
@@ -14242,13 +14196,13 @@
         <v>43</v>
       </c>
       <c r="C172" s="20" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D172" s="20" t="s">
+        <v>370</v>
+      </c>
+      <c r="E172" s="21" t="s">
         <v>371</v>
-      </c>
-      <c r="E172" s="21" t="s">
-        <v>372</v>
       </c>
       <c r="F172" s="22"/>
       <c r="G172" s="23"/>
@@ -14276,13 +14230,13 @@
         <v>43</v>
       </c>
       <c r="C173" s="20" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D173" s="20" t="s">
+        <v>372</v>
+      </c>
+      <c r="E173" s="21" t="s">
         <v>373</v>
-      </c>
-      <c r="E173" s="21" t="s">
-        <v>374</v>
       </c>
       <c r="F173" s="22"/>
       <c r="G173" s="23"/>
@@ -14310,13 +14264,13 @@
         <v>43</v>
       </c>
       <c r="C174" s="20" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D174" s="20" t="s">
+        <v>374</v>
+      </c>
+      <c r="E174" s="21" t="s">
         <v>375</v>
-      </c>
-      <c r="E174" s="21" t="s">
-        <v>376</v>
       </c>
       <c r="F174" s="22"/>
       <c r="G174" s="23"/>
@@ -14344,13 +14298,13 @@
         <v>43</v>
       </c>
       <c r="C175" s="20" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D175" s="20" t="s">
+        <v>376</v>
+      </c>
+      <c r="E175" s="21" t="s">
         <v>377</v>
-      </c>
-      <c r="E175" s="21" t="s">
-        <v>378</v>
       </c>
       <c r="F175" s="22"/>
       <c r="G175" s="23"/>
@@ -14378,13 +14332,13 @@
         <v>43</v>
       </c>
       <c r="C176" s="20" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D176" s="20" t="s">
+        <v>378</v>
+      </c>
+      <c r="E176" s="21" t="s">
         <v>379</v>
-      </c>
-      <c r="E176" s="21" t="s">
-        <v>380</v>
       </c>
       <c r="F176" s="22"/>
       <c r="G176" s="23"/>
@@ -14415,10 +14369,10 @@
         <v>106</v>
       </c>
       <c r="D177" s="20" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="E177" s="32" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="F177" s="22">
         <v>45260.529444444444</v>
@@ -14427,13 +14381,13 @@
         <v>45260.529444444444</v>
       </c>
       <c r="H177" s="23" t="s">
-        <v>912</v>
+        <v>909</v>
       </c>
       <c r="I177" s="23" t="s">
-        <v>913</v>
+        <v>910</v>
       </c>
       <c r="J177" s="24" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="K177" s="24"/>
       <c r="L177" s="24"/>
@@ -14459,10 +14413,10 @@
         <v>106</v>
       </c>
       <c r="D178" s="20" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="E178" s="33" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="F178" s="22">
         <v>45260.529444444444</v>
@@ -14471,13 +14425,13 @@
         <v>45260.533009259256</v>
       </c>
       <c r="H178" s="23" t="s">
-        <v>914</v>
+        <v>911</v>
       </c>
       <c r="I178" s="23" t="s">
-        <v>915</v>
+        <v>912</v>
       </c>
       <c r="J178" s="24" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="K178" s="24"/>
       <c r="L178" s="24"/>
@@ -14503,10 +14457,10 @@
         <v>106</v>
       </c>
       <c r="D179" s="20" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="E179" s="38" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="F179" s="22">
         <v>45260.529444444444</v>
@@ -14515,13 +14469,13 @@
         <v>45260.534583333334</v>
       </c>
       <c r="H179" s="23" t="s">
-        <v>916</v>
+        <v>913</v>
       </c>
       <c r="I179" s="23" t="s">
-        <v>917</v>
+        <v>914</v>
       </c>
       <c r="J179" s="24" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="K179" s="24"/>
       <c r="L179" s="24"/>
@@ -14547,10 +14501,10 @@
         <v>106</v>
       </c>
       <c r="D180" s="20" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="E180" s="38" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="F180" s="22">
         <v>45266.514745370368</v>
@@ -14559,13 +14513,13 @@
         <v>45266.514745370368</v>
       </c>
       <c r="H180" s="23" t="s">
-        <v>920</v>
+        <v>917</v>
       </c>
       <c r="I180" s="23" t="s">
-        <v>921</v>
+        <v>918</v>
       </c>
       <c r="J180" s="24" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="K180" s="24"/>
       <c r="L180" s="24"/>
@@ -14591,10 +14545,10 @@
         <v>106</v>
       </c>
       <c r="D181" s="20" t="s">
+        <v>384</v>
+      </c>
+      <c r="E181" s="21" t="s">
         <v>385</v>
-      </c>
-      <c r="E181" s="21" t="s">
-        <v>386</v>
       </c>
       <c r="F181" s="22">
         <v>45194</v>
@@ -14603,29 +14557,29 @@
         <v>45194.735902777778</v>
       </c>
       <c r="H181" s="23" t="s">
+        <v>835</v>
+      </c>
+      <c r="I181" s="23" t="s">
         <v>836</v>
       </c>
-      <c r="I181" s="23" t="s">
-        <v>837</v>
-      </c>
       <c r="J181" s="24" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="K181" s="24"/>
       <c r="L181" s="24" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="M181" s="24" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="N181" s="24" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="O181" s="24" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="P181" s="24" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="Q181" s="24"/>
       <c r="R181" s="25"/>
@@ -14645,10 +14599,10 @@
         <v>106</v>
       </c>
       <c r="D182" s="20" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="E182" s="38" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
       <c r="F182" s="22">
         <v>45194</v>
@@ -14657,29 +14611,29 @@
         <v>45194.741400462961</v>
       </c>
       <c r="H182" s="23" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="I182" s="23" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
       <c r="J182" s="24" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="K182" s="24"/>
       <c r="L182" s="24" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="M182" s="24" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="N182" s="24" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
       <c r="O182" s="24" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="P182" s="24" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="Q182" s="24"/>
       <c r="R182" s="25"/>
@@ -14699,10 +14653,10 @@
         <v>106</v>
       </c>
       <c r="D183" s="20" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="E183" s="32" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="F183" s="22">
         <v>45194</v>
@@ -14711,29 +14665,29 @@
         <v>45194.748020833336</v>
       </c>
       <c r="H183" s="23" t="s">
+        <v>841</v>
+      </c>
+      <c r="I183" s="23" t="s">
         <v>842</v>
       </c>
-      <c r="I183" s="23" t="s">
-        <v>843</v>
-      </c>
       <c r="J183" s="24" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="K183" s="24"/>
       <c r="L183" s="24" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="M183" s="24" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="N183" s="24" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="O183" s="24" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="P183" s="24" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="Q183" s="24"/>
       <c r="R183" s="25"/>
@@ -14753,10 +14707,10 @@
         <v>106</v>
       </c>
       <c r="D184" s="20" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="E184" s="32" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="F184" s="22">
         <v>45194</v>
@@ -14765,29 +14719,29 @@
         <v>45194.753391203703</v>
       </c>
       <c r="H184" s="23" t="s">
+        <v>857</v>
+      </c>
+      <c r="I184" s="23" t="s">
         <v>858</v>
       </c>
-      <c r="I184" s="23" t="s">
-        <v>859</v>
-      </c>
       <c r="J184" s="24" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="K184" s="24"/>
       <c r="L184" s="24" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="M184" s="24" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="N184" s="24" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="O184" s="24" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="P184" s="24" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="Q184" s="24"/>
       <c r="R184" s="25"/>
@@ -14807,10 +14761,10 @@
         <v>106</v>
       </c>
       <c r="D185" s="20" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="E185" s="38" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="F185" s="22">
         <v>45194</v>
@@ -14819,29 +14773,29 @@
         <v>45194.754710648151</v>
       </c>
       <c r="H185" s="23" t="s">
+        <v>862</v>
+      </c>
+      <c r="I185" s="23" t="s">
         <v>863</v>
       </c>
-      <c r="I185" s="23" t="s">
-        <v>864</v>
-      </c>
       <c r="J185" s="24" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="K185" s="24"/>
       <c r="L185" s="24" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="M185" s="24" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="N185" s="24" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="O185" s="24" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="P185" s="24" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="Q185" s="24"/>
       <c r="R185" s="25"/>
@@ -14861,10 +14815,10 @@
         <v>106</v>
       </c>
       <c r="D186" s="20" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="E186" s="32" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="F186" s="22">
         <v>45194</v>
@@ -14873,29 +14827,29 @@
         <v>45194.757233796299</v>
       </c>
       <c r="H186" s="23" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
       <c r="I186" s="23" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
       <c r="J186" s="24" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="K186" s="24"/>
       <c r="L186" s="24" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="M186" s="24" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="N186" s="24" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="O186" s="24" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="P186" s="24" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="Q186" s="24"/>
       <c r="R186" s="25"/>
@@ -14915,10 +14869,10 @@
         <v>106</v>
       </c>
       <c r="D187" s="20" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="E187" s="32" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="F187" s="22">
         <v>45194</v>
@@ -14927,29 +14881,29 @@
         <v>45194.760578703703</v>
       </c>
       <c r="H187" s="23" t="s">
+        <v>866</v>
+      </c>
+      <c r="I187" s="23" t="s">
         <v>867</v>
       </c>
-      <c r="I187" s="23" t="s">
-        <v>868</v>
-      </c>
       <c r="J187" s="24" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="K187" s="24"/>
       <c r="L187" s="24" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="M187" s="24" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="N187" s="24" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="O187" s="24" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="P187" s="24" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="Q187" s="24"/>
       <c r="R187" s="25"/>
@@ -14969,10 +14923,10 @@
         <v>106</v>
       </c>
       <c r="D188" s="20" t="s">
+        <v>392</v>
+      </c>
+      <c r="E188" s="21" t="s">
         <v>393</v>
-      </c>
-      <c r="E188" s="21" t="s">
-        <v>394</v>
       </c>
       <c r="F188" s="22">
         <v>45194</v>
@@ -14981,29 +14935,29 @@
         <v>45194.762465277781</v>
       </c>
       <c r="H188" s="23" t="s">
+        <v>869</v>
+      </c>
+      <c r="I188" s="23" t="s">
         <v>870</v>
       </c>
-      <c r="I188" s="23" t="s">
-        <v>871</v>
-      </c>
       <c r="J188" s="24" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="K188" s="24"/>
       <c r="L188" s="24" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="M188" s="24" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="N188" s="24" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="O188" s="24" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="P188" s="24" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="Q188" s="24"/>
       <c r="R188" s="25"/>
@@ -15023,10 +14977,10 @@
         <v>106</v>
       </c>
       <c r="D189" s="20" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="E189" s="32" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="F189" s="22">
         <v>45194</v>
@@ -15035,29 +14989,29 @@
         <v>45194.764699074076</v>
       </c>
       <c r="H189" s="23" t="s">
+        <v>872</v>
+      </c>
+      <c r="I189" s="23" t="s">
         <v>873</v>
       </c>
-      <c r="I189" s="23" t="s">
-        <v>874</v>
-      </c>
       <c r="J189" s="24" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="K189" s="24"/>
       <c r="L189" s="24" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="M189" s="24" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="N189" s="24" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="O189" s="24" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="P189" s="24" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="Q189" s="24"/>
       <c r="R189" s="25"/>
@@ -15077,10 +15031,10 @@
         <v>106</v>
       </c>
       <c r="D190" s="20" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="E190" s="32" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="F190" s="22">
         <v>45251</v>
@@ -15089,29 +15043,29 @@
         <v>45251.429039351853</v>
       </c>
       <c r="H190" s="23" t="s">
+        <v>897</v>
+      </c>
+      <c r="I190" s="23" t="s">
         <v>898</v>
       </c>
-      <c r="I190" s="23" t="s">
-        <v>899</v>
-      </c>
       <c r="J190" s="24" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="K190" s="24"/>
       <c r="L190" s="24" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="M190" s="24" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="N190" s="24" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="O190" s="24" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="P190" s="24" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="Q190" s="24"/>
       <c r="R190" s="25"/>
@@ -15131,10 +15085,10 @@
         <v>106</v>
       </c>
       <c r="D191" s="20" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="E191" s="32" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="F191" s="22">
         <v>45194</v>
@@ -15143,29 +15097,29 @@
         <v>45194.773472222223</v>
       </c>
       <c r="H191" s="23" t="s">
+        <v>878</v>
+      </c>
+      <c r="I191" s="23" t="s">
         <v>879</v>
       </c>
-      <c r="I191" s="23" t="s">
-        <v>880</v>
-      </c>
       <c r="J191" s="24" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="K191" s="24"/>
       <c r="L191" s="24" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="M191" s="24" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="N191" s="24" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="O191" s="24" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="P191" s="24" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="Q191" s="24"/>
       <c r="R191" s="25"/>
@@ -15185,10 +15139,10 @@
         <v>106</v>
       </c>
       <c r="D192" s="20" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="E192" s="32" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="F192" s="22">
         <v>45197</v>
@@ -15197,29 +15151,29 @@
         <v>45197.658148148148</v>
       </c>
       <c r="H192" s="23" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
       <c r="I192" s="23" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
       <c r="J192" s="24" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="K192" s="24"/>
       <c r="L192" s="24" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="M192" s="24" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="N192" s="24" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
       <c r="O192" s="24" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="P192" s="24" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="Q192" s="24"/>
       <c r="R192" s="25"/>
@@ -15239,10 +15193,10 @@
         <v>106</v>
       </c>
       <c r="D193" s="20" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="E193" s="32" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="F193" s="22">
         <v>45197</v>
@@ -15251,29 +15205,29 @@
         <v>45197.660046296296</v>
       </c>
       <c r="H193" s="23" t="s">
+        <v>890</v>
+      </c>
+      <c r="I193" s="23" t="s">
         <v>891</v>
       </c>
-      <c r="I193" s="23" t="s">
-        <v>892</v>
-      </c>
       <c r="J193" s="24" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="K193" s="24"/>
       <c r="L193" s="24" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="M193" s="24" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="N193" s="24" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
       <c r="O193" s="24" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="P193" s="24" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="Q193" s="24"/>
       <c r="R193" s="25"/>
@@ -15293,10 +15247,10 @@
         <v>106</v>
       </c>
       <c r="D194" s="20" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="E194" s="38" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
       <c r="F194" s="22">
         <v>45197</v>
@@ -15305,29 +15259,29 @@
         <v>45197.655763888892</v>
       </c>
       <c r="H194" s="23" t="s">
+        <v>884</v>
+      </c>
+      <c r="I194" s="23" t="s">
         <v>885</v>
       </c>
-      <c r="I194" s="23" t="s">
-        <v>886</v>
-      </c>
       <c r="J194" s="24" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="K194" s="24"/>
       <c r="L194" s="24" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="M194" s="24" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="N194" s="24" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
       <c r="O194" s="24" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="P194" s="24" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="Q194" s="24"/>
       <c r="R194" s="25"/>
@@ -15347,10 +15301,10 @@
         <v>106</v>
       </c>
       <c r="D195" s="20" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="E195" s="32" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="F195" s="22">
         <v>45197</v>
@@ -15359,29 +15313,29 @@
         <v>45197.650925925926</v>
       </c>
       <c r="H195" s="23" t="s">
+        <v>881</v>
+      </c>
+      <c r="I195" s="23" t="s">
         <v>882</v>
       </c>
-      <c r="I195" s="23" t="s">
-        <v>883</v>
-      </c>
       <c r="J195" s="24" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="K195" s="24"/>
       <c r="L195" s="24" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="M195" s="24" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="N195" s="24" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="O195" s="24" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="P195" s="24" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="Q195" s="24"/>
       <c r="R195" s="25"/>
@@ -15401,10 +15355,10 @@
         <v>106</v>
       </c>
       <c r="D196" s="20" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="E196" s="41" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="F196" s="22">
         <v>45243</v>
@@ -15413,29 +15367,29 @@
         <v>45243.677615740744</v>
       </c>
       <c r="H196" s="23" t="s">
+        <v>893</v>
+      </c>
+      <c r="I196" s="23" t="s">
         <v>894</v>
       </c>
-      <c r="I196" s="23" t="s">
-        <v>895</v>
-      </c>
       <c r="J196" s="24" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="K196" s="24"/>
       <c r="L196" s="24" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="M196" s="24" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="N196" s="24" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="O196" s="24" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="P196" s="24" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="Q196" s="24"/>
       <c r="R196" s="25"/>
@@ -15455,10 +15409,10 @@
         <v>106</v>
       </c>
       <c r="D197" s="20" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="E197" s="32" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="F197" s="22">
         <v>45194</v>
@@ -15467,29 +15421,29 @@
         <v>45194.774178240739</v>
       </c>
       <c r="H197" s="23" t="s">
+        <v>875</v>
+      </c>
+      <c r="I197" s="23" t="s">
         <v>876</v>
       </c>
-      <c r="I197" s="23" t="s">
-        <v>877</v>
-      </c>
       <c r="J197" s="24" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="K197" s="24"/>
       <c r="L197" s="24" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="M197" s="24" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="N197" s="24" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
       <c r="O197" s="24" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="P197" s="24" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="Q197" s="24"/>
       <c r="R197" s="25"/>
@@ -15509,10 +15463,10 @@
         <v>44</v>
       </c>
       <c r="D198" s="20" t="s">
+        <v>403</v>
+      </c>
+      <c r="E198" s="21" t="s">
         <v>404</v>
-      </c>
-      <c r="E198" s="21" t="s">
-        <v>405</v>
       </c>
       <c r="F198" s="22"/>
       <c r="G198" s="23"/>
@@ -15537,16 +15491,16 @@
         <v>192</v>
       </c>
       <c r="B199" s="20" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="C199" s="20" t="s">
         <v>44</v>
       </c>
       <c r="D199" s="20" t="s">
+        <v>406</v>
+      </c>
+      <c r="E199" s="21" t="s">
         <v>407</v>
-      </c>
-      <c r="E199" s="21" t="s">
-        <v>408</v>
       </c>
       <c r="F199" s="22"/>
       <c r="G199" s="23"/>
@@ -15571,16 +15525,16 @@
         <v>193</v>
       </c>
       <c r="B200" s="20" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="C200" s="20" t="s">
         <v>44</v>
       </c>
       <c r="D200" s="20" t="s">
+        <v>409</v>
+      </c>
+      <c r="E200" s="21" t="s">
         <v>410</v>
-      </c>
-      <c r="E200" s="21" t="s">
-        <v>411</v>
       </c>
       <c r="F200" s="22"/>
       <c r="G200" s="23"/>
@@ -15605,16 +15559,16 @@
         <v>194</v>
       </c>
       <c r="B201" s="20" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="C201" s="20" t="s">
         <v>44</v>
       </c>
       <c r="D201" s="20" t="s">
+        <v>412</v>
+      </c>
+      <c r="E201" s="21" t="s">
         <v>413</v>
-      </c>
-      <c r="E201" s="21" t="s">
-        <v>414</v>
       </c>
       <c r="F201" s="22"/>
       <c r="G201" s="23"/>
@@ -15639,16 +15593,16 @@
         <v>195</v>
       </c>
       <c r="B202" s="20" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="C202" s="20" t="s">
         <v>44</v>
       </c>
       <c r="D202" s="20" t="s">
+        <v>415</v>
+      </c>
+      <c r="E202" s="21" t="s">
         <v>416</v>
-      </c>
-      <c r="E202" s="21" t="s">
-        <v>417</v>
       </c>
       <c r="F202" s="22"/>
       <c r="G202" s="23"/>
@@ -15673,16 +15627,16 @@
         <v>196</v>
       </c>
       <c r="B203" s="20" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="C203" s="20" t="s">
         <v>44</v>
       </c>
       <c r="D203" s="20" t="s">
+        <v>418</v>
+      </c>
+      <c r="E203" s="21" t="s">
         <v>419</v>
-      </c>
-      <c r="E203" s="21" t="s">
-        <v>420</v>
       </c>
       <c r="F203" s="22"/>
       <c r="G203" s="23"/>
@@ -15707,16 +15661,16 @@
         <v>197</v>
       </c>
       <c r="B204" s="20" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="C204" s="20" t="s">
         <v>44</v>
       </c>
       <c r="D204" s="20" t="s">
+        <v>420</v>
+      </c>
+      <c r="E204" s="21" t="s">
         <v>421</v>
-      </c>
-      <c r="E204" s="21" t="s">
-        <v>422</v>
       </c>
       <c r="F204" s="22"/>
       <c r="G204" s="23"/>
@@ -15741,16 +15695,16 @@
         <v>198</v>
       </c>
       <c r="B205" s="20" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="C205" s="20" t="s">
         <v>44</v>
       </c>
       <c r="D205" s="20" t="s">
+        <v>422</v>
+      </c>
+      <c r="E205" s="21" t="s">
         <v>423</v>
-      </c>
-      <c r="E205" s="21" t="s">
-        <v>424</v>
       </c>
       <c r="F205" s="22"/>
       <c r="G205" s="23"/>
@@ -15775,16 +15729,16 @@
         <v>199</v>
       </c>
       <c r="B206" s="20" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="C206" s="20" t="s">
         <v>44</v>
       </c>
       <c r="D206" s="20" t="s">
+        <v>424</v>
+      </c>
+      <c r="E206" s="21" t="s">
         <v>425</v>
-      </c>
-      <c r="E206" s="21" t="s">
-        <v>426</v>
       </c>
       <c r="F206" s="22"/>
       <c r="G206" s="23"/>
@@ -15809,16 +15763,16 @@
         <v>200</v>
       </c>
       <c r="B207" s="20" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="C207" s="20" t="s">
         <v>44</v>
       </c>
       <c r="D207" s="20" t="s">
+        <v>426</v>
+      </c>
+      <c r="E207" s="21" t="s">
         <v>427</v>
-      </c>
-      <c r="E207" s="21" t="s">
-        <v>428</v>
       </c>
       <c r="F207" s="22"/>
       <c r="G207" s="23"/>
@@ -15843,16 +15797,16 @@
         <v>201</v>
       </c>
       <c r="B208" s="20" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="C208" s="20" t="s">
         <v>44</v>
       </c>
       <c r="D208" s="20" t="s">
+        <v>428</v>
+      </c>
+      <c r="E208" s="21" t="s">
         <v>429</v>
-      </c>
-      <c r="E208" s="21" t="s">
-        <v>430</v>
       </c>
       <c r="F208" s="22"/>
       <c r="G208" s="23"/>
@@ -15877,16 +15831,16 @@
         <v>202</v>
       </c>
       <c r="B209" s="20" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="C209" s="20" t="s">
         <v>44</v>
       </c>
       <c r="D209" s="20" t="s">
+        <v>430</v>
+      </c>
+      <c r="E209" s="21" t="s">
         <v>431</v>
-      </c>
-      <c r="E209" s="21" t="s">
-        <v>432</v>
       </c>
       <c r="F209" s="22"/>
       <c r="G209" s="23"/>
@@ -15911,16 +15865,16 @@
         <v>203</v>
       </c>
       <c r="B210" s="20" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="C210" s="20" t="s">
         <v>44</v>
       </c>
       <c r="D210" s="20" t="s">
+        <v>432</v>
+      </c>
+      <c r="E210" s="21" t="s">
         <v>433</v>
-      </c>
-      <c r="E210" s="21" t="s">
-        <v>434</v>
       </c>
       <c r="F210" s="22"/>
       <c r="G210" s="23"/>
@@ -15945,16 +15899,16 @@
         <v>204</v>
       </c>
       <c r="B211" s="20" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="C211" s="20" t="s">
         <v>44</v>
       </c>
       <c r="D211" s="20" t="s">
+        <v>434</v>
+      </c>
+      <c r="E211" s="21" t="s">
         <v>435</v>
-      </c>
-      <c r="E211" s="21" t="s">
-        <v>436</v>
       </c>
       <c r="F211" s="22"/>
       <c r="G211" s="23"/>
@@ -15979,16 +15933,16 @@
         <v>205</v>
       </c>
       <c r="B212" s="20" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="C212" s="20" t="s">
         <v>44</v>
       </c>
       <c r="D212" s="20" t="s">
+        <v>436</v>
+      </c>
+      <c r="E212" s="21" t="s">
         <v>437</v>
-      </c>
-      <c r="E212" s="21" t="s">
-        <v>438</v>
       </c>
       <c r="F212" s="22"/>
       <c r="G212" s="23"/>
@@ -16013,16 +15967,16 @@
         <v>206</v>
       </c>
       <c r="B213" s="20" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="C213" s="20" t="s">
         <v>44</v>
       </c>
       <c r="D213" s="20" t="s">
+        <v>438</v>
+      </c>
+      <c r="E213" s="21" t="s">
         <v>439</v>
-      </c>
-      <c r="E213" s="21" t="s">
-        <v>440</v>
       </c>
       <c r="F213" s="22"/>
       <c r="G213" s="23"/>
@@ -16047,16 +16001,16 @@
         <v>207</v>
       </c>
       <c r="B214" s="20" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="C214" s="20" t="s">
         <v>44</v>
       </c>
       <c r="D214" s="20" t="s">
+        <v>440</v>
+      </c>
+      <c r="E214" s="21" t="s">
         <v>441</v>
-      </c>
-      <c r="E214" s="21" t="s">
-        <v>442</v>
       </c>
       <c r="F214" s="22"/>
       <c r="G214" s="23"/>
@@ -16081,16 +16035,16 @@
         <v>208</v>
       </c>
       <c r="B215" s="20" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="C215" s="20" t="s">
         <v>56</v>
       </c>
       <c r="D215" s="20" t="s">
+        <v>442</v>
+      </c>
+      <c r="E215" s="21" t="s">
         <v>443</v>
-      </c>
-      <c r="E215" s="21" t="s">
-        <v>444</v>
       </c>
       <c r="F215" s="22"/>
       <c r="G215" s="23"/>
@@ -16115,16 +16069,16 @@
         <v>209</v>
       </c>
       <c r="B216" s="20" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="C216" s="20" t="s">
         <v>56</v>
       </c>
       <c r="D216" s="20" t="s">
+        <v>444</v>
+      </c>
+      <c r="E216" s="21" t="s">
         <v>445</v>
-      </c>
-      <c r="E216" s="21" t="s">
-        <v>446</v>
       </c>
       <c r="F216" s="22"/>
       <c r="G216" s="23"/>
@@ -16149,16 +16103,16 @@
         <v>210</v>
       </c>
       <c r="B217" s="20" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="C217" s="20" t="s">
         <v>56</v>
       </c>
       <c r="D217" s="20" t="s">
+        <v>446</v>
+      </c>
+      <c r="E217" s="21" t="s">
         <v>447</v>
-      </c>
-      <c r="E217" s="21" t="s">
-        <v>448</v>
       </c>
       <c r="F217" s="22"/>
       <c r="G217" s="23"/>
@@ -16183,16 +16137,16 @@
         <v>211</v>
       </c>
       <c r="B218" s="20" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="C218" s="20" t="s">
         <v>56</v>
       </c>
       <c r="D218" s="20" t="s">
+        <v>448</v>
+      </c>
+      <c r="E218" s="21" t="s">
         <v>449</v>
-      </c>
-      <c r="E218" s="21" t="s">
-        <v>450</v>
       </c>
       <c r="F218" s="22"/>
       <c r="G218" s="23"/>
@@ -16217,16 +16171,16 @@
         <v>212</v>
       </c>
       <c r="B219" s="20" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="C219" s="20" t="s">
         <v>56</v>
       </c>
       <c r="D219" s="20" t="s">
+        <v>450</v>
+      </c>
+      <c r="E219" s="21" t="s">
         <v>451</v>
-      </c>
-      <c r="E219" s="21" t="s">
-        <v>452</v>
       </c>
       <c r="F219" s="22"/>
       <c r="G219" s="23"/>
@@ -16251,16 +16205,16 @@
         <v>213</v>
       </c>
       <c r="B220" s="20" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="C220" s="20" t="s">
         <v>56</v>
       </c>
       <c r="D220" s="20" t="s">
+        <v>452</v>
+      </c>
+      <c r="E220" s="21" t="s">
         <v>453</v>
-      </c>
-      <c r="E220" s="21" t="s">
-        <v>454</v>
       </c>
       <c r="F220" s="22"/>
       <c r="G220" s="23"/>
@@ -16285,16 +16239,16 @@
         <v>214</v>
       </c>
       <c r="B221" s="20" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="C221" s="20" t="s">
         <v>56</v>
       </c>
       <c r="D221" s="20" t="s">
+        <v>454</v>
+      </c>
+      <c r="E221" s="21" t="s">
         <v>455</v>
-      </c>
-      <c r="E221" s="21" t="s">
-        <v>456</v>
       </c>
       <c r="F221" s="22"/>
       <c r="G221" s="23"/>
@@ -16319,16 +16273,16 @@
         <v>215</v>
       </c>
       <c r="B222" s="20" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="C222" s="20" t="s">
         <v>56</v>
       </c>
       <c r="D222" s="20" t="s">
+        <v>456</v>
+      </c>
+      <c r="E222" s="21" t="s">
         <v>457</v>
-      </c>
-      <c r="E222" s="21" t="s">
-        <v>458</v>
       </c>
       <c r="F222" s="22"/>
       <c r="G222" s="23"/>
@@ -16353,16 +16307,16 @@
         <v>216</v>
       </c>
       <c r="B223" s="20" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="C223" s="20" t="s">
         <v>56</v>
       </c>
       <c r="D223" s="20" t="s">
+        <v>458</v>
+      </c>
+      <c r="E223" s="21" t="s">
         <v>459</v>
-      </c>
-      <c r="E223" s="21" t="s">
-        <v>460</v>
       </c>
       <c r="F223" s="22"/>
       <c r="G223" s="23"/>
@@ -16387,16 +16341,16 @@
         <v>217</v>
       </c>
       <c r="B224" s="20" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="C224" s="20" t="s">
         <v>56</v>
       </c>
       <c r="D224" s="20" t="s">
+        <v>460</v>
+      </c>
+      <c r="E224" s="21" t="s">
         <v>461</v>
-      </c>
-      <c r="E224" s="21" t="s">
-        <v>462</v>
       </c>
       <c r="F224" s="22"/>
       <c r="G224" s="23"/>
@@ -16421,16 +16375,16 @@
         <v>218</v>
       </c>
       <c r="B225" s="20" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="C225" s="20" t="s">
         <v>56</v>
       </c>
       <c r="D225" s="20" t="s">
+        <v>462</v>
+      </c>
+      <c r="E225" s="21" t="s">
         <v>463</v>
-      </c>
-      <c r="E225" s="21" t="s">
-        <v>464</v>
       </c>
       <c r="F225" s="22"/>
       <c r="G225" s="23"/>
@@ -16455,16 +16409,16 @@
         <v>219</v>
       </c>
       <c r="B226" s="20" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="C226" s="20" t="s">
         <v>56</v>
       </c>
       <c r="D226" s="20" t="s">
+        <v>464</v>
+      </c>
+      <c r="E226" s="21" t="s">
         <v>465</v>
-      </c>
-      <c r="E226" s="21" t="s">
-        <v>466</v>
       </c>
       <c r="F226" s="22"/>
       <c r="G226" s="23"/>
@@ -16489,16 +16443,16 @@
         <v>220</v>
       </c>
       <c r="B227" s="20" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="C227" s="20" t="s">
         <v>56</v>
       </c>
       <c r="D227" s="20" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="E227" s="21" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="F227" s="22"/>
       <c r="G227" s="23"/>
@@ -16523,16 +16477,16 @@
         <v>221</v>
       </c>
       <c r="B228" s="20" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="C228" s="20" t="s">
         <v>56</v>
       </c>
       <c r="D228" s="20" t="s">
+        <v>467</v>
+      </c>
+      <c r="E228" s="21" t="s">
         <v>468</v>
-      </c>
-      <c r="E228" s="21" t="s">
-        <v>469</v>
       </c>
       <c r="F228" s="22"/>
       <c r="G228" s="23"/>
@@ -16557,16 +16511,16 @@
         <v>222</v>
       </c>
       <c r="B229" s="20" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="C229" s="20" t="s">
         <v>56</v>
       </c>
       <c r="D229" s="20" t="s">
+        <v>469</v>
+      </c>
+      <c r="E229" s="21" t="s">
         <v>470</v>
-      </c>
-      <c r="E229" s="21" t="s">
-        <v>471</v>
       </c>
       <c r="F229" s="22"/>
       <c r="G229" s="23"/>
@@ -16591,16 +16545,16 @@
         <v>223</v>
       </c>
       <c r="B230" s="20" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="C230" s="20" t="s">
         <v>56</v>
       </c>
       <c r="D230" s="20" t="s">
+        <v>471</v>
+      </c>
+      <c r="E230" s="21" t="s">
         <v>472</v>
-      </c>
-      <c r="E230" s="21" t="s">
-        <v>473</v>
       </c>
       <c r="F230" s="22"/>
       <c r="G230" s="23"/>
@@ -16625,16 +16579,16 @@
         <v>224</v>
       </c>
       <c r="B231" s="20" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="C231" s="20" t="s">
         <v>65</v>
       </c>
       <c r="D231" s="20" t="s">
+        <v>473</v>
+      </c>
+      <c r="E231" s="21" t="s">
         <v>474</v>
-      </c>
-      <c r="E231" s="21" t="s">
-        <v>475</v>
       </c>
       <c r="F231" s="22"/>
       <c r="G231" s="23"/>
@@ -16659,16 +16613,16 @@
         <v>225</v>
       </c>
       <c r="B232" s="20" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="C232" s="20" t="s">
         <v>65</v>
       </c>
       <c r="D232" s="20" t="s">
+        <v>475</v>
+      </c>
+      <c r="E232" s="21" t="s">
         <v>476</v>
-      </c>
-      <c r="E232" s="21" t="s">
-        <v>477</v>
       </c>
       <c r="F232" s="22"/>
       <c r="G232" s="23"/>
@@ -16693,16 +16647,16 @@
         <v>226</v>
       </c>
       <c r="B233" s="20" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="C233" s="20" t="s">
         <v>65</v>
       </c>
       <c r="D233" s="20" t="s">
+        <v>477</v>
+      </c>
+      <c r="E233" s="21" t="s">
         <v>478</v>
-      </c>
-      <c r="E233" s="21" t="s">
-        <v>479</v>
       </c>
       <c r="F233" s="22"/>
       <c r="G233" s="23"/>
@@ -16727,16 +16681,16 @@
         <v>227</v>
       </c>
       <c r="B234" s="20" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="C234" s="20" t="s">
         <v>65</v>
       </c>
       <c r="D234" s="20" t="s">
+        <v>479</v>
+      </c>
+      <c r="E234" s="21" t="s">
         <v>480</v>
-      </c>
-      <c r="E234" s="21" t="s">
-        <v>481</v>
       </c>
       <c r="F234" s="22"/>
       <c r="G234" s="23"/>
@@ -16761,16 +16715,16 @@
         <v>228</v>
       </c>
       <c r="B235" s="20" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="C235" s="20" t="s">
         <v>65</v>
       </c>
       <c r="D235" s="20" t="s">
+        <v>481</v>
+      </c>
+      <c r="E235" s="21" t="s">
         <v>482</v>
-      </c>
-      <c r="E235" s="21" t="s">
-        <v>483</v>
       </c>
       <c r="F235" s="22"/>
       <c r="G235" s="23"/>
@@ -16795,16 +16749,16 @@
         <v>229</v>
       </c>
       <c r="B236" s="20" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="C236" s="20" t="s">
         <v>65</v>
       </c>
       <c r="D236" s="20" t="s">
+        <v>483</v>
+      </c>
+      <c r="E236" s="21" t="s">
         <v>484</v>
-      </c>
-      <c r="E236" s="21" t="s">
-        <v>485</v>
       </c>
       <c r="F236" s="22"/>
       <c r="G236" s="23"/>
@@ -16829,16 +16783,16 @@
         <v>230</v>
       </c>
       <c r="B237" s="20" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="C237" s="20" t="s">
         <v>65</v>
       </c>
       <c r="D237" s="20" t="s">
+        <v>485</v>
+      </c>
+      <c r="E237" s="21" t="s">
         <v>486</v>
-      </c>
-      <c r="E237" s="21" t="s">
-        <v>487</v>
       </c>
       <c r="F237" s="22"/>
       <c r="G237" s="23"/>
@@ -16863,16 +16817,16 @@
         <v>231</v>
       </c>
       <c r="B238" s="20" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="C238" s="20" t="s">
         <v>65</v>
       </c>
       <c r="D238" s="20" t="s">
+        <v>487</v>
+      </c>
+      <c r="E238" s="21" t="s">
         <v>488</v>
-      </c>
-      <c r="E238" s="21" t="s">
-        <v>489</v>
       </c>
       <c r="F238" s="22"/>
       <c r="G238" s="23"/>
@@ -16897,16 +16851,16 @@
         <v>232</v>
       </c>
       <c r="B239" s="20" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="C239" s="20" t="s">
         <v>65</v>
       </c>
       <c r="D239" s="20" t="s">
+        <v>489</v>
+      </c>
+      <c r="E239" s="21" t="s">
         <v>490</v>
-      </c>
-      <c r="E239" s="21" t="s">
-        <v>491</v>
       </c>
       <c r="F239" s="22"/>
       <c r="G239" s="23"/>
@@ -16931,16 +16885,16 @@
         <v>233</v>
       </c>
       <c r="B240" s="20" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="C240" s="20" t="s">
         <v>65</v>
       </c>
       <c r="D240" s="20" t="s">
+        <v>491</v>
+      </c>
+      <c r="E240" s="21" t="s">
         <v>492</v>
-      </c>
-      <c r="E240" s="21" t="s">
-        <v>493</v>
       </c>
       <c r="F240" s="22"/>
       <c r="G240" s="23"/>
@@ -16965,16 +16919,16 @@
         <v>234</v>
       </c>
       <c r="B241" s="20" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="C241" s="20" t="s">
         <v>65</v>
       </c>
       <c r="D241" s="20" t="s">
+        <v>493</v>
+      </c>
+      <c r="E241" s="21" t="s">
         <v>494</v>
-      </c>
-      <c r="E241" s="21" t="s">
-        <v>495</v>
       </c>
       <c r="F241" s="22"/>
       <c r="G241" s="23"/>
@@ -16999,16 +16953,16 @@
         <v>235</v>
       </c>
       <c r="B242" s="20" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="C242" s="20" t="s">
         <v>65</v>
       </c>
       <c r="D242" s="20" t="s">
+        <v>495</v>
+      </c>
+      <c r="E242" s="21" t="s">
         <v>496</v>
-      </c>
-      <c r="E242" s="21" t="s">
-        <v>497</v>
       </c>
       <c r="F242" s="22"/>
       <c r="G242" s="23"/>
@@ -17033,16 +16987,16 @@
         <v>236</v>
       </c>
       <c r="B243" s="20" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="C243" s="20" t="s">
         <v>65</v>
       </c>
       <c r="D243" s="20" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="E243" s="21" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="F243" s="22"/>
       <c r="G243" s="23"/>
@@ -17067,16 +17021,16 @@
         <v>237</v>
       </c>
       <c r="B244" s="20" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="C244" s="20" t="s">
         <v>65</v>
       </c>
       <c r="D244" s="20" t="s">
+        <v>498</v>
+      </c>
+      <c r="E244" s="21" t="s">
         <v>499</v>
-      </c>
-      <c r="E244" s="21" t="s">
-        <v>500</v>
       </c>
       <c r="F244" s="22"/>
       <c r="G244" s="23"/>
@@ -17101,16 +17055,16 @@
         <v>238</v>
       </c>
       <c r="B245" s="20" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="C245" s="20" t="s">
         <v>65</v>
       </c>
       <c r="D245" s="20" t="s">
+        <v>500</v>
+      </c>
+      <c r="E245" s="21" t="s">
         <v>501</v>
-      </c>
-      <c r="E245" s="21" t="s">
-        <v>502</v>
       </c>
       <c r="F245" s="22"/>
       <c r="G245" s="23"/>
@@ -17135,16 +17089,16 @@
         <v>239</v>
       </c>
       <c r="B246" s="20" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="C246" s="20" t="s">
         <v>65</v>
       </c>
       <c r="D246" s="20" t="s">
+        <v>502</v>
+      </c>
+      <c r="E246" s="21" t="s">
         <v>503</v>
-      </c>
-      <c r="E246" s="21" t="s">
-        <v>504</v>
       </c>
       <c r="F246" s="22"/>
       <c r="G246" s="23"/>
@@ -17169,16 +17123,16 @@
         <v>240</v>
       </c>
       <c r="B247" s="20" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="C247" s="20" t="s">
         <v>74</v>
       </c>
       <c r="D247" s="20" t="s">
+        <v>504</v>
+      </c>
+      <c r="E247" s="21" t="s">
         <v>505</v>
-      </c>
-      <c r="E247" s="21" t="s">
-        <v>506</v>
       </c>
       <c r="F247" s="22"/>
       <c r="G247" s="23"/>
@@ -17203,16 +17157,16 @@
         <v>241</v>
       </c>
       <c r="B248" s="20" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="C248" s="20" t="s">
         <v>74</v>
       </c>
       <c r="D248" s="20" t="s">
+        <v>506</v>
+      </c>
+      <c r="E248" s="21" t="s">
         <v>507</v>
-      </c>
-      <c r="E248" s="21" t="s">
-        <v>508</v>
       </c>
       <c r="F248" s="22"/>
       <c r="G248" s="23"/>
@@ -17237,16 +17191,16 @@
         <v>242</v>
       </c>
       <c r="B249" s="20" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="C249" s="20" t="s">
         <v>74</v>
       </c>
       <c r="D249" s="20" t="s">
+        <v>508</v>
+      </c>
+      <c r="E249" s="21" t="s">
         <v>509</v>
-      </c>
-      <c r="E249" s="21" t="s">
-        <v>510</v>
       </c>
       <c r="F249" s="22"/>
       <c r="G249" s="23"/>
@@ -17271,16 +17225,16 @@
         <v>243</v>
       </c>
       <c r="B250" s="20" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="C250" s="20" t="s">
         <v>74</v>
       </c>
       <c r="D250" s="20" t="s">
+        <v>510</v>
+      </c>
+      <c r="E250" s="21" t="s">
         <v>511</v>
-      </c>
-      <c r="E250" s="21" t="s">
-        <v>512</v>
       </c>
       <c r="F250" s="22"/>
       <c r="G250" s="23"/>
@@ -17305,16 +17259,16 @@
         <v>244</v>
       </c>
       <c r="B251" s="20" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="C251" s="20" t="s">
         <v>74</v>
       </c>
       <c r="D251" s="20" t="s">
+        <v>512</v>
+      </c>
+      <c r="E251" s="21" t="s">
         <v>513</v>
-      </c>
-      <c r="E251" s="21" t="s">
-        <v>514</v>
       </c>
       <c r="F251" s="22"/>
       <c r="G251" s="23"/>
@@ -17339,16 +17293,16 @@
         <v>245</v>
       </c>
       <c r="B252" s="20" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="C252" s="20" t="s">
         <v>74</v>
       </c>
       <c r="D252" s="20" t="s">
+        <v>514</v>
+      </c>
+      <c r="E252" s="21" t="s">
         <v>515</v>
-      </c>
-      <c r="E252" s="21" t="s">
-        <v>516</v>
       </c>
       <c r="F252" s="22"/>
       <c r="G252" s="23"/>
@@ -17373,16 +17327,16 @@
         <v>246</v>
       </c>
       <c r="B253" s="20" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="C253" s="20" t="s">
         <v>74</v>
       </c>
       <c r="D253" s="20" t="s">
+        <v>516</v>
+      </c>
+      <c r="E253" s="21" t="s">
         <v>517</v>
-      </c>
-      <c r="E253" s="21" t="s">
-        <v>518</v>
       </c>
       <c r="F253" s="22"/>
       <c r="G253" s="23"/>
@@ -17407,16 +17361,16 @@
         <v>247</v>
       </c>
       <c r="B254" s="20" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="C254" s="20" t="s">
         <v>74</v>
       </c>
       <c r="D254" s="20" t="s">
+        <v>518</v>
+      </c>
+      <c r="E254" s="21" t="s">
         <v>519</v>
-      </c>
-      <c r="E254" s="21" t="s">
-        <v>520</v>
       </c>
       <c r="F254" s="22"/>
       <c r="G254" s="23"/>
@@ -17441,16 +17395,16 @@
         <v>248</v>
       </c>
       <c r="B255" s="20" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="C255" s="20" t="s">
         <v>74</v>
       </c>
       <c r="D255" s="20" t="s">
+        <v>520</v>
+      </c>
+      <c r="E255" s="21" t="s">
         <v>521</v>
-      </c>
-      <c r="E255" s="21" t="s">
-        <v>522</v>
       </c>
       <c r="F255" s="22"/>
       <c r="G255" s="23"/>
@@ -17475,16 +17429,16 @@
         <v>249</v>
       </c>
       <c r="B256" s="20" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="C256" s="20" t="s">
         <v>74</v>
       </c>
       <c r="D256" s="20" t="s">
+        <v>522</v>
+      </c>
+      <c r="E256" s="21" t="s">
         <v>523</v>
-      </c>
-      <c r="E256" s="21" t="s">
-        <v>524</v>
       </c>
       <c r="F256" s="22"/>
       <c r="G256" s="23"/>
@@ -17509,16 +17463,16 @@
         <v>250</v>
       </c>
       <c r="B257" s="20" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="C257" s="20" t="s">
         <v>74</v>
       </c>
       <c r="D257" s="20" t="s">
+        <v>524</v>
+      </c>
+      <c r="E257" s="21" t="s">
         <v>525</v>
-      </c>
-      <c r="E257" s="21" t="s">
-        <v>526</v>
       </c>
       <c r="F257" s="22"/>
       <c r="G257" s="23"/>
@@ -17543,16 +17497,16 @@
         <v>251</v>
       </c>
       <c r="B258" s="20" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="C258" s="20" t="s">
         <v>74</v>
       </c>
       <c r="D258" s="20" t="s">
+        <v>526</v>
+      </c>
+      <c r="E258" s="21" t="s">
         <v>527</v>
-      </c>
-      <c r="E258" s="21" t="s">
-        <v>528</v>
       </c>
       <c r="F258" s="22"/>
       <c r="G258" s="23"/>
@@ -17577,16 +17531,16 @@
         <v>252</v>
       </c>
       <c r="B259" s="20" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="C259" s="20" t="s">
         <v>74</v>
       </c>
       <c r="D259" s="20" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="E259" s="21" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="F259" s="22"/>
       <c r="G259" s="23"/>
@@ -17611,16 +17565,16 @@
         <v>253</v>
       </c>
       <c r="B260" s="20" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="C260" s="20" t="s">
         <v>74</v>
       </c>
       <c r="D260" s="20" t="s">
+        <v>529</v>
+      </c>
+      <c r="E260" s="21" t="s">
         <v>530</v>
-      </c>
-      <c r="E260" s="21" t="s">
-        <v>531</v>
       </c>
       <c r="F260" s="22"/>
       <c r="G260" s="23"/>
@@ -17645,16 +17599,16 @@
         <v>254</v>
       </c>
       <c r="B261" s="20" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="C261" s="20" t="s">
         <v>74</v>
       </c>
       <c r="D261" s="20" t="s">
+        <v>531</v>
+      </c>
+      <c r="E261" s="21" t="s">
         <v>532</v>
-      </c>
-      <c r="E261" s="21" t="s">
-        <v>533</v>
       </c>
       <c r="F261" s="22"/>
       <c r="G261" s="23"/>
@@ -17679,16 +17633,16 @@
         <v>255</v>
       </c>
       <c r="B262" s="20" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="C262" s="20" t="s">
         <v>74</v>
       </c>
       <c r="D262" s="20" t="s">
+        <v>533</v>
+      </c>
+      <c r="E262" s="21" t="s">
         <v>534</v>
-      </c>
-      <c r="E262" s="21" t="s">
-        <v>535</v>
       </c>
       <c r="F262" s="22"/>
       <c r="G262" s="23"/>
@@ -17713,16 +17667,16 @@
         <v>256</v>
       </c>
       <c r="B263" s="20" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="C263" s="20" t="s">
         <v>83</v>
       </c>
       <c r="D263" s="20" t="s">
+        <v>535</v>
+      </c>
+      <c r="E263" s="21" t="s">
         <v>536</v>
-      </c>
-      <c r="E263" s="21" t="s">
-        <v>537</v>
       </c>
       <c r="F263" s="22"/>
       <c r="G263" s="23"/>
@@ -17747,16 +17701,16 @@
         <v>257</v>
       </c>
       <c r="B264" s="20" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="C264" s="20" t="s">
         <v>83</v>
       </c>
       <c r="D264" s="20" t="s">
+        <v>537</v>
+      </c>
+      <c r="E264" s="21" t="s">
         <v>538</v>
-      </c>
-      <c r="E264" s="21" t="s">
-        <v>539</v>
       </c>
       <c r="F264" s="22"/>
       <c r="G264" s="23"/>
@@ -17781,16 +17735,16 @@
         <v>258</v>
       </c>
       <c r="B265" s="20" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="C265" s="20" t="s">
         <v>83</v>
       </c>
       <c r="D265" s="20" t="s">
+        <v>539</v>
+      </c>
+      <c r="E265" s="21" t="s">
         <v>540</v>
-      </c>
-      <c r="E265" s="21" t="s">
-        <v>541</v>
       </c>
       <c r="F265" s="22"/>
       <c r="G265" s="23"/>
@@ -17815,16 +17769,16 @@
         <v>259</v>
       </c>
       <c r="B266" s="20" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="C266" s="20" t="s">
         <v>83</v>
       </c>
       <c r="D266" s="20" t="s">
+        <v>541</v>
+      </c>
+      <c r="E266" s="21" t="s">
         <v>542</v>
-      </c>
-      <c r="E266" s="21" t="s">
-        <v>543</v>
       </c>
       <c r="F266" s="22"/>
       <c r="G266" s="23"/>
@@ -17849,16 +17803,16 @@
         <v>260</v>
       </c>
       <c r="B267" s="20" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="C267" s="20" t="s">
         <v>83</v>
       </c>
       <c r="D267" s="20" t="s">
+        <v>543</v>
+      </c>
+      <c r="E267" s="21" t="s">
         <v>544</v>
-      </c>
-      <c r="E267" s="21" t="s">
-        <v>545</v>
       </c>
       <c r="F267" s="22"/>
       <c r="G267" s="23"/>
@@ -17883,16 +17837,16 @@
         <v>261</v>
       </c>
       <c r="B268" s="20" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="C268" s="20" t="s">
         <v>83</v>
       </c>
       <c r="D268" s="20" t="s">
+        <v>545</v>
+      </c>
+      <c r="E268" s="21" t="s">
         <v>546</v>
-      </c>
-      <c r="E268" s="21" t="s">
-        <v>547</v>
       </c>
       <c r="F268" s="22"/>
       <c r="G268" s="23"/>
@@ -17917,16 +17871,16 @@
         <v>262</v>
       </c>
       <c r="B269" s="20" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="C269" s="20" t="s">
         <v>83</v>
       </c>
       <c r="D269" s="20" t="s">
+        <v>547</v>
+      </c>
+      <c r="E269" s="21" t="s">
         <v>548</v>
-      </c>
-      <c r="E269" s="21" t="s">
-        <v>549</v>
       </c>
       <c r="F269" s="22"/>
       <c r="G269" s="23"/>
@@ -17951,16 +17905,16 @@
         <v>263</v>
       </c>
       <c r="B270" s="20" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="C270" s="20" t="s">
         <v>83</v>
       </c>
       <c r="D270" s="20" t="s">
+        <v>549</v>
+      </c>
+      <c r="E270" s="21" t="s">
         <v>550</v>
-      </c>
-      <c r="E270" s="21" t="s">
-        <v>551</v>
       </c>
       <c r="F270" s="22"/>
       <c r="G270" s="23"/>
@@ -17985,16 +17939,16 @@
         <v>264</v>
       </c>
       <c r="B271" s="20" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="C271" s="20" t="s">
         <v>83</v>
       </c>
       <c r="D271" s="20" t="s">
+        <v>551</v>
+      </c>
+      <c r="E271" s="21" t="s">
         <v>552</v>
-      </c>
-      <c r="E271" s="21" t="s">
-        <v>553</v>
       </c>
       <c r="F271" s="22"/>
       <c r="G271" s="23"/>
@@ -18019,16 +17973,16 @@
         <v>265</v>
       </c>
       <c r="B272" s="20" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="C272" s="20" t="s">
         <v>83</v>
       </c>
       <c r="D272" s="20" t="s">
+        <v>553</v>
+      </c>
+      <c r="E272" s="21" t="s">
         <v>554</v>
-      </c>
-      <c r="E272" s="21" t="s">
-        <v>555</v>
       </c>
       <c r="F272" s="22"/>
       <c r="G272" s="23"/>
@@ -18053,16 +18007,16 @@
         <v>266</v>
       </c>
       <c r="B273" s="20" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="C273" s="20" t="s">
         <v>83</v>
       </c>
       <c r="D273" s="20" t="s">
+        <v>555</v>
+      </c>
+      <c r="E273" s="21" t="s">
         <v>556</v>
-      </c>
-      <c r="E273" s="21" t="s">
-        <v>557</v>
       </c>
       <c r="F273" s="22"/>
       <c r="G273" s="23"/>
@@ -18087,16 +18041,16 @@
         <v>267</v>
       </c>
       <c r="B274" s="20" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="C274" s="20" t="s">
         <v>83</v>
       </c>
       <c r="D274" s="20" t="s">
+        <v>557</v>
+      </c>
+      <c r="E274" s="21" t="s">
         <v>558</v>
-      </c>
-      <c r="E274" s="21" t="s">
-        <v>559</v>
       </c>
       <c r="F274" s="22"/>
       <c r="G274" s="23"/>
@@ -18121,16 +18075,16 @@
         <v>268</v>
       </c>
       <c r="B275" s="20" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="C275" s="20" t="s">
         <v>83</v>
       </c>
       <c r="D275" s="20" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="E275" s="21" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="F275" s="22"/>
       <c r="G275" s="23"/>
@@ -18155,16 +18109,16 @@
         <v>269</v>
       </c>
       <c r="B276" s="20" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="C276" s="20" t="s">
         <v>83</v>
       </c>
       <c r="D276" s="20" t="s">
+        <v>560</v>
+      </c>
+      <c r="E276" s="21" t="s">
         <v>561</v>
-      </c>
-      <c r="E276" s="21" t="s">
-        <v>562</v>
       </c>
       <c r="F276" s="22"/>
       <c r="G276" s="23"/>
@@ -18189,16 +18143,16 @@
         <v>270</v>
       </c>
       <c r="B277" s="20" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="C277" s="20" t="s">
         <v>83</v>
       </c>
       <c r="D277" s="20" t="s">
+        <v>562</v>
+      </c>
+      <c r="E277" s="21" t="s">
         <v>563</v>
-      </c>
-      <c r="E277" s="21" t="s">
-        <v>564</v>
       </c>
       <c r="F277" s="22"/>
       <c r="G277" s="23"/>
@@ -18223,16 +18177,16 @@
         <v>271</v>
       </c>
       <c r="B278" s="20" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="C278" s="20" t="s">
         <v>83</v>
       </c>
       <c r="D278" s="20" t="s">
+        <v>564</v>
+      </c>
+      <c r="E278" s="21" t="s">
         <v>565</v>
-      </c>
-      <c r="E278" s="21" t="s">
-        <v>566</v>
       </c>
       <c r="F278" s="22"/>
       <c r="G278" s="23"/>
@@ -18257,16 +18211,16 @@
         <v>272</v>
       </c>
       <c r="B279" s="20" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="C279" s="20" t="s">
         <v>92</v>
       </c>
       <c r="D279" s="20" t="s">
+        <v>566</v>
+      </c>
+      <c r="E279" s="21" t="s">
         <v>567</v>
-      </c>
-      <c r="E279" s="21" t="s">
-        <v>568</v>
       </c>
       <c r="F279" s="22"/>
       <c r="G279" s="23"/>
@@ -18291,16 +18245,16 @@
         <v>273</v>
       </c>
       <c r="B280" s="20" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="C280" s="20" t="s">
         <v>92</v>
       </c>
       <c r="D280" s="20" t="s">
+        <v>568</v>
+      </c>
+      <c r="E280" s="21" t="s">
         <v>569</v>
-      </c>
-      <c r="E280" s="21" t="s">
-        <v>570</v>
       </c>
       <c r="F280" s="22"/>
       <c r="G280" s="23"/>
@@ -18325,16 +18279,16 @@
         <v>274</v>
       </c>
       <c r="B281" s="20" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="C281" s="20" t="s">
         <v>92</v>
       </c>
       <c r="D281" s="20" t="s">
+        <v>570</v>
+      </c>
+      <c r="E281" s="21" t="s">
         <v>571</v>
-      </c>
-      <c r="E281" s="21" t="s">
-        <v>572</v>
       </c>
       <c r="F281" s="22"/>
       <c r="G281" s="23"/>
@@ -18359,16 +18313,16 @@
         <v>275</v>
       </c>
       <c r="B282" s="20" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="C282" s="20" t="s">
         <v>92</v>
       </c>
       <c r="D282" s="20" t="s">
+        <v>572</v>
+      </c>
+      <c r="E282" s="21" t="s">
         <v>573</v>
-      </c>
-      <c r="E282" s="21" t="s">
-        <v>574</v>
       </c>
       <c r="F282" s="22"/>
       <c r="G282" s="23"/>
@@ -18393,16 +18347,16 @@
         <v>276</v>
       </c>
       <c r="B283" s="20" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="C283" s="20" t="s">
         <v>92</v>
       </c>
       <c r="D283" s="20" t="s">
+        <v>574</v>
+      </c>
+      <c r="E283" s="21" t="s">
         <v>575</v>
-      </c>
-      <c r="E283" s="21" t="s">
-        <v>576</v>
       </c>
       <c r="F283" s="22"/>
       <c r="G283" s="23"/>
@@ -18427,16 +18381,16 @@
         <v>277</v>
       </c>
       <c r="B284" s="20" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="C284" s="20" t="s">
         <v>92</v>
       </c>
       <c r="D284" s="20" t="s">
+        <v>576</v>
+      </c>
+      <c r="E284" s="21" t="s">
         <v>577</v>
-      </c>
-      <c r="E284" s="21" t="s">
-        <v>578</v>
       </c>
       <c r="F284" s="22"/>
       <c r="G284" s="23"/>
@@ -18461,16 +18415,16 @@
         <v>278</v>
       </c>
       <c r="B285" s="20" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="C285" s="20" t="s">
         <v>92</v>
       </c>
       <c r="D285" s="20" t="s">
+        <v>578</v>
+      </c>
+      <c r="E285" s="21" t="s">
         <v>579</v>
-      </c>
-      <c r="E285" s="21" t="s">
-        <v>580</v>
       </c>
       <c r="F285" s="22"/>
       <c r="G285" s="23"/>
@@ -18495,16 +18449,16 @@
         <v>279</v>
       </c>
       <c r="B286" s="20" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="C286" s="20" t="s">
         <v>92</v>
       </c>
       <c r="D286" s="20" t="s">
+        <v>580</v>
+      </c>
+      <c r="E286" s="21" t="s">
         <v>581</v>
-      </c>
-      <c r="E286" s="21" t="s">
-        <v>582</v>
       </c>
       <c r="F286" s="22"/>
       <c r="G286" s="23"/>
@@ -18529,16 +18483,16 @@
         <v>280</v>
       </c>
       <c r="B287" s="20" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="C287" s="20" t="s">
         <v>92</v>
       </c>
       <c r="D287" s="20" t="s">
+        <v>582</v>
+      </c>
+      <c r="E287" s="21" t="s">
         <v>583</v>
-      </c>
-      <c r="E287" s="21" t="s">
-        <v>584</v>
       </c>
       <c r="F287" s="22"/>
       <c r="G287" s="23"/>
@@ -18563,16 +18517,16 @@
         <v>281</v>
       </c>
       <c r="B288" s="20" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="C288" s="20" t="s">
         <v>92</v>
       </c>
       <c r="D288" s="20" t="s">
+        <v>584</v>
+      </c>
+      <c r="E288" s="21" t="s">
         <v>585</v>
-      </c>
-      <c r="E288" s="21" t="s">
-        <v>586</v>
       </c>
       <c r="F288" s="22"/>
       <c r="G288" s="23"/>
@@ -18597,16 +18551,16 @@
         <v>282</v>
       </c>
       <c r="B289" s="20" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="C289" s="20" t="s">
         <v>92</v>
       </c>
       <c r="D289" s="20" t="s">
+        <v>586</v>
+      </c>
+      <c r="E289" s="21" t="s">
         <v>587</v>
-      </c>
-      <c r="E289" s="21" t="s">
-        <v>588</v>
       </c>
       <c r="F289" s="22"/>
       <c r="G289" s="23"/>
@@ -18631,16 +18585,16 @@
         <v>283</v>
       </c>
       <c r="B290" s="20" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="C290" s="20" t="s">
         <v>92</v>
       </c>
       <c r="D290" s="20" t="s">
+        <v>588</v>
+      </c>
+      <c r="E290" s="21" t="s">
         <v>589</v>
-      </c>
-      <c r="E290" s="21" t="s">
-        <v>590</v>
       </c>
       <c r="F290" s="22"/>
       <c r="G290" s="23"/>
@@ -18665,16 +18619,16 @@
         <v>284</v>
       </c>
       <c r="B291" s="20" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="C291" s="20" t="s">
         <v>92</v>
       </c>
       <c r="D291" s="20" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="E291" s="21" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="F291" s="22"/>
       <c r="G291" s="23"/>
@@ -18699,16 +18653,16 @@
         <v>285</v>
       </c>
       <c r="B292" s="20" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="C292" s="20" t="s">
         <v>92</v>
       </c>
       <c r="D292" s="20" t="s">
+        <v>591</v>
+      </c>
+      <c r="E292" s="21" t="s">
         <v>592</v>
-      </c>
-      <c r="E292" s="21" t="s">
-        <v>593</v>
       </c>
       <c r="F292" s="22"/>
       <c r="G292" s="23"/>
@@ -18733,16 +18687,16 @@
         <v>286</v>
       </c>
       <c r="B293" s="20" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="C293" s="20" t="s">
         <v>92</v>
       </c>
       <c r="D293" s="20" t="s">
+        <v>593</v>
+      </c>
+      <c r="E293" s="21" t="s">
         <v>594</v>
-      </c>
-      <c r="E293" s="21" t="s">
-        <v>595</v>
       </c>
       <c r="F293" s="22"/>
       <c r="G293" s="23"/>
@@ -18767,16 +18721,16 @@
         <v>287</v>
       </c>
       <c r="B294" s="20" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="C294" s="20" t="s">
         <v>92</v>
       </c>
       <c r="D294" s="20" t="s">
+        <v>595</v>
+      </c>
+      <c r="E294" s="21" t="s">
         <v>596</v>
-      </c>
-      <c r="E294" s="21" t="s">
-        <v>597</v>
       </c>
       <c r="F294" s="22"/>
       <c r="G294" s="23"/>
@@ -18801,16 +18755,16 @@
         <v>288</v>
       </c>
       <c r="B295" s="20" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="C295" s="20" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D295" s="20" t="s">
+        <v>597</v>
+      </c>
+      <c r="E295" s="21" t="s">
         <v>598</v>
-      </c>
-      <c r="E295" s="21" t="s">
-        <v>599</v>
       </c>
       <c r="F295" s="22"/>
       <c r="G295" s="23"/>
@@ -18835,16 +18789,16 @@
         <v>289</v>
       </c>
       <c r="B296" s="20" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="C296" s="20" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D296" s="20" t="s">
+        <v>599</v>
+      </c>
+      <c r="E296" s="21" t="s">
         <v>600</v>
-      </c>
-      <c r="E296" s="21" t="s">
-        <v>601</v>
       </c>
       <c r="F296" s="22"/>
       <c r="G296" s="23"/>
@@ -18869,16 +18823,16 @@
         <v>290</v>
       </c>
       <c r="B297" s="20" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="C297" s="20" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D297" s="20" t="s">
+        <v>601</v>
+      </c>
+      <c r="E297" s="21" t="s">
         <v>602</v>
-      </c>
-      <c r="E297" s="21" t="s">
-        <v>603</v>
       </c>
       <c r="F297" s="22"/>
       <c r="G297" s="23"/>
@@ -18903,16 +18857,16 @@
         <v>291</v>
       </c>
       <c r="B298" s="20" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="C298" s="20" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D298" s="20" t="s">
+        <v>603</v>
+      </c>
+      <c r="E298" s="21" t="s">
         <v>604</v>
-      </c>
-      <c r="E298" s="21" t="s">
-        <v>605</v>
       </c>
       <c r="F298" s="22"/>
       <c r="G298" s="23"/>
@@ -18937,16 +18891,16 @@
         <v>292</v>
       </c>
       <c r="B299" s="20" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="C299" s="20" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D299" s="20" t="s">
+        <v>605</v>
+      </c>
+      <c r="E299" s="21" t="s">
         <v>606</v>
-      </c>
-      <c r="E299" s="21" t="s">
-        <v>607</v>
       </c>
       <c r="F299" s="22"/>
       <c r="G299" s="23"/>
@@ -18971,16 +18925,16 @@
         <v>293</v>
       </c>
       <c r="B300" s="20" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="C300" s="20" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D300" s="20" t="s">
+        <v>607</v>
+      </c>
+      <c r="E300" s="21" t="s">
         <v>608</v>
-      </c>
-      <c r="E300" s="21" t="s">
-        <v>609</v>
       </c>
       <c r="F300" s="22"/>
       <c r="G300" s="23"/>
@@ -19005,16 +18959,16 @@
         <v>294</v>
       </c>
       <c r="B301" s="20" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="C301" s="20" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D301" s="20" t="s">
+        <v>609</v>
+      </c>
+      <c r="E301" s="21" t="s">
         <v>610</v>
-      </c>
-      <c r="E301" s="21" t="s">
-        <v>611</v>
       </c>
       <c r="F301" s="22"/>
       <c r="G301" s="23"/>
@@ -19039,16 +18993,16 @@
         <v>295</v>
       </c>
       <c r="B302" s="20" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="C302" s="20" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D302" s="20" t="s">
+        <v>611</v>
+      </c>
+      <c r="E302" s="21" t="s">
         <v>612</v>
-      </c>
-      <c r="E302" s="21" t="s">
-        <v>613</v>
       </c>
       <c r="F302" s="22"/>
       <c r="G302" s="23"/>
@@ -19073,16 +19027,16 @@
         <v>296</v>
       </c>
       <c r="B303" s="20" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="C303" s="20" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D303" s="20" t="s">
+        <v>613</v>
+      </c>
+      <c r="E303" s="21" t="s">
         <v>614</v>
-      </c>
-      <c r="E303" s="21" t="s">
-        <v>615</v>
       </c>
       <c r="F303" s="22"/>
       <c r="G303" s="23"/>
@@ -19107,16 +19061,16 @@
         <v>297</v>
       </c>
       <c r="B304" s="20" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="C304" s="20" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D304" s="20" t="s">
+        <v>615</v>
+      </c>
+      <c r="E304" s="21" t="s">
         <v>616</v>
-      </c>
-      <c r="E304" s="21" t="s">
-        <v>617</v>
       </c>
       <c r="F304" s="22"/>
       <c r="G304" s="23"/>
@@ -19141,16 +19095,16 @@
         <v>298</v>
       </c>
       <c r="B305" s="20" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="C305" s="20" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D305" s="20" t="s">
+        <v>617</v>
+      </c>
+      <c r="E305" s="21" t="s">
         <v>618</v>
-      </c>
-      <c r="E305" s="21" t="s">
-        <v>619</v>
       </c>
       <c r="F305" s="22"/>
       <c r="G305" s="23"/>
@@ -19175,16 +19129,16 @@
         <v>299</v>
       </c>
       <c r="B306" s="20" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="C306" s="20" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D306" s="20" t="s">
+        <v>619</v>
+      </c>
+      <c r="E306" s="21" t="s">
         <v>620</v>
-      </c>
-      <c r="E306" s="21" t="s">
-        <v>621</v>
       </c>
       <c r="F306" s="22"/>
       <c r="G306" s="23"/>
@@ -19209,16 +19163,16 @@
         <v>300</v>
       </c>
       <c r="B307" s="20" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="C307" s="20" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D307" s="20" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="E307" s="21" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="F307" s="22"/>
       <c r="G307" s="23"/>
@@ -19243,16 +19197,16 @@
         <v>301</v>
       </c>
       <c r="B308" s="20" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="C308" s="20" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D308" s="20" t="s">
+        <v>622</v>
+      </c>
+      <c r="E308" s="21" t="s">
         <v>623</v>
-      </c>
-      <c r="E308" s="21" t="s">
-        <v>624</v>
       </c>
       <c r="F308" s="22"/>
       <c r="G308" s="23"/>
@@ -19277,16 +19231,16 @@
         <v>302</v>
       </c>
       <c r="B309" s="20" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="C309" s="20" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D309" s="20" t="s">
+        <v>624</v>
+      </c>
+      <c r="E309" s="21" t="s">
         <v>625</v>
-      </c>
-      <c r="E309" s="21" t="s">
-        <v>626</v>
       </c>
       <c r="F309" s="22"/>
       <c r="G309" s="23"/>
@@ -19311,16 +19265,16 @@
         <v>303</v>
       </c>
       <c r="B310" s="20" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="C310" s="20" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D310" s="20" t="s">
+        <v>626</v>
+      </c>
+      <c r="E310" s="21" t="s">
         <v>627</v>
-      </c>
-      <c r="E310" s="21" t="s">
-        <v>628</v>
       </c>
       <c r="F310" s="22"/>
       <c r="G310" s="23"/>
@@ -19345,16 +19299,16 @@
         <v>304</v>
       </c>
       <c r="B311" s="20" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="C311" s="20" t="s">
         <v>106</v>
       </c>
       <c r="D311" s="20" t="s">
+        <v>628</v>
+      </c>
+      <c r="E311" s="21" t="s">
         <v>629</v>
-      </c>
-      <c r="E311" s="21" t="s">
-        <v>630</v>
       </c>
       <c r="F311" s="22"/>
       <c r="G311" s="23"/>
@@ -19379,16 +19333,16 @@
         <v>305</v>
       </c>
       <c r="B312" s="20" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="C312" s="20" t="s">
         <v>106</v>
       </c>
       <c r="D312" s="20" t="s">
+        <v>630</v>
+      </c>
+      <c r="E312" s="21" t="s">
         <v>631</v>
-      </c>
-      <c r="E312" s="21" t="s">
-        <v>632</v>
       </c>
       <c r="F312" s="22"/>
       <c r="G312" s="23"/>
@@ -19413,16 +19367,16 @@
         <v>306</v>
       </c>
       <c r="B313" s="20" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="C313" s="20" t="s">
         <v>106</v>
       </c>
       <c r="D313" s="20" t="s">
+        <v>632</v>
+      </c>
+      <c r="E313" s="21" t="s">
         <v>633</v>
-      </c>
-      <c r="E313" s="21" t="s">
-        <v>634</v>
       </c>
       <c r="F313" s="22"/>
       <c r="G313" s="23"/>
@@ -19447,16 +19401,16 @@
         <v>307</v>
       </c>
       <c r="B314" s="20" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="C314" s="20" t="s">
         <v>106</v>
       </c>
       <c r="D314" s="20" t="s">
+        <v>634</v>
+      </c>
+      <c r="E314" s="21" t="s">
         <v>635</v>
-      </c>
-      <c r="E314" s="21" t="s">
-        <v>636</v>
       </c>
       <c r="F314" s="22"/>
       <c r="G314" s="23"/>
@@ -19481,16 +19435,16 @@
         <v>308</v>
       </c>
       <c r="B315" s="20" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="C315" s="20" t="s">
         <v>106</v>
       </c>
       <c r="D315" s="20" t="s">
+        <v>636</v>
+      </c>
+      <c r="E315" s="21" t="s">
         <v>637</v>
-      </c>
-      <c r="E315" s="21" t="s">
-        <v>638</v>
       </c>
       <c r="F315" s="22"/>
       <c r="G315" s="23"/>
@@ -19515,16 +19469,16 @@
         <v>309</v>
       </c>
       <c r="B316" s="20" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="C316" s="20" t="s">
         <v>106</v>
       </c>
       <c r="D316" s="20" t="s">
+        <v>638</v>
+      </c>
+      <c r="E316" s="21" t="s">
         <v>639</v>
-      </c>
-      <c r="E316" s="21" t="s">
-        <v>640</v>
       </c>
       <c r="F316" s="22"/>
       <c r="G316" s="23"/>
@@ -19549,16 +19503,16 @@
         <v>310</v>
       </c>
       <c r="B317" s="20" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="C317" s="20" t="s">
         <v>106</v>
       </c>
       <c r="D317" s="20" t="s">
+        <v>640</v>
+      </c>
+      <c r="E317" s="21" t="s">
         <v>641</v>
-      </c>
-      <c r="E317" s="21" t="s">
-        <v>642</v>
       </c>
       <c r="F317" s="22"/>
       <c r="G317" s="23"/>
@@ -19583,16 +19537,16 @@
         <v>311</v>
       </c>
       <c r="B318" s="20" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="C318" s="20" t="s">
         <v>106</v>
       </c>
       <c r="D318" s="20" t="s">
+        <v>642</v>
+      </c>
+      <c r="E318" s="21" t="s">
         <v>643</v>
-      </c>
-      <c r="E318" s="21" t="s">
-        <v>644</v>
       </c>
       <c r="F318" s="22"/>
       <c r="G318" s="23"/>
@@ -19617,16 +19571,16 @@
         <v>312</v>
       </c>
       <c r="B319" s="20" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="C319" s="20" t="s">
         <v>106</v>
       </c>
       <c r="D319" s="20" t="s">
+        <v>644</v>
+      </c>
+      <c r="E319" s="21" t="s">
         <v>645</v>
-      </c>
-      <c r="E319" s="21" t="s">
-        <v>646</v>
       </c>
       <c r="F319" s="22"/>
       <c r="G319" s="23"/>
@@ -19651,16 +19605,16 @@
         <v>313</v>
       </c>
       <c r="B320" s="20" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="C320" s="20" t="s">
         <v>106</v>
       </c>
       <c r="D320" s="20" t="s">
+        <v>646</v>
+      </c>
+      <c r="E320" s="21" t="s">
         <v>647</v>
-      </c>
-      <c r="E320" s="21" t="s">
-        <v>648</v>
       </c>
       <c r="F320" s="22"/>
       <c r="G320" s="23"/>
@@ -19685,16 +19639,16 @@
         <v>314</v>
       </c>
       <c r="B321" s="20" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="C321" s="20" t="s">
         <v>106</v>
       </c>
       <c r="D321" s="20" t="s">
+        <v>648</v>
+      </c>
+      <c r="E321" s="21" t="s">
         <v>649</v>
-      </c>
-      <c r="E321" s="21" t="s">
-        <v>650</v>
       </c>
       <c r="F321" s="22"/>
       <c r="G321" s="23"/>
@@ -19719,16 +19673,16 @@
         <v>315</v>
       </c>
       <c r="B322" s="20" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="C322" s="20" t="s">
         <v>106</v>
       </c>
       <c r="D322" s="20" t="s">
+        <v>650</v>
+      </c>
+      <c r="E322" s="21" t="s">
         <v>651</v>
-      </c>
-      <c r="E322" s="21" t="s">
-        <v>652</v>
       </c>
       <c r="F322" s="22"/>
       <c r="G322" s="23"/>
@@ -19753,16 +19707,16 @@
         <v>316</v>
       </c>
       <c r="B323" s="20" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="C323" s="20" t="s">
         <v>106</v>
       </c>
       <c r="D323" s="20" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="E323" s="21" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="F323" s="22"/>
       <c r="G323" s="23"/>
@@ -19787,16 +19741,16 @@
         <v>317</v>
       </c>
       <c r="B324" s="20" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="C324" s="20" t="s">
         <v>106</v>
       </c>
       <c r="D324" s="20" t="s">
+        <v>653</v>
+      </c>
+      <c r="E324" s="21" t="s">
         <v>654</v>
-      </c>
-      <c r="E324" s="21" t="s">
-        <v>655</v>
       </c>
       <c r="F324" s="22"/>
       <c r="G324" s="23"/>
@@ -19821,16 +19775,16 @@
         <v>318</v>
       </c>
       <c r="B325" s="20" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="C325" s="20" t="s">
         <v>106</v>
       </c>
       <c r="D325" s="20" t="s">
+        <v>655</v>
+      </c>
+      <c r="E325" s="21" t="s">
         <v>656</v>
-      </c>
-      <c r="E325" s="21" t="s">
-        <v>657</v>
       </c>
       <c r="F325" s="22"/>
       <c r="G325" s="23"/>
@@ -19855,16 +19809,16 @@
         <v>319</v>
       </c>
       <c r="B326" s="20" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="C326" s="20" t="s">
         <v>106</v>
       </c>
       <c r="D326" s="20" t="s">
+        <v>657</v>
+      </c>
+      <c r="E326" s="21" t="s">
         <v>658</v>
-      </c>
-      <c r="E326" s="21" t="s">
-        <v>659</v>
       </c>
       <c r="F326" s="22"/>
       <c r="G326" s="23"/>
@@ -19889,16 +19843,16 @@
         <v>320</v>
       </c>
       <c r="B327" s="20" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="C327" s="20" t="s">
         <v>44</v>
       </c>
       <c r="D327" s="20" t="s">
+        <v>659</v>
+      </c>
+      <c r="E327" s="21" t="s">
         <v>660</v>
-      </c>
-      <c r="E327" s="21" t="s">
-        <v>661</v>
       </c>
       <c r="F327" s="22"/>
       <c r="G327" s="23"/>
@@ -19923,16 +19877,16 @@
         <v>321</v>
       </c>
       <c r="B328" s="20" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="C328" s="20" t="s">
         <v>44</v>
       </c>
       <c r="D328" s="20" t="s">
+        <v>661</v>
+      </c>
+      <c r="E328" s="21" t="s">
         <v>662</v>
-      </c>
-      <c r="E328" s="21" t="s">
-        <v>663</v>
       </c>
       <c r="F328" s="22"/>
       <c r="G328" s="23"/>
@@ -19957,16 +19911,16 @@
         <v>322</v>
       </c>
       <c r="B329" s="20" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="C329" s="20" t="s">
         <v>44</v>
       </c>
       <c r="D329" s="20" t="s">
+        <v>663</v>
+      </c>
+      <c r="E329" s="21" t="s">
         <v>664</v>
-      </c>
-      <c r="E329" s="21" t="s">
-        <v>665</v>
       </c>
       <c r="F329" s="22"/>
       <c r="G329" s="23"/>
@@ -19991,16 +19945,16 @@
         <v>323</v>
       </c>
       <c r="B330" s="20" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="C330" s="20" t="s">
         <v>44</v>
       </c>
       <c r="D330" s="20" t="s">
+        <v>665</v>
+      </c>
+      <c r="E330" s="21" t="s">
         <v>666</v>
-      </c>
-      <c r="E330" s="21" t="s">
-        <v>667</v>
       </c>
       <c r="F330" s="22"/>
       <c r="G330" s="23"/>
@@ -20025,16 +19979,16 @@
         <v>324</v>
       </c>
       <c r="B331" s="20" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="C331" s="20" t="s">
         <v>56</v>
       </c>
       <c r="D331" s="20" t="s">
+        <v>667</v>
+      </c>
+      <c r="E331" s="21" t="s">
         <v>668</v>
-      </c>
-      <c r="E331" s="21" t="s">
-        <v>669</v>
       </c>
       <c r="F331" s="22"/>
       <c r="G331" s="23"/>
@@ -20059,16 +20013,16 @@
         <v>325</v>
       </c>
       <c r="B332" s="20" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="C332" s="20" t="s">
         <v>56</v>
       </c>
       <c r="D332" s="20" t="s">
+        <v>669</v>
+      </c>
+      <c r="E332" s="21" t="s">
         <v>670</v>
-      </c>
-      <c r="E332" s="21" t="s">
-        <v>671</v>
       </c>
       <c r="F332" s="22"/>
       <c r="G332" s="23"/>
@@ -20093,16 +20047,16 @@
         <v>326</v>
       </c>
       <c r="B333" s="20" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="C333" s="20" t="s">
         <v>56</v>
       </c>
       <c r="D333" s="20" t="s">
+        <v>671</v>
+      </c>
+      <c r="E333" s="21" t="s">
         <v>672</v>
-      </c>
-      <c r="E333" s="21" t="s">
-        <v>673</v>
       </c>
       <c r="F333" s="22"/>
       <c r="G333" s="23"/>
@@ -20127,16 +20081,16 @@
         <v>327</v>
       </c>
       <c r="B334" s="20" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="C334" s="20" t="s">
         <v>56</v>
       </c>
       <c r="D334" s="20" t="s">
+        <v>673</v>
+      </c>
+      <c r="E334" s="21" t="s">
         <v>674</v>
-      </c>
-      <c r="E334" s="21" t="s">
-        <v>675</v>
       </c>
       <c r="F334" s="22"/>
       <c r="G334" s="23"/>
@@ -20161,16 +20115,16 @@
         <v>328</v>
       </c>
       <c r="B335" s="20" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="C335" s="20" t="s">
         <v>65</v>
       </c>
       <c r="D335" s="20" t="s">
+        <v>675</v>
+      </c>
+      <c r="E335" s="21" t="s">
         <v>676</v>
-      </c>
-      <c r="E335" s="21" t="s">
-        <v>677</v>
       </c>
       <c r="F335" s="22"/>
       <c r="G335" s="23"/>
@@ -20195,16 +20149,16 @@
         <v>329</v>
       </c>
       <c r="B336" s="20" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="C336" s="20" t="s">
         <v>65</v>
       </c>
       <c r="D336" s="20" t="s">
+        <v>677</v>
+      </c>
+      <c r="E336" s="21" t="s">
         <v>678</v>
-      </c>
-      <c r="E336" s="21" t="s">
-        <v>679</v>
       </c>
       <c r="F336" s="22"/>
       <c r="G336" s="23"/>
@@ -20229,16 +20183,16 @@
         <v>330</v>
       </c>
       <c r="B337" s="20" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="C337" s="20" t="s">
         <v>65</v>
       </c>
       <c r="D337" s="20" t="s">
+        <v>679</v>
+      </c>
+      <c r="E337" s="21" t="s">
         <v>680</v>
-      </c>
-      <c r="E337" s="21" t="s">
-        <v>681</v>
       </c>
       <c r="F337" s="22"/>
       <c r="G337" s="23"/>
@@ -20263,16 +20217,16 @@
         <v>331</v>
       </c>
       <c r="B338" s="20" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="C338" s="20" t="s">
         <v>65</v>
       </c>
       <c r="D338" s="20" t="s">
+        <v>681</v>
+      </c>
+      <c r="E338" s="21" t="s">
         <v>682</v>
-      </c>
-      <c r="E338" s="21" t="s">
-        <v>683</v>
       </c>
       <c r="F338" s="22"/>
       <c r="G338" s="23"/>
@@ -20297,16 +20251,16 @@
         <v>332</v>
       </c>
       <c r="B339" s="20" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="C339" s="20" t="s">
         <v>74</v>
       </c>
       <c r="D339" s="20" t="s">
+        <v>683</v>
+      </c>
+      <c r="E339" s="21" t="s">
         <v>684</v>
-      </c>
-      <c r="E339" s="21" t="s">
-        <v>685</v>
       </c>
       <c r="F339" s="22"/>
       <c r="G339" s="23"/>
@@ -20331,16 +20285,16 @@
         <v>333</v>
       </c>
       <c r="B340" s="20" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="C340" s="20" t="s">
         <v>74</v>
       </c>
       <c r="D340" s="20" t="s">
+        <v>685</v>
+      </c>
+      <c r="E340" s="21" t="s">
         <v>686</v>
-      </c>
-      <c r="E340" s="21" t="s">
-        <v>687</v>
       </c>
       <c r="F340" s="22"/>
       <c r="G340" s="23"/>
@@ -20365,16 +20319,16 @@
         <v>334</v>
       </c>
       <c r="B341" s="20" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="C341" s="20" t="s">
         <v>74</v>
       </c>
       <c r="D341" s="20" t="s">
+        <v>687</v>
+      </c>
+      <c r="E341" s="21" t="s">
         <v>688</v>
-      </c>
-      <c r="E341" s="21" t="s">
-        <v>689</v>
       </c>
       <c r="F341" s="22"/>
       <c r="G341" s="23"/>
@@ -20399,16 +20353,16 @@
         <v>335</v>
       </c>
       <c r="B342" s="20" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="C342" s="20" t="s">
         <v>74</v>
       </c>
       <c r="D342" s="20" t="s">
+        <v>689</v>
+      </c>
+      <c r="E342" s="21" t="s">
         <v>690</v>
-      </c>
-      <c r="E342" s="21" t="s">
-        <v>691</v>
       </c>
       <c r="F342" s="22"/>
       <c r="G342" s="23"/>
@@ -20433,16 +20387,16 @@
         <v>336</v>
       </c>
       <c r="B343" s="20" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="C343" s="20" t="s">
         <v>83</v>
       </c>
       <c r="D343" s="20" t="s">
+        <v>691</v>
+      </c>
+      <c r="E343" s="21" t="s">
         <v>692</v>
-      </c>
-      <c r="E343" s="21" t="s">
-        <v>693</v>
       </c>
       <c r="F343" s="22"/>
       <c r="G343" s="23"/>
@@ -20467,16 +20421,16 @@
         <v>337</v>
       </c>
       <c r="B344" s="20" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="C344" s="20" t="s">
         <v>83</v>
       </c>
       <c r="D344" s="20" t="s">
+        <v>693</v>
+      </c>
+      <c r="E344" s="21" t="s">
         <v>694</v>
-      </c>
-      <c r="E344" s="21" t="s">
-        <v>695</v>
       </c>
       <c r="F344" s="22"/>
       <c r="G344" s="23"/>
@@ -20501,16 +20455,16 @@
         <v>338</v>
       </c>
       <c r="B345" s="20" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="C345" s="20" t="s">
         <v>83</v>
       </c>
       <c r="D345" s="20" t="s">
+        <v>695</v>
+      </c>
+      <c r="E345" s="21" t="s">
         <v>696</v>
-      </c>
-      <c r="E345" s="21" t="s">
-        <v>697</v>
       </c>
       <c r="F345" s="22"/>
       <c r="G345" s="23"/>
@@ -20535,16 +20489,16 @@
         <v>339</v>
       </c>
       <c r="B346" s="20" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="C346" s="20" t="s">
         <v>83</v>
       </c>
       <c r="D346" s="20" t="s">
+        <v>697</v>
+      </c>
+      <c r="E346" s="21" t="s">
         <v>698</v>
-      </c>
-      <c r="E346" s="21" t="s">
-        <v>699</v>
       </c>
       <c r="F346" s="22"/>
       <c r="G346" s="23"/>
@@ -20569,16 +20523,16 @@
         <v>340</v>
       </c>
       <c r="B347" s="20" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="C347" s="20" t="s">
         <v>92</v>
       </c>
       <c r="D347" s="20" t="s">
+        <v>699</v>
+      </c>
+      <c r="E347" s="21" t="s">
         <v>700</v>
-      </c>
-      <c r="E347" s="21" t="s">
-        <v>701</v>
       </c>
       <c r="F347" s="22"/>
       <c r="G347" s="23"/>
@@ -20603,16 +20557,16 @@
         <v>341</v>
       </c>
       <c r="B348" s="20" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="C348" s="20" t="s">
         <v>92</v>
       </c>
       <c r="D348" s="20" t="s">
+        <v>701</v>
+      </c>
+      <c r="E348" s="21" t="s">
         <v>702</v>
-      </c>
-      <c r="E348" s="21" t="s">
-        <v>703</v>
       </c>
       <c r="F348" s="22"/>
       <c r="G348" s="23"/>
@@ -20637,16 +20591,16 @@
         <v>342</v>
       </c>
       <c r="B349" s="20" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="C349" s="20" t="s">
         <v>92</v>
       </c>
       <c r="D349" s="20" t="s">
+        <v>703</v>
+      </c>
+      <c r="E349" s="21" t="s">
         <v>704</v>
-      </c>
-      <c r="E349" s="21" t="s">
-        <v>705</v>
       </c>
       <c r="F349" s="22"/>
       <c r="G349" s="23"/>
@@ -20671,16 +20625,16 @@
         <v>343</v>
       </c>
       <c r="B350" s="20" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="C350" s="20" t="s">
         <v>92</v>
       </c>
       <c r="D350" s="20" t="s">
+        <v>705</v>
+      </c>
+      <c r="E350" s="21" t="s">
         <v>706</v>
-      </c>
-      <c r="E350" s="21" t="s">
-        <v>707</v>
       </c>
       <c r="F350" s="22"/>
       <c r="G350" s="23"/>
@@ -20705,16 +20659,16 @@
         <v>344</v>
       </c>
       <c r="B351" s="20" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="C351" s="20" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D351" s="20" t="s">
+        <v>707</v>
+      </c>
+      <c r="E351" s="21" t="s">
         <v>708</v>
-      </c>
-      <c r="E351" s="21" t="s">
-        <v>709</v>
       </c>
       <c r="F351" s="22"/>
       <c r="G351" s="23"/>
@@ -20739,16 +20693,16 @@
         <v>345</v>
       </c>
       <c r="B352" s="20" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="C352" s="20" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D352" s="20" t="s">
+        <v>709</v>
+      </c>
+      <c r="E352" s="21" t="s">
         <v>710</v>
-      </c>
-      <c r="E352" s="21" t="s">
-        <v>711</v>
       </c>
       <c r="F352" s="22"/>
       <c r="G352" s="23"/>
@@ -20773,16 +20727,16 @@
         <v>346</v>
       </c>
       <c r="B353" s="20" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="C353" s="20" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D353" s="20" t="s">
+        <v>711</v>
+      </c>
+      <c r="E353" s="21" t="s">
         <v>712</v>
-      </c>
-      <c r="E353" s="21" t="s">
-        <v>713</v>
       </c>
       <c r="F353" s="22"/>
       <c r="G353" s="23"/>
@@ -20807,16 +20761,16 @@
         <v>347</v>
       </c>
       <c r="B354" s="20" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="C354" s="20" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D354" s="20" t="s">
+        <v>713</v>
+      </c>
+      <c r="E354" s="21" t="s">
         <v>714</v>
-      </c>
-      <c r="E354" s="21" t="s">
-        <v>715</v>
       </c>
       <c r="F354" s="22"/>
       <c r="G354" s="23"/>
@@ -20841,16 +20795,16 @@
         <v>348</v>
       </c>
       <c r="B355" s="20" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="C355" s="20" t="s">
         <v>106</v>
       </c>
       <c r="D355" s="20" t="s">
+        <v>715</v>
+      </c>
+      <c r="E355" s="21" t="s">
         <v>716</v>
-      </c>
-      <c r="E355" s="21" t="s">
-        <v>717</v>
       </c>
       <c r="F355" s="22"/>
       <c r="G355" s="23"/>
@@ -20875,16 +20829,16 @@
         <v>349</v>
       </c>
       <c r="B356" s="20" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="C356" s="20" t="s">
         <v>106</v>
       </c>
       <c r="D356" s="20" t="s">
+        <v>717</v>
+      </c>
+      <c r="E356" s="21" t="s">
         <v>718</v>
-      </c>
-      <c r="E356" s="21" t="s">
-        <v>719</v>
       </c>
       <c r="F356" s="22"/>
       <c r="G356" s="23"/>
@@ -20909,16 +20863,16 @@
         <v>350</v>
       </c>
       <c r="B357" s="20" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="C357" s="20" t="s">
         <v>106</v>
       </c>
       <c r="D357" s="20" t="s">
+        <v>719</v>
+      </c>
+      <c r="E357" s="21" t="s">
         <v>720</v>
-      </c>
-      <c r="E357" s="21" t="s">
-        <v>721</v>
       </c>
       <c r="F357" s="22"/>
       <c r="G357" s="23"/>
@@ -20943,16 +20897,16 @@
         <v>351</v>
       </c>
       <c r="B358" s="20" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="C358" s="20" t="s">
         <v>106</v>
       </c>
       <c r="D358" s="20" t="s">
+        <v>721</v>
+      </c>
+      <c r="E358" s="21" t="s">
         <v>722</v>
-      </c>
-      <c r="E358" s="21" t="s">
-        <v>723</v>
       </c>
       <c r="F358" s="22"/>
       <c r="G358" s="23"/>
@@ -20977,16 +20931,16 @@
         <v>352</v>
       </c>
       <c r="B359" s="20" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="C359" s="20" t="s">
         <v>44</v>
       </c>
       <c r="D359" s="20" t="s">
+        <v>723</v>
+      </c>
+      <c r="E359" s="21" t="s">
         <v>724</v>
-      </c>
-      <c r="E359" s="21" t="s">
-        <v>725</v>
       </c>
       <c r="F359" s="22"/>
       <c r="G359" s="23"/>
@@ -21011,16 +20965,16 @@
         <v>353</v>
       </c>
       <c r="B360" s="20" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="C360" s="20" t="s">
         <v>44</v>
       </c>
       <c r="D360" s="20" t="s">
+        <v>725</v>
+      </c>
+      <c r="E360" s="21" t="s">
         <v>726</v>
-      </c>
-      <c r="E360" s="21" t="s">
-        <v>727</v>
       </c>
       <c r="F360" s="22"/>
       <c r="G360" s="23"/>
@@ -21045,16 +20999,16 @@
         <v>354</v>
       </c>
       <c r="B361" s="20" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="C361" s="20" t="s">
         <v>56</v>
       </c>
       <c r="D361" s="20" t="s">
+        <v>727</v>
+      </c>
+      <c r="E361" s="21" t="s">
         <v>728</v>
-      </c>
-      <c r="E361" s="21" t="s">
-        <v>729</v>
       </c>
       <c r="F361" s="22"/>
       <c r="G361" s="23"/>
@@ -21079,16 +21033,16 @@
         <v>355</v>
       </c>
       <c r="B362" s="20" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="C362" s="20" t="s">
         <v>56</v>
       </c>
       <c r="D362" s="20" t="s">
+        <v>729</v>
+      </c>
+      <c r="E362" s="21" t="s">
         <v>730</v>
-      </c>
-      <c r="E362" s="21" t="s">
-        <v>731</v>
       </c>
       <c r="F362" s="22"/>
       <c r="G362" s="23"/>
@@ -21113,16 +21067,16 @@
         <v>356</v>
       </c>
       <c r="B363" s="20" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="C363" s="20" t="s">
         <v>65</v>
       </c>
       <c r="D363" s="20" t="s">
+        <v>731</v>
+      </c>
+      <c r="E363" s="21" t="s">
         <v>732</v>
-      </c>
-      <c r="E363" s="21" t="s">
-        <v>733</v>
       </c>
       <c r="F363" s="22"/>
       <c r="G363" s="23"/>
@@ -21147,16 +21101,16 @@
         <v>357</v>
       </c>
       <c r="B364" s="20" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="C364" s="20" t="s">
         <v>65</v>
       </c>
       <c r="D364" s="20" t="s">
+        <v>733</v>
+      </c>
+      <c r="E364" s="21" t="s">
         <v>734</v>
-      </c>
-      <c r="E364" s="21" t="s">
-        <v>735</v>
       </c>
       <c r="F364" s="22"/>
       <c r="G364" s="23"/>
@@ -21181,16 +21135,16 @@
         <v>358</v>
       </c>
       <c r="B365" s="20" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="C365" s="20" t="s">
         <v>74</v>
       </c>
       <c r="D365" s="20" t="s">
+        <v>735</v>
+      </c>
+      <c r="E365" s="21" t="s">
         <v>736</v>
-      </c>
-      <c r="E365" s="21" t="s">
-        <v>737</v>
       </c>
       <c r="F365" s="22"/>
       <c r="G365" s="23"/>
@@ -21215,16 +21169,16 @@
         <v>359</v>
       </c>
       <c r="B366" s="20" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="C366" s="20" t="s">
         <v>74</v>
       </c>
       <c r="D366" s="20" t="s">
+        <v>737</v>
+      </c>
+      <c r="E366" s="21" t="s">
         <v>738</v>
-      </c>
-      <c r="E366" s="21" t="s">
-        <v>739</v>
       </c>
       <c r="F366" s="22"/>
       <c r="G366" s="23"/>
@@ -21249,16 +21203,16 @@
         <v>360</v>
       </c>
       <c r="B367" s="20" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="C367" s="20" t="s">
         <v>83</v>
       </c>
       <c r="D367" s="20" t="s">
+        <v>739</v>
+      </c>
+      <c r="E367" s="21" t="s">
         <v>740</v>
-      </c>
-      <c r="E367" s="21" t="s">
-        <v>741</v>
       </c>
       <c r="F367" s="22"/>
       <c r="G367" s="23"/>
@@ -21283,16 +21237,16 @@
         <v>361</v>
       </c>
       <c r="B368" s="20" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="C368" s="20" t="s">
         <v>83</v>
       </c>
       <c r="D368" s="20" t="s">
+        <v>741</v>
+      </c>
+      <c r="E368" s="21" t="s">
         <v>742</v>
-      </c>
-      <c r="E368" s="21" t="s">
-        <v>743</v>
       </c>
       <c r="F368" s="22"/>
       <c r="G368" s="23"/>
@@ -21317,16 +21271,16 @@
         <v>362</v>
       </c>
       <c r="B369" s="20" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="C369" s="20" t="s">
         <v>92</v>
       </c>
       <c r="D369" s="20" t="s">
+        <v>743</v>
+      </c>
+      <c r="E369" s="21" t="s">
         <v>744</v>
-      </c>
-      <c r="E369" s="21" t="s">
-        <v>745</v>
       </c>
       <c r="F369" s="22"/>
       <c r="G369" s="23"/>
@@ -21351,16 +21305,16 @@
         <v>363</v>
       </c>
       <c r="B370" s="20" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="C370" s="20" t="s">
         <v>92</v>
       </c>
       <c r="D370" s="20" t="s">
+        <v>745</v>
+      </c>
+      <c r="E370" s="21" t="s">
         <v>746</v>
-      </c>
-      <c r="E370" s="21" t="s">
-        <v>747</v>
       </c>
       <c r="F370" s="22"/>
       <c r="G370" s="23"/>
@@ -21385,16 +21339,16 @@
         <v>364</v>
       </c>
       <c r="B371" s="20" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="C371" s="20" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D371" s="20" t="s">
+        <v>747</v>
+      </c>
+      <c r="E371" s="21" t="s">
         <v>748</v>
-      </c>
-      <c r="E371" s="21" t="s">
-        <v>749</v>
       </c>
       <c r="F371" s="22"/>
       <c r="G371" s="23"/>
@@ -21419,16 +21373,16 @@
         <v>365</v>
       </c>
       <c r="B372" s="20" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="C372" s="20" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D372" s="20" t="s">
+        <v>749</v>
+      </c>
+      <c r="E372" s="21" t="s">
         <v>750</v>
-      </c>
-      <c r="E372" s="21" t="s">
-        <v>751</v>
       </c>
       <c r="F372" s="22"/>
       <c r="G372" s="23"/>
@@ -21453,16 +21407,16 @@
         <v>366</v>
       </c>
       <c r="B373" s="20" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="C373" s="20" t="s">
         <v>106</v>
       </c>
       <c r="D373" s="20" t="s">
+        <v>751</v>
+      </c>
+      <c r="E373" s="21" t="s">
         <v>752</v>
-      </c>
-      <c r="E373" s="21" t="s">
-        <v>753</v>
       </c>
       <c r="F373" s="22"/>
       <c r="G373" s="23"/>
@@ -21487,16 +21441,16 @@
         <v>367</v>
       </c>
       <c r="B374" s="20" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="C374" s="20" t="s">
         <v>106</v>
       </c>
       <c r="D374" s="20" t="s">
+        <v>753</v>
+      </c>
+      <c r="E374" s="21" t="s">
         <v>754</v>
-      </c>
-      <c r="E374" s="21" t="s">
-        <v>755</v>
       </c>
       <c r="F374" s="22"/>
       <c r="G374" s="23"/>
@@ -21527,10 +21481,10 @@
         <v>44</v>
       </c>
       <c r="D375" s="20" t="s">
+        <v>755</v>
+      </c>
+      <c r="E375" s="21" t="s">
         <v>756</v>
-      </c>
-      <c r="E375" s="21" t="s">
-        <v>757</v>
       </c>
       <c r="F375" s="22"/>
       <c r="G375" s="23"/>
@@ -21561,10 +21515,10 @@
         <v>56</v>
       </c>
       <c r="D376" s="20" t="s">
+        <v>757</v>
+      </c>
+      <c r="E376" s="21" t="s">
         <v>758</v>
-      </c>
-      <c r="E376" s="21" t="s">
-        <v>759</v>
       </c>
       <c r="F376" s="22"/>
       <c r="G376" s="23"/>
@@ -21595,10 +21549,10 @@
         <v>65</v>
       </c>
       <c r="D377" s="20" t="s">
+        <v>759</v>
+      </c>
+      <c r="E377" s="21" t="s">
         <v>760</v>
-      </c>
-      <c r="E377" s="21" t="s">
-        <v>761</v>
       </c>
       <c r="F377" s="22"/>
       <c r="G377" s="23"/>
@@ -21629,10 +21583,10 @@
         <v>74</v>
       </c>
       <c r="D378" s="20" t="s">
+        <v>761</v>
+      </c>
+      <c r="E378" s="21" t="s">
         <v>762</v>
-      </c>
-      <c r="E378" s="21" t="s">
-        <v>763</v>
       </c>
       <c r="F378" s="22"/>
       <c r="G378" s="23"/>
@@ -21663,10 +21617,10 @@
         <v>83</v>
       </c>
       <c r="D379" s="20" t="s">
+        <v>763</v>
+      </c>
+      <c r="E379" s="21" t="s">
         <v>764</v>
-      </c>
-      <c r="E379" s="21" t="s">
-        <v>765</v>
       </c>
       <c r="F379" s="22"/>
       <c r="G379" s="23"/>
@@ -21697,10 +21651,10 @@
         <v>92</v>
       </c>
       <c r="D380" s="20" t="s">
+        <v>765</v>
+      </c>
+      <c r="E380" s="21" t="s">
         <v>766</v>
-      </c>
-      <c r="E380" s="21" t="s">
-        <v>767</v>
       </c>
       <c r="F380" s="22"/>
       <c r="G380" s="23"/>
@@ -21728,13 +21682,13 @@
         <v>43</v>
       </c>
       <c r="C381" s="20" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D381" s="20" t="s">
+        <v>767</v>
+      </c>
+      <c r="E381" s="21" t="s">
         <v>768</v>
-      </c>
-      <c r="E381" s="21" t="s">
-        <v>769</v>
       </c>
       <c r="F381" s="22"/>
       <c r="G381" s="23"/>
@@ -21765,10 +21719,10 @@
         <v>106</v>
       </c>
       <c r="D382" s="20" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="E382" s="38" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="F382" s="22">
         <v>45260.529444444444</v>
@@ -21777,13 +21731,13 @@
         <v>45260.537245370368</v>
       </c>
       <c r="H382" s="23" t="s">
-        <v>918</v>
+        <v>915</v>
       </c>
       <c r="I382" s="23" t="s">
-        <v>919</v>
+        <v>916</v>
       </c>
       <c r="J382" s="24" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="K382" s="24"/>
       <c r="L382" s="24"/>
@@ -21809,10 +21763,10 @@
         <v>44</v>
       </c>
       <c r="D383" s="20" t="s">
+        <v>770</v>
+      </c>
+      <c r="E383" s="21" t="s">
         <v>771</v>
-      </c>
-      <c r="E383" s="21" t="s">
-        <v>772</v>
       </c>
       <c r="F383" s="22"/>
       <c r="G383" s="23"/>
@@ -26559,10 +26513,10 @@
         <v>24</v>
       </c>
       <c r="C1" s="28" t="s">
+        <v>772</v>
+      </c>
+      <c r="D1" s="28" t="s">
         <v>773</v>
-      </c>
-      <c r="D1" s="28" t="s">
-        <v>774</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -26570,13 +26524,13 @@
         <v>44</v>
       </c>
       <c r="B2" s="10" t="s">
+        <v>774</v>
+      </c>
+      <c r="C2" s="29" t="s">
         <v>775</v>
       </c>
-      <c r="C2" s="29" t="s">
+      <c r="D2" s="29" t="s">
         <v>776</v>
-      </c>
-      <c r="D2" s="29" t="s">
-        <v>777</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -26584,13 +26538,13 @@
         <v>56</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="C3" s="29" t="s">
+        <v>777</v>
+      </c>
+      <c r="D3" s="29" t="s">
         <v>778</v>
-      </c>
-      <c r="D3" s="29" t="s">
-        <v>779</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -26598,13 +26552,13 @@
         <v>65</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="C4" s="29" t="s">
+        <v>779</v>
+      </c>
+      <c r="D4" s="30" t="s">
         <v>780</v>
-      </c>
-      <c r="D4" s="30" t="s">
-        <v>781</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -26612,13 +26566,13 @@
         <v>74</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="C5" s="29" t="s">
+        <v>781</v>
+      </c>
+      <c r="D5" s="29" t="s">
         <v>782</v>
-      </c>
-      <c r="D5" s="29" t="s">
-        <v>783</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -26626,13 +26580,13 @@
         <v>83</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="C6" s="29" t="s">
+        <v>783</v>
+      </c>
+      <c r="D6" s="30" t="s">
         <v>784</v>
-      </c>
-      <c r="D6" s="30" t="s">
-        <v>785</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="16" x14ac:dyDescent="0.2">
@@ -26640,27 +26594,27 @@
         <v>92</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="C7" s="29" t="s">
+        <v>785</v>
+      </c>
+      <c r="D7" s="30" t="s">
         <v>786</v>
-      </c>
-      <c r="D7" s="30" t="s">
-        <v>787</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A8" s="10" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="C8" s="29" t="s">
+        <v>787</v>
+      </c>
+      <c r="D8" s="30" t="s">
         <v>788</v>
-      </c>
-      <c r="D8" s="30" t="s">
-        <v>789</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="16" x14ac:dyDescent="0.2">
@@ -26668,27 +26622,27 @@
         <v>106</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="C9" s="29" t="s">
+        <v>789</v>
+      </c>
+      <c r="D9" s="30" t="s">
         <v>790</v>
-      </c>
-      <c r="D9" s="30" t="s">
-        <v>791</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="32" x14ac:dyDescent="0.2">
       <c r="A10" s="10" t="s">
+        <v>791</v>
+      </c>
+      <c r="B10" s="10" t="s">
+        <v>774</v>
+      </c>
+      <c r="C10" s="30" t="s">
         <v>792</v>
       </c>
-      <c r="B10" s="10" t="s">
-        <v>775</v>
-      </c>
-      <c r="C10" s="30" t="s">
+      <c r="D10" s="29" t="s">
         <v>793</v>
-      </c>
-      <c r="D10" s="29" t="s">
-        <v>794</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -26696,13 +26650,13 @@
         <v>44</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="C11" s="29">
         <v>192</v>
       </c>
       <c r="D11" s="29" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -26710,13 +26664,13 @@
         <v>56</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="C12" s="29">
         <v>208</v>
       </c>
       <c r="D12" s="29" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -26724,13 +26678,13 @@
         <v>65</v>
       </c>
       <c r="B13" s="10" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="C13" s="29">
         <v>224</v>
       </c>
       <c r="D13" s="30" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -26738,13 +26692,13 @@
         <v>74</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="C14" s="29">
         <v>240</v>
       </c>
       <c r="D14" s="29" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -26752,13 +26706,13 @@
         <v>83</v>
       </c>
       <c r="B15" s="10" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="C15" s="29">
         <v>256</v>
       </c>
       <c r="D15" s="30" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -26766,27 +26720,27 @@
         <v>92</v>
       </c>
       <c r="B16" s="10" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="C16" s="29">
         <v>272</v>
       </c>
       <c r="D16" s="30" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="10" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B17" s="10" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="C17" s="29">
         <v>288</v>
       </c>
       <c r="D17" s="30" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -26794,13 +26748,13 @@
         <v>106</v>
       </c>
       <c r="B18" s="10" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="C18" s="29">
         <v>304</v>
       </c>
       <c r="D18" s="30" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -26808,13 +26762,13 @@
         <v>44</v>
       </c>
       <c r="B19" s="10" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="C19" s="29">
         <v>193</v>
       </c>
       <c r="D19" s="29" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -26822,13 +26776,13 @@
         <v>56</v>
       </c>
       <c r="B20" s="10" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="C20" s="29">
         <v>209</v>
       </c>
       <c r="D20" s="29" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -26836,13 +26790,13 @@
         <v>65</v>
       </c>
       <c r="B21" s="10" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="C21" s="29">
         <v>225</v>
       </c>
       <c r="D21" s="30" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -26850,13 +26804,13 @@
         <v>74</v>
       </c>
       <c r="B22" s="10" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="C22" s="29">
         <v>241</v>
       </c>
       <c r="D22" s="29" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -26864,13 +26818,13 @@
         <v>83</v>
       </c>
       <c r="B23" s="10" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="C23" s="29">
         <v>257</v>
       </c>
       <c r="D23" s="30" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -26878,27 +26832,27 @@
         <v>92</v>
       </c>
       <c r="B24" s="10" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="C24" s="29">
         <v>273</v>
       </c>
       <c r="D24" s="30" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="10" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B25" s="10" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="C25" s="29">
         <v>289</v>
       </c>
       <c r="D25" s="30" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -26906,13 +26860,13 @@
         <v>106</v>
       </c>
       <c r="B26" s="10" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="C26" s="29">
         <v>305</v>
       </c>
       <c r="D26" s="30" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -26920,13 +26874,13 @@
         <v>44</v>
       </c>
       <c r="B27" s="10" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="C27" s="29">
         <v>194</v>
       </c>
       <c r="D27" s="29" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -26934,13 +26888,13 @@
         <v>56</v>
       </c>
       <c r="B28" s="10" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="C28" s="29">
         <v>210</v>
       </c>
       <c r="D28" s="29" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -26948,13 +26902,13 @@
         <v>65</v>
       </c>
       <c r="B29" s="10" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="C29" s="29">
         <v>226</v>
       </c>
       <c r="D29" s="31" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -26962,13 +26916,13 @@
         <v>74</v>
       </c>
       <c r="B30" s="10" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="C30" s="29">
         <v>242</v>
       </c>
       <c r="D30" s="29" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -26976,13 +26930,13 @@
         <v>83</v>
       </c>
       <c r="B31" s="10" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="C31" s="29">
         <v>258</v>
       </c>
       <c r="D31" s="30" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -26990,27 +26944,27 @@
         <v>92</v>
       </c>
       <c r="B32" s="10" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="C32" s="29">
         <v>274</v>
       </c>
       <c r="D32" s="30" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="10" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B33" s="10" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="C33" s="29">
         <v>290</v>
       </c>
       <c r="D33" s="30" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -27018,13 +26972,13 @@
         <v>106</v>
       </c>
       <c r="B34" s="10" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="C34" s="29">
         <v>306</v>
       </c>
       <c r="D34" s="30" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -27032,7 +26986,7 @@
         <v>44</v>
       </c>
       <c r="B35" s="10" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="C35" s="29">
         <v>195</v>
@@ -27046,7 +27000,7 @@
         <v>56</v>
       </c>
       <c r="B36" s="10" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="C36" s="29">
         <v>211</v>
@@ -27060,7 +27014,7 @@
         <v>65</v>
       </c>
       <c r="B37" s="10" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="C37" s="29">
         <v>227</v>
@@ -27074,7 +27028,7 @@
         <v>74</v>
       </c>
       <c r="B38" s="10" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="C38" s="29">
         <v>243</v>
@@ -27088,7 +27042,7 @@
         <v>83</v>
       </c>
       <c r="B39" s="10" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="C39" s="29">
         <v>259</v>
@@ -27102,7 +27056,7 @@
         <v>92</v>
       </c>
       <c r="B40" s="10" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="C40" s="29">
         <v>275</v>
@@ -27113,10 +27067,10 @@
     </row>
     <row r="41" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="10" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B41" s="10" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="C41" s="29">
         <v>291</v>
@@ -27130,7 +27084,7 @@
         <v>106</v>
       </c>
       <c r="B42" s="10" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="C42" s="29">
         <v>307</v>
@@ -27144,7 +27098,7 @@
         <v>44</v>
       </c>
       <c r="B43" s="10" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="C43" s="29">
         <v>196</v>
@@ -27158,7 +27112,7 @@
         <v>56</v>
       </c>
       <c r="B44" s="10" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="C44" s="29">
         <v>212</v>
@@ -27172,7 +27126,7 @@
         <v>65</v>
       </c>
       <c r="B45" s="10" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="C45" s="29">
         <v>228</v>
@@ -27186,7 +27140,7 @@
         <v>74</v>
       </c>
       <c r="B46" s="10" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="C46" s="29">
         <v>244</v>
@@ -27200,7 +27154,7 @@
         <v>83</v>
       </c>
       <c r="B47" s="10" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="C47" s="29">
         <v>260</v>
@@ -27214,7 +27168,7 @@
         <v>92</v>
       </c>
       <c r="B48" s="10" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="C48" s="29">
         <v>276</v>
@@ -27225,10 +27179,10 @@
     </row>
     <row r="49" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="10" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B49" s="10" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="C49" s="29">
         <v>292</v>
@@ -27242,7 +27196,7 @@
         <v>106</v>
       </c>
       <c r="B50" s="10" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="C50" s="29">
         <v>308</v>
@@ -28230,18 +28184,18 @@
     </row>
     <row r="2" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
+        <v>824</v>
+      </c>
+      <c r="B3" s="3" t="s">
         <v>825</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>826</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
